--- a/Code/Results/Cases/Case_4_3/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_3/res_line/pl_mw.xlsx
@@ -412,34 +412,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.383435546798921</v>
+        <v>2.383435546798751</v>
       </c>
       <c r="C2">
-        <v>0.8041906684478022</v>
+        <v>0.8041906684475464</v>
       </c>
       <c r="D2">
-        <v>0.2646441079626953</v>
+        <v>0.2646441079627806</v>
       </c>
       <c r="E2">
-        <v>0.1724293201062466</v>
+        <v>0.1724293201061684</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.726599919847857</v>
+        <v>2.726599919847871</v>
       </c>
       <c r="H2">
         <v>1.963327796265588</v>
       </c>
       <c r="I2">
-        <v>0.03557283527709387</v>
+        <v>0.03557283527705302</v>
       </c>
       <c r="J2">
         <v>0.7314824072319865</v>
       </c>
       <c r="K2">
-        <v>0.3871165385020703</v>
+        <v>0.3871165385020632</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.04904789928429</v>
+        <v>2.049047899284233</v>
       </c>
       <c r="C3">
-        <v>0.6897327809764988</v>
+        <v>0.6897327809767546</v>
       </c>
       <c r="D3">
-        <v>0.229240097846855</v>
+        <v>0.2292400978467271</v>
       </c>
       <c r="E3">
-        <v>0.1492898738212389</v>
+        <v>0.1492898738212673</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.434622434045139</v>
+        <v>2.434622434045167</v>
       </c>
       <c r="H3">
-        <v>1.772812628154867</v>
+        <v>1.772812628154881</v>
       </c>
       <c r="I3">
-        <v>0.03078600460024106</v>
+        <v>0.03078600460021796</v>
       </c>
       <c r="J3">
-        <v>0.6284121846574919</v>
+        <v>0.6284121846575133</v>
       </c>
       <c r="K3">
-        <v>0.3333575378840337</v>
+        <v>0.3333575378840195</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.847907778519584</v>
+        <v>1.847907778519641</v>
       </c>
       <c r="C4">
-        <v>0.6210326510030768</v>
+        <v>0.6210326510033326</v>
       </c>
       <c r="D4">
-        <v>0.20804590494987</v>
+        <v>0.2080459049498984</v>
       </c>
       <c r="E4">
-        <v>0.135459371856637</v>
+        <v>0.1354593718565873</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -506,16 +506,16 @@
         <v>2.261141543020457</v>
       </c>
       <c r="H4">
-        <v>1.659840031655634</v>
+        <v>1.659840031655648</v>
       </c>
       <c r="I4">
-        <v>0.02792898671954269</v>
+        <v>0.02792898671956401</v>
       </c>
       <c r="J4">
-        <v>0.5664521995988849</v>
+        <v>0.5664521995988565</v>
       </c>
       <c r="K4">
-        <v>0.3011687052398386</v>
+        <v>0.3011687052398742</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.766834799063218</v>
+        <v>1.766834799063133</v>
       </c>
       <c r="C5">
-        <v>0.5933724005087697</v>
+        <v>0.5933724005085423</v>
       </c>
       <c r="D5">
-        <v>0.1995272448661893</v>
+        <v>0.1995272448661751</v>
       </c>
       <c r="E5">
-        <v>0.129905151995807</v>
+        <v>0.1299051519958709</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -544,16 +544,16 @@
         <v>2.191722591402424</v>
       </c>
       <c r="H5">
-        <v>1.614687491082449</v>
+        <v>1.614687491082435</v>
       </c>
       <c r="I5">
-        <v>0.02678252034661632</v>
+        <v>0.02678252034665185</v>
       </c>
       <c r="J5">
-        <v>0.5414860891084174</v>
+        <v>0.5414860891084388</v>
       </c>
       <c r="K5">
-        <v>0.2882279760368007</v>
+        <v>0.2882279760367936</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,34 +564,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.753422369463237</v>
+        <v>1.753422369463124</v>
       </c>
       <c r="C6">
-        <v>0.5887980428648518</v>
+        <v>0.5887980428648802</v>
       </c>
       <c r="D6">
         <v>0.1981193538664883</v>
       </c>
       <c r="E6">
-        <v>0.1289874640787403</v>
+        <v>0.1289874640787616</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.180267735206371</v>
+        <v>2.180267735206385</v>
       </c>
       <c r="H6">
-        <v>1.607240034819185</v>
+        <v>1.607240034819199</v>
       </c>
       <c r="I6">
-        <v>0.02659314710980176</v>
+        <v>0.02659314710981597</v>
       </c>
       <c r="J6">
-        <v>0.5373562131736307</v>
+        <v>0.5373562131736662</v>
       </c>
       <c r="K6">
-        <v>0.2860890301664938</v>
+        <v>0.2860890301664583</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.846810978471723</v>
+        <v>1.846810978471666</v>
       </c>
       <c r="C7">
-        <v>0.6206583323633765</v>
+        <v>0.6206583323630923</v>
       </c>
       <c r="D7">
-        <v>0.207930564234232</v>
+        <v>0.2079305642343598</v>
       </c>
       <c r="E7">
-        <v>0.1353841506641196</v>
+        <v>0.1353841506641587</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -620,16 +620,16 @@
         <v>2.260200394876904</v>
       </c>
       <c r="H7">
-        <v>1.659227659318788</v>
+        <v>1.659227659318802</v>
       </c>
       <c r="I7">
-        <v>0.02791345659641387</v>
+        <v>0.027913456596389</v>
       </c>
       <c r="J7">
         <v>0.5661144142945247</v>
       </c>
       <c r="K7">
-        <v>0.300993504329135</v>
+        <v>0.3009935043291492</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,34 +640,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.267172427892319</v>
+        <v>2.267172427892433</v>
       </c>
       <c r="C8">
-        <v>0.7643593014571195</v>
+        <v>0.7643593014569205</v>
       </c>
       <c r="D8">
-        <v>0.2523120431492316</v>
+        <v>0.2523120431492032</v>
       </c>
       <c r="E8">
-        <v>0.1643642621004133</v>
+        <v>0.1643642621003849</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.624608407245844</v>
+        <v>2.62460840724583</v>
       </c>
       <c r="H8">
         <v>1.896729435025676</v>
       </c>
       <c r="I8">
-        <v>0.03390347497637336</v>
+        <v>0.03390347497639112</v>
       </c>
       <c r="J8">
-        <v>0.6956367038977547</v>
+        <v>0.695636703897776</v>
       </c>
       <c r="K8">
-        <v>0.3683915543451164</v>
+        <v>0.3683915543451661</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.132710898113316</v>
+        <v>3.132710898113089</v>
       </c>
       <c r="C9">
-        <v>1.061828380480733</v>
+        <v>1.061828380479909</v>
       </c>
       <c r="D9">
-        <v>0.3446193444353725</v>
+        <v>0.3446193444355856</v>
       </c>
       <c r="E9">
-        <v>0.2248582408503026</v>
+        <v>0.2248582408503168</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -696,16 +696,16 @@
         <v>3.394483670371102</v>
       </c>
       <c r="H9">
-        <v>2.400510023829511</v>
+        <v>2.400510023829497</v>
       </c>
       <c r="I9">
-        <v>0.04644879801785962</v>
+        <v>0.04644879801784185</v>
       </c>
       <c r="J9">
-        <v>0.9627400799396781</v>
+        <v>0.9627400799397066</v>
       </c>
       <c r="K9">
-        <v>0.5085852642374391</v>
+        <v>0.5085852642374604</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.806890420761306</v>
+        <v>3.806890420761363</v>
       </c>
       <c r="C10">
-        <v>1.295078426046246</v>
+        <v>1.295078426046757</v>
       </c>
       <c r="D10">
-        <v>0.4172075233026646</v>
+        <v>0.4172075233028067</v>
       </c>
       <c r="E10">
-        <v>0.272626997251642</v>
+        <v>0.2726269972515425</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -734,16 +734,16 @@
         <v>4.008851894882156</v>
       </c>
       <c r="H10">
-        <v>2.803958814137687</v>
+        <v>2.803958814137715</v>
       </c>
       <c r="I10">
-        <v>0.05639279783693496</v>
+        <v>0.05639279783695628</v>
       </c>
       <c r="J10">
         <v>1.171193882450126</v>
       </c>
       <c r="K10">
-        <v>0.6189591760308488</v>
+        <v>0.6189591760308062</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,34 +754,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.125490255819955</v>
+        <v>4.125490255820011</v>
       </c>
       <c r="C11">
-        <v>1.405793095513275</v>
+        <v>1.405793095512934</v>
       </c>
       <c r="D11">
-        <v>0.4516881892114668</v>
+        <v>0.4516881892118079</v>
       </c>
       <c r="E11">
-        <v>0.2953775612483582</v>
+        <v>0.2953775612483653</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4.303017648859822</v>
+        <v>4.303017648859793</v>
       </c>
       <c r="H11">
-        <v>2.997483986991611</v>
+        <v>2.997483986991583</v>
       </c>
       <c r="I11">
-        <v>0.06114014170890414</v>
+        <v>0.0611401417089148</v>
       </c>
       <c r="J11">
-        <v>1.269830597073451</v>
+        <v>1.269830597073408</v>
       </c>
       <c r="K11">
-        <v>0.671450626223006</v>
+        <v>0.6714506262229705</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,13 +792,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.248213214053521</v>
+        <v>4.248213214053692</v>
       </c>
       <c r="C12">
-        <v>1.448524573291934</v>
+        <v>1.448524573291991</v>
       </c>
       <c r="D12">
-        <v>0.4649978916126543</v>
+        <v>0.4649978916128532</v>
       </c>
       <c r="E12">
         <v>0.3041695938834224</v>
@@ -807,19 +807,19 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4.416937246887983</v>
+        <v>4.416937246888011</v>
       </c>
       <c r="H12">
-        <v>3.072482768175718</v>
+        <v>3.072482768175746</v>
       </c>
       <c r="I12">
-        <v>0.06297671938919081</v>
+        <v>0.06297671938916949</v>
       </c>
       <c r="J12">
-        <v>1.307847012549402</v>
+        <v>1.307847012549345</v>
       </c>
       <c r="K12">
-        <v>0.6917249901338849</v>
+        <v>0.6917249901339062</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -833,13 +833,13 @@
         <v>4.221683795085767</v>
       </c>
       <c r="C13">
-        <v>1.439283151783286</v>
+        <v>1.439283151783457</v>
       </c>
       <c r="D13">
         <v>0.4621194108647444</v>
       </c>
       <c r="E13">
-        <v>0.302267665201704</v>
+        <v>0.3022676652018177</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -848,16 +848,16 @@
         <v>4.392282914677338</v>
       </c>
       <c r="H13">
-        <v>3.056249200811138</v>
+        <v>3.05624920081118</v>
       </c>
       <c r="I13">
-        <v>0.06257933131080406</v>
+        <v>0.06257933131081472</v>
       </c>
       <c r="J13">
-        <v>1.29962783440709</v>
+        <v>1.299627834407062</v>
       </c>
       <c r="K13">
-        <v>0.6873396530674398</v>
+        <v>0.6873396530674611</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.135542822454283</v>
+        <v>4.13554282245417</v>
       </c>
       <c r="C14">
-        <v>1.409291563738577</v>
+        <v>1.409291563738009</v>
       </c>
       <c r="D14">
         <v>0.4527778515731882</v>
       </c>
       <c r="E14">
-        <v>0.2960971494708673</v>
+        <v>0.296097149470846</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -886,16 +886,16 @@
         <v>4.312336635035223</v>
       </c>
       <c r="H14">
-        <v>3.003618041299291</v>
+        <v>3.003618041299248</v>
       </c>
       <c r="I14">
-        <v>0.06129041650360634</v>
+        <v>0.06129041650359923</v>
       </c>
       <c r="J14">
-        <v>1.272944159691392</v>
+        <v>1.27294415969142</v>
       </c>
       <c r="K14">
-        <v>0.6731102142782959</v>
+        <v>0.6731102142783314</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,34 +906,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.083061261085163</v>
+        <v>4.08306126108522</v>
       </c>
       <c r="C15">
-        <v>1.391030560682509</v>
+        <v>1.391030560682282</v>
       </c>
       <c r="D15">
-        <v>0.4470901727494265</v>
+        <v>0.447090172749455</v>
       </c>
       <c r="E15">
-        <v>0.2923415552619559</v>
+        <v>0.2923415552619844</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>4.26370964909546</v>
+        <v>4.263709649095404</v>
       </c>
       <c r="H15">
-        <v>2.97161237050581</v>
+        <v>2.971612370505767</v>
       </c>
       <c r="I15">
-        <v>0.06050619927270162</v>
+        <v>0.06050619927269096</v>
       </c>
       <c r="J15">
         <v>1.256690053973642</v>
       </c>
       <c r="K15">
-        <v>0.6644482310147737</v>
+        <v>0.6644482310148234</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.786338469517659</v>
+        <v>3.786338469517716</v>
       </c>
       <c r="C16">
-        <v>1.287947378247793</v>
+        <v>1.287947378247679</v>
       </c>
       <c r="D16">
-        <v>0.4149869889356239</v>
+        <v>0.4149869889360218</v>
       </c>
       <c r="E16">
-        <v>0.2711631837717476</v>
+        <v>0.2711631837717121</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>3.989956716870267</v>
       </c>
       <c r="H16">
-        <v>2.791535257479566</v>
+        <v>2.79153525747958</v>
       </c>
       <c r="I16">
-        <v>0.05608759477259184</v>
+        <v>0.05608759477259539</v>
       </c>
       <c r="J16">
-        <v>1.164833936461051</v>
+        <v>1.164833936461022</v>
       </c>
       <c r="K16">
-        <v>0.6155802615943742</v>
+        <v>0.61558026159436</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,34 +982,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.607598452949219</v>
+        <v>3.607598452949389</v>
       </c>
       <c r="C17">
-        <v>1.225983693959847</v>
+        <v>1.22598369395962</v>
       </c>
       <c r="D17">
-        <v>0.395694748734428</v>
+        <v>0.3956947487340585</v>
       </c>
       <c r="E17">
-        <v>0.2584520999126241</v>
+        <v>0.2584520999125672</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.826051906892872</v>
+        <v>3.826051906892928</v>
       </c>
       <c r="H17">
-        <v>2.683806494050074</v>
+        <v>2.683806494050103</v>
       </c>
       <c r="I17">
-        <v>0.0534386259411157</v>
+        <v>0.05343862594113347</v>
       </c>
       <c r="J17">
-        <v>1.109535894062603</v>
+        <v>1.109535894062631</v>
       </c>
       <c r="K17">
-        <v>0.586231023176353</v>
+        <v>0.5862310231763317</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.505888010873491</v>
+        <v>3.505888010873548</v>
       </c>
       <c r="C18">
         <v>1.190767586526476</v>
       </c>
       <c r="D18">
-        <v>0.3847328282808178</v>
+        <v>0.3847328282805904</v>
       </c>
       <c r="E18">
-        <v>0.2512349685653987</v>
+        <v>0.25123496856542</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1038,16 +1038,16 @@
         <v>3.733131980917022</v>
       </c>
       <c r="H18">
-        <v>2.62276527483786</v>
+        <v>2.622765274837846</v>
       </c>
       <c r="I18">
-        <v>0.05193560762020866</v>
+        <v>0.05193560762023708</v>
       </c>
       <c r="J18">
         <v>1.078080437640111</v>
       </c>
       <c r="K18">
-        <v>0.5695601181129035</v>
+        <v>0.5695601181129106</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,34 +1058,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.471628811143717</v>
+        <v>3.471628811143773</v>
       </c>
       <c r="C19">
-        <v>1.178912835392396</v>
+        <v>1.178912835392737</v>
       </c>
       <c r="D19">
-        <v>0.3810432227404021</v>
+        <v>0.3810432227407716</v>
       </c>
       <c r="E19">
-        <v>0.2488066732644327</v>
+        <v>0.2488066732643333</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.701891953008698</v>
+        <v>3.701891953008754</v>
       </c>
       <c r="H19">
-        <v>2.60224834037885</v>
+        <v>2.602248340378864</v>
       </c>
       <c r="I19">
-        <v>0.05143006466435551</v>
+        <v>0.05143006466429512</v>
       </c>
       <c r="J19">
-        <v>1.067487128627036</v>
+        <v>1.067487128627079</v>
       </c>
       <c r="K19">
-        <v>0.5639498006279311</v>
+        <v>0.5639498006280164</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.626509764333775</v>
+        <v>3.626509764333889</v>
       </c>
       <c r="C20">
-        <v>1.232535017591545</v>
+        <v>1.232535017591886</v>
       </c>
       <c r="D20">
-        <v>0.3977342383006714</v>
+        <v>0.3977342383012967</v>
       </c>
       <c r="E20">
         <v>0.2597952916296151</v>
@@ -1111,19 +1111,19 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.843356975371847</v>
+        <v>3.84335697537179</v>
       </c>
       <c r="H20">
-        <v>2.695177171769089</v>
+        <v>2.695177171769046</v>
       </c>
       <c r="I20">
-        <v>0.0537184367128809</v>
+        <v>0.0537184367128738</v>
       </c>
       <c r="J20">
-        <v>1.115385406719355</v>
+        <v>1.115385406719341</v>
       </c>
       <c r="K20">
-        <v>0.5893331054460944</v>
+        <v>0.5893331054461086</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.160784945142495</v>
+        <v>4.160784945142552</v>
       </c>
       <c r="C21">
-        <v>1.418077661581151</v>
+        <v>1.418077661581492</v>
       </c>
       <c r="D21">
-        <v>0.4555144594363298</v>
+        <v>0.4555144594359604</v>
       </c>
       <c r="E21">
-        <v>0.2979045109373004</v>
+        <v>0.2979045109372649</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1152,16 +1152,16 @@
         <v>4.335746589705906</v>
       </c>
       <c r="H21">
-        <v>3.019028081613769</v>
+        <v>3.019028081613797</v>
       </c>
       <c r="I21">
-        <v>0.06166788789222366</v>
+        <v>0.06166788789220945</v>
       </c>
       <c r="J21">
-        <v>1.280762719488024</v>
+        <v>1.280762719487981</v>
       </c>
       <c r="K21">
-        <v>0.6772783591326643</v>
+        <v>0.6772783591326572</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,34 +1172,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.522285296979703</v>
+        <v>4.522285296979476</v>
       </c>
       <c r="C22">
-        <v>1.544127087762149</v>
+        <v>1.544127087762377</v>
       </c>
       <c r="D22">
-        <v>0.4947753674226192</v>
+        <v>0.4947753674225339</v>
       </c>
       <c r="E22">
-        <v>0.3238603713184958</v>
+        <v>0.3238603713184744</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>4.672520932550469</v>
+        <v>4.672520932550498</v>
       </c>
       <c r="H22">
-        <v>3.240846974485819</v>
+        <v>3.240846974485834</v>
       </c>
       <c r="I22">
-        <v>0.06709388529102256</v>
+        <v>0.06709388529108296</v>
       </c>
       <c r="J22">
-        <v>1.392792289319942</v>
+        <v>1.392792289319956</v>
       </c>
       <c r="K22">
-        <v>0.7371113557604687</v>
+        <v>0.7371113557605327</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.32808032694436</v>
+        <v>4.328080326944246</v>
       </c>
       <c r="C23">
-        <v>1.476359402196579</v>
+        <v>1.47635940219692</v>
       </c>
       <c r="D23">
-        <v>0.4736677936837737</v>
+        <v>0.4736677936838021</v>
       </c>
       <c r="E23">
-        <v>0.3098997543286188</v>
+        <v>0.3098997543286259</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>4.491251432072687</v>
+        <v>4.491251432072659</v>
       </c>
       <c r="H23">
-        <v>3.121422657897469</v>
+        <v>3.121422657897483</v>
       </c>
       <c r="I23">
-        <v>0.06417428341714171</v>
+        <v>0.06417428341715237</v>
       </c>
       <c r="J23">
-        <v>1.332594435643585</v>
+        <v>1.332594435643628</v>
       </c>
       <c r="K23">
-        <v>0.7049355891888922</v>
+        <v>0.704935589188878</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.617956717774348</v>
+        <v>3.617956717774291</v>
       </c>
       <c r="C24">
         <v>1.229571904934232</v>
       </c>
       <c r="D24">
-        <v>0.3968117849863404</v>
+        <v>0.3968117849865394</v>
       </c>
       <c r="E24">
-        <v>0.259187754528547</v>
+        <v>0.2591877545285826</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1266,16 +1266,16 @@
         <v>3.835529300248197</v>
       </c>
       <c r="H24">
-        <v>2.690033725691464</v>
+        <v>2.69003372569145</v>
       </c>
       <c r="I24">
-        <v>0.05359187273703725</v>
+        <v>0.05359187273699817</v>
       </c>
       <c r="J24">
-        <v>1.112739803625772</v>
+        <v>1.112739803625814</v>
       </c>
       <c r="K24">
-        <v>0.5879300287543003</v>
+        <v>0.5879300287543643</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1289,10 +1289,10 @@
         <v>2.892908404474781</v>
       </c>
       <c r="C25">
-        <v>0.9791930595484075</v>
+        <v>0.9791930595486349</v>
       </c>
       <c r="D25">
-        <v>0.3189362490137313</v>
+        <v>0.3189362490134329</v>
       </c>
       <c r="E25">
         <v>0.2079979531242344</v>
@@ -1301,13 +1301,13 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.178873427164135</v>
+        <v>3.17887342716412</v>
       </c>
       <c r="H25">
         <v>2.259193987413084</v>
       </c>
       <c r="I25">
-        <v>0.04294683283107581</v>
+        <v>0.0429468328310616</v>
       </c>
       <c r="J25">
         <v>0.8886802333806116</v>

--- a/Code/Results/Cases/Case_4_3/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_3/res_line/pl_mw.xlsx
@@ -412,34 +412,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.383435546798751</v>
+        <v>2.383435546798921</v>
       </c>
       <c r="C2">
-        <v>0.8041906684475464</v>
+        <v>0.8041906684478022</v>
       </c>
       <c r="D2">
-        <v>0.2646441079627806</v>
+        <v>0.2646441079626953</v>
       </c>
       <c r="E2">
-        <v>0.1724293201061684</v>
+        <v>0.1724293201062466</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.726599919847871</v>
+        <v>2.726599919847857</v>
       </c>
       <c r="H2">
         <v>1.963327796265588</v>
       </c>
       <c r="I2">
-        <v>0.03557283527705302</v>
+        <v>0.03557283527709387</v>
       </c>
       <c r="J2">
         <v>0.7314824072319865</v>
       </c>
       <c r="K2">
-        <v>0.3871165385020632</v>
+        <v>0.3871165385020703</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.049047899284233</v>
+        <v>2.04904789928429</v>
       </c>
       <c r="C3">
-        <v>0.6897327809767546</v>
+        <v>0.6897327809764988</v>
       </c>
       <c r="D3">
-        <v>0.2292400978467271</v>
+        <v>0.229240097846855</v>
       </c>
       <c r="E3">
-        <v>0.1492898738212673</v>
+        <v>0.1492898738212389</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.434622434045167</v>
+        <v>2.434622434045139</v>
       </c>
       <c r="H3">
-        <v>1.772812628154881</v>
+        <v>1.772812628154867</v>
       </c>
       <c r="I3">
-        <v>0.03078600460021796</v>
+        <v>0.03078600460024106</v>
       </c>
       <c r="J3">
-        <v>0.6284121846575133</v>
+        <v>0.6284121846574919</v>
       </c>
       <c r="K3">
-        <v>0.3333575378840195</v>
+        <v>0.3333575378840337</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.847907778519641</v>
+        <v>1.847907778519584</v>
       </c>
       <c r="C4">
-        <v>0.6210326510033326</v>
+        <v>0.6210326510030768</v>
       </c>
       <c r="D4">
-        <v>0.2080459049498984</v>
+        <v>0.20804590494987</v>
       </c>
       <c r="E4">
-        <v>0.1354593718565873</v>
+        <v>0.135459371856637</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -506,16 +506,16 @@
         <v>2.261141543020457</v>
       </c>
       <c r="H4">
-        <v>1.659840031655648</v>
+        <v>1.659840031655634</v>
       </c>
       <c r="I4">
-        <v>0.02792898671956401</v>
+        <v>0.02792898671954269</v>
       </c>
       <c r="J4">
-        <v>0.5664521995988565</v>
+        <v>0.5664521995988849</v>
       </c>
       <c r="K4">
-        <v>0.3011687052398742</v>
+        <v>0.3011687052398386</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.766834799063133</v>
+        <v>1.766834799063218</v>
       </c>
       <c r="C5">
-        <v>0.5933724005085423</v>
+        <v>0.5933724005087697</v>
       </c>
       <c r="D5">
-        <v>0.1995272448661751</v>
+        <v>0.1995272448661893</v>
       </c>
       <c r="E5">
-        <v>0.1299051519958709</v>
+        <v>0.129905151995807</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -544,16 +544,16 @@
         <v>2.191722591402424</v>
       </c>
       <c r="H5">
-        <v>1.614687491082435</v>
+        <v>1.614687491082449</v>
       </c>
       <c r="I5">
-        <v>0.02678252034665185</v>
+        <v>0.02678252034661632</v>
       </c>
       <c r="J5">
-        <v>0.5414860891084388</v>
+        <v>0.5414860891084174</v>
       </c>
       <c r="K5">
-        <v>0.2882279760367936</v>
+        <v>0.2882279760368007</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,34 +564,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.753422369463124</v>
+        <v>1.753422369463237</v>
       </c>
       <c r="C6">
-        <v>0.5887980428648802</v>
+        <v>0.5887980428648518</v>
       </c>
       <c r="D6">
         <v>0.1981193538664883</v>
       </c>
       <c r="E6">
-        <v>0.1289874640787616</v>
+        <v>0.1289874640787403</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.180267735206385</v>
+        <v>2.180267735206371</v>
       </c>
       <c r="H6">
-        <v>1.607240034819199</v>
+        <v>1.607240034819185</v>
       </c>
       <c r="I6">
-        <v>0.02659314710981597</v>
+        <v>0.02659314710980176</v>
       </c>
       <c r="J6">
-        <v>0.5373562131736662</v>
+        <v>0.5373562131736307</v>
       </c>
       <c r="K6">
-        <v>0.2860890301664583</v>
+        <v>0.2860890301664938</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.846810978471666</v>
+        <v>1.846810978471723</v>
       </c>
       <c r="C7">
-        <v>0.6206583323630923</v>
+        <v>0.6206583323633765</v>
       </c>
       <c r="D7">
-        <v>0.2079305642343598</v>
+        <v>0.207930564234232</v>
       </c>
       <c r="E7">
-        <v>0.1353841506641587</v>
+        <v>0.1353841506641196</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -620,16 +620,16 @@
         <v>2.260200394876904</v>
       </c>
       <c r="H7">
-        <v>1.659227659318802</v>
+        <v>1.659227659318788</v>
       </c>
       <c r="I7">
-        <v>0.027913456596389</v>
+        <v>0.02791345659641387</v>
       </c>
       <c r="J7">
         <v>0.5661144142945247</v>
       </c>
       <c r="K7">
-        <v>0.3009935043291492</v>
+        <v>0.300993504329135</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,34 +640,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.267172427892433</v>
+        <v>2.267172427892319</v>
       </c>
       <c r="C8">
-        <v>0.7643593014569205</v>
+        <v>0.7643593014571195</v>
       </c>
       <c r="D8">
-        <v>0.2523120431492032</v>
+        <v>0.2523120431492316</v>
       </c>
       <c r="E8">
-        <v>0.1643642621003849</v>
+        <v>0.1643642621004133</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.62460840724583</v>
+        <v>2.624608407245844</v>
       </c>
       <c r="H8">
         <v>1.896729435025676</v>
       </c>
       <c r="I8">
-        <v>0.03390347497639112</v>
+        <v>0.03390347497637336</v>
       </c>
       <c r="J8">
-        <v>0.695636703897776</v>
+        <v>0.6956367038977547</v>
       </c>
       <c r="K8">
-        <v>0.3683915543451661</v>
+        <v>0.3683915543451164</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.132710898113089</v>
+        <v>3.132710898113316</v>
       </c>
       <c r="C9">
-        <v>1.061828380479909</v>
+        <v>1.061828380480733</v>
       </c>
       <c r="D9">
-        <v>0.3446193444355856</v>
+        <v>0.3446193444353725</v>
       </c>
       <c r="E9">
-        <v>0.2248582408503168</v>
+        <v>0.2248582408503026</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -696,16 +696,16 @@
         <v>3.394483670371102</v>
       </c>
       <c r="H9">
-        <v>2.400510023829497</v>
+        <v>2.400510023829511</v>
       </c>
       <c r="I9">
-        <v>0.04644879801784185</v>
+        <v>0.04644879801785962</v>
       </c>
       <c r="J9">
-        <v>0.9627400799397066</v>
+        <v>0.9627400799396781</v>
       </c>
       <c r="K9">
-        <v>0.5085852642374604</v>
+        <v>0.5085852642374391</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.806890420761363</v>
+        <v>3.806890420761306</v>
       </c>
       <c r="C10">
-        <v>1.295078426046757</v>
+        <v>1.295078426046246</v>
       </c>
       <c r="D10">
-        <v>0.4172075233028067</v>
+        <v>0.4172075233026646</v>
       </c>
       <c r="E10">
-        <v>0.2726269972515425</v>
+        <v>0.272626997251642</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -734,16 +734,16 @@
         <v>4.008851894882156</v>
       </c>
       <c r="H10">
-        <v>2.803958814137715</v>
+        <v>2.803958814137687</v>
       </c>
       <c r="I10">
-        <v>0.05639279783695628</v>
+        <v>0.05639279783693496</v>
       </c>
       <c r="J10">
         <v>1.171193882450126</v>
       </c>
       <c r="K10">
-        <v>0.6189591760308062</v>
+        <v>0.6189591760308488</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,34 +754,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.125490255820011</v>
+        <v>4.125490255819955</v>
       </c>
       <c r="C11">
-        <v>1.405793095512934</v>
+        <v>1.405793095513275</v>
       </c>
       <c r="D11">
-        <v>0.4516881892118079</v>
+        <v>0.4516881892114668</v>
       </c>
       <c r="E11">
-        <v>0.2953775612483653</v>
+        <v>0.2953775612483582</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4.303017648859793</v>
+        <v>4.303017648859822</v>
       </c>
       <c r="H11">
-        <v>2.997483986991583</v>
+        <v>2.997483986991611</v>
       </c>
       <c r="I11">
-        <v>0.0611401417089148</v>
+        <v>0.06114014170890414</v>
       </c>
       <c r="J11">
-        <v>1.269830597073408</v>
+        <v>1.269830597073451</v>
       </c>
       <c r="K11">
-        <v>0.6714506262229705</v>
+        <v>0.671450626223006</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,13 +792,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.248213214053692</v>
+        <v>4.248213214053521</v>
       </c>
       <c r="C12">
-        <v>1.448524573291991</v>
+        <v>1.448524573291934</v>
       </c>
       <c r="D12">
-        <v>0.4649978916128532</v>
+        <v>0.4649978916126543</v>
       </c>
       <c r="E12">
         <v>0.3041695938834224</v>
@@ -807,19 +807,19 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4.416937246888011</v>
+        <v>4.416937246887983</v>
       </c>
       <c r="H12">
-        <v>3.072482768175746</v>
+        <v>3.072482768175718</v>
       </c>
       <c r="I12">
-        <v>0.06297671938916949</v>
+        <v>0.06297671938919081</v>
       </c>
       <c r="J12">
-        <v>1.307847012549345</v>
+        <v>1.307847012549402</v>
       </c>
       <c r="K12">
-        <v>0.6917249901339062</v>
+        <v>0.6917249901338849</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -833,13 +833,13 @@
         <v>4.221683795085767</v>
       </c>
       <c r="C13">
-        <v>1.439283151783457</v>
+        <v>1.439283151783286</v>
       </c>
       <c r="D13">
         <v>0.4621194108647444</v>
       </c>
       <c r="E13">
-        <v>0.3022676652018177</v>
+        <v>0.302267665201704</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -848,16 +848,16 @@
         <v>4.392282914677338</v>
       </c>
       <c r="H13">
-        <v>3.05624920081118</v>
+        <v>3.056249200811138</v>
       </c>
       <c r="I13">
-        <v>0.06257933131081472</v>
+        <v>0.06257933131080406</v>
       </c>
       <c r="J13">
-        <v>1.299627834407062</v>
+        <v>1.29962783440709</v>
       </c>
       <c r="K13">
-        <v>0.6873396530674611</v>
+        <v>0.6873396530674398</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.13554282245417</v>
+        <v>4.135542822454283</v>
       </c>
       <c r="C14">
-        <v>1.409291563738009</v>
+        <v>1.409291563738577</v>
       </c>
       <c r="D14">
         <v>0.4527778515731882</v>
       </c>
       <c r="E14">
-        <v>0.296097149470846</v>
+        <v>0.2960971494708673</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -886,16 +886,16 @@
         <v>4.312336635035223</v>
       </c>
       <c r="H14">
-        <v>3.003618041299248</v>
+        <v>3.003618041299291</v>
       </c>
       <c r="I14">
-        <v>0.06129041650359923</v>
+        <v>0.06129041650360634</v>
       </c>
       <c r="J14">
-        <v>1.27294415969142</v>
+        <v>1.272944159691392</v>
       </c>
       <c r="K14">
-        <v>0.6731102142783314</v>
+        <v>0.6731102142782959</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,34 +906,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.08306126108522</v>
+        <v>4.083061261085163</v>
       </c>
       <c r="C15">
-        <v>1.391030560682282</v>
+        <v>1.391030560682509</v>
       </c>
       <c r="D15">
-        <v>0.447090172749455</v>
+        <v>0.4470901727494265</v>
       </c>
       <c r="E15">
-        <v>0.2923415552619844</v>
+        <v>0.2923415552619559</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>4.263709649095404</v>
+        <v>4.26370964909546</v>
       </c>
       <c r="H15">
-        <v>2.971612370505767</v>
+        <v>2.97161237050581</v>
       </c>
       <c r="I15">
-        <v>0.06050619927269096</v>
+        <v>0.06050619927270162</v>
       </c>
       <c r="J15">
         <v>1.256690053973642</v>
       </c>
       <c r="K15">
-        <v>0.6644482310148234</v>
+        <v>0.6644482310147737</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.786338469517716</v>
+        <v>3.786338469517659</v>
       </c>
       <c r="C16">
-        <v>1.287947378247679</v>
+        <v>1.287947378247793</v>
       </c>
       <c r="D16">
-        <v>0.4149869889360218</v>
+        <v>0.4149869889356239</v>
       </c>
       <c r="E16">
-        <v>0.2711631837717121</v>
+        <v>0.2711631837717476</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>3.989956716870267</v>
       </c>
       <c r="H16">
-        <v>2.79153525747958</v>
+        <v>2.791535257479566</v>
       </c>
       <c r="I16">
-        <v>0.05608759477259539</v>
+        <v>0.05608759477259184</v>
       </c>
       <c r="J16">
-        <v>1.164833936461022</v>
+        <v>1.164833936461051</v>
       </c>
       <c r="K16">
-        <v>0.61558026159436</v>
+        <v>0.6155802615943742</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,34 +982,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.607598452949389</v>
+        <v>3.607598452949219</v>
       </c>
       <c r="C17">
-        <v>1.22598369395962</v>
+        <v>1.225983693959847</v>
       </c>
       <c r="D17">
-        <v>0.3956947487340585</v>
+        <v>0.395694748734428</v>
       </c>
       <c r="E17">
-        <v>0.2584520999125672</v>
+        <v>0.2584520999126241</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.826051906892928</v>
+        <v>3.826051906892872</v>
       </c>
       <c r="H17">
-        <v>2.683806494050103</v>
+        <v>2.683806494050074</v>
       </c>
       <c r="I17">
-        <v>0.05343862594113347</v>
+        <v>0.0534386259411157</v>
       </c>
       <c r="J17">
-        <v>1.109535894062631</v>
+        <v>1.109535894062603</v>
       </c>
       <c r="K17">
-        <v>0.5862310231763317</v>
+        <v>0.586231023176353</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.505888010873548</v>
+        <v>3.505888010873491</v>
       </c>
       <c r="C18">
         <v>1.190767586526476</v>
       </c>
       <c r="D18">
-        <v>0.3847328282805904</v>
+        <v>0.3847328282808178</v>
       </c>
       <c r="E18">
-        <v>0.25123496856542</v>
+        <v>0.2512349685653987</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1038,16 +1038,16 @@
         <v>3.733131980917022</v>
       </c>
       <c r="H18">
-        <v>2.622765274837846</v>
+        <v>2.62276527483786</v>
       </c>
       <c r="I18">
-        <v>0.05193560762023708</v>
+        <v>0.05193560762020866</v>
       </c>
       <c r="J18">
         <v>1.078080437640111</v>
       </c>
       <c r="K18">
-        <v>0.5695601181129106</v>
+        <v>0.5695601181129035</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,34 +1058,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.471628811143773</v>
+        <v>3.471628811143717</v>
       </c>
       <c r="C19">
-        <v>1.178912835392737</v>
+        <v>1.178912835392396</v>
       </c>
       <c r="D19">
-        <v>0.3810432227407716</v>
+        <v>0.3810432227404021</v>
       </c>
       <c r="E19">
-        <v>0.2488066732643333</v>
+        <v>0.2488066732644327</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.701891953008754</v>
+        <v>3.701891953008698</v>
       </c>
       <c r="H19">
-        <v>2.602248340378864</v>
+        <v>2.60224834037885</v>
       </c>
       <c r="I19">
-        <v>0.05143006466429512</v>
+        <v>0.05143006466435551</v>
       </c>
       <c r="J19">
-        <v>1.067487128627079</v>
+        <v>1.067487128627036</v>
       </c>
       <c r="K19">
-        <v>0.5639498006280164</v>
+        <v>0.5639498006279311</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.626509764333889</v>
+        <v>3.626509764333775</v>
       </c>
       <c r="C20">
-        <v>1.232535017591886</v>
+        <v>1.232535017591545</v>
       </c>
       <c r="D20">
-        <v>0.3977342383012967</v>
+        <v>0.3977342383006714</v>
       </c>
       <c r="E20">
         <v>0.2597952916296151</v>
@@ -1111,19 +1111,19 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.84335697537179</v>
+        <v>3.843356975371847</v>
       </c>
       <c r="H20">
-        <v>2.695177171769046</v>
+        <v>2.695177171769089</v>
       </c>
       <c r="I20">
-        <v>0.0537184367128738</v>
+        <v>0.0537184367128809</v>
       </c>
       <c r="J20">
-        <v>1.115385406719341</v>
+        <v>1.115385406719355</v>
       </c>
       <c r="K20">
-        <v>0.5893331054461086</v>
+        <v>0.5893331054460944</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.160784945142552</v>
+        <v>4.160784945142495</v>
       </c>
       <c r="C21">
-        <v>1.418077661581492</v>
+        <v>1.418077661581151</v>
       </c>
       <c r="D21">
-        <v>0.4555144594359604</v>
+        <v>0.4555144594363298</v>
       </c>
       <c r="E21">
-        <v>0.2979045109372649</v>
+        <v>0.2979045109373004</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1152,16 +1152,16 @@
         <v>4.335746589705906</v>
       </c>
       <c r="H21">
-        <v>3.019028081613797</v>
+        <v>3.019028081613769</v>
       </c>
       <c r="I21">
-        <v>0.06166788789220945</v>
+        <v>0.06166788789222366</v>
       </c>
       <c r="J21">
-        <v>1.280762719487981</v>
+        <v>1.280762719488024</v>
       </c>
       <c r="K21">
-        <v>0.6772783591326572</v>
+        <v>0.6772783591326643</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,34 +1172,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.522285296979476</v>
+        <v>4.522285296979703</v>
       </c>
       <c r="C22">
-        <v>1.544127087762377</v>
+        <v>1.544127087762149</v>
       </c>
       <c r="D22">
-        <v>0.4947753674225339</v>
+        <v>0.4947753674226192</v>
       </c>
       <c r="E22">
-        <v>0.3238603713184744</v>
+        <v>0.3238603713184958</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>4.672520932550498</v>
+        <v>4.672520932550469</v>
       </c>
       <c r="H22">
-        <v>3.240846974485834</v>
+        <v>3.240846974485819</v>
       </c>
       <c r="I22">
-        <v>0.06709388529108296</v>
+        <v>0.06709388529102256</v>
       </c>
       <c r="J22">
-        <v>1.392792289319956</v>
+        <v>1.392792289319942</v>
       </c>
       <c r="K22">
-        <v>0.7371113557605327</v>
+        <v>0.7371113557604687</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.328080326944246</v>
+        <v>4.32808032694436</v>
       </c>
       <c r="C23">
-        <v>1.47635940219692</v>
+        <v>1.476359402196579</v>
       </c>
       <c r="D23">
-        <v>0.4736677936838021</v>
+        <v>0.4736677936837737</v>
       </c>
       <c r="E23">
-        <v>0.3098997543286259</v>
+        <v>0.3098997543286188</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>4.491251432072659</v>
+        <v>4.491251432072687</v>
       </c>
       <c r="H23">
-        <v>3.121422657897483</v>
+        <v>3.121422657897469</v>
       </c>
       <c r="I23">
-        <v>0.06417428341715237</v>
+        <v>0.06417428341714171</v>
       </c>
       <c r="J23">
-        <v>1.332594435643628</v>
+        <v>1.332594435643585</v>
       </c>
       <c r="K23">
-        <v>0.704935589188878</v>
+        <v>0.7049355891888922</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.617956717774291</v>
+        <v>3.617956717774348</v>
       </c>
       <c r="C24">
         <v>1.229571904934232</v>
       </c>
       <c r="D24">
-        <v>0.3968117849865394</v>
+        <v>0.3968117849863404</v>
       </c>
       <c r="E24">
-        <v>0.2591877545285826</v>
+        <v>0.259187754528547</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1266,16 +1266,16 @@
         <v>3.835529300248197</v>
       </c>
       <c r="H24">
-        <v>2.69003372569145</v>
+        <v>2.690033725691464</v>
       </c>
       <c r="I24">
-        <v>0.05359187273699817</v>
+        <v>0.05359187273703725</v>
       </c>
       <c r="J24">
-        <v>1.112739803625814</v>
+        <v>1.112739803625772</v>
       </c>
       <c r="K24">
-        <v>0.5879300287543643</v>
+        <v>0.5879300287543003</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1289,10 +1289,10 @@
         <v>2.892908404474781</v>
       </c>
       <c r="C25">
-        <v>0.9791930595486349</v>
+        <v>0.9791930595484075</v>
       </c>
       <c r="D25">
-        <v>0.3189362490134329</v>
+        <v>0.3189362490137313</v>
       </c>
       <c r="E25">
         <v>0.2079979531242344</v>
@@ -1301,13 +1301,13 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.17887342716412</v>
+        <v>3.178873427164135</v>
       </c>
       <c r="H25">
         <v>2.259193987413084</v>
       </c>
       <c r="I25">
-        <v>0.0429468328310616</v>
+        <v>0.04294683283107581</v>
       </c>
       <c r="J25">
         <v>0.8886802333806116</v>

--- a/Code/Results/Cases/Case_4_3/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_3/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.383435546798921</v>
+        <v>2.383422605330452</v>
       </c>
       <c r="C2">
-        <v>0.8041906684478022</v>
+        <v>0.8032988157456771</v>
       </c>
       <c r="D2">
-        <v>0.2646441079626953</v>
+        <v>0.2646489490470856</v>
       </c>
       <c r="E2">
-        <v>0.1724293201062466</v>
+        <v>0.1724653639637452</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.726599919847857</v>
+        <v>0.8775807603447561</v>
       </c>
       <c r="H2">
-        <v>1.963327796265588</v>
+        <v>1.844347581541854</v>
       </c>
       <c r="I2">
-        <v>0.03557283527709387</v>
+        <v>1.957812439482325</v>
       </c>
       <c r="J2">
-        <v>0.7314824072319865</v>
+        <v>0.03558638264280667</v>
       </c>
       <c r="K2">
-        <v>0.3871165385020703</v>
+        <v>0.7312414758762174</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.3869851644129625</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.04904789928429</v>
+        <v>2.049087925706601</v>
       </c>
       <c r="C3">
-        <v>0.6897327809764988</v>
+        <v>0.688974702883911</v>
       </c>
       <c r="D3">
-        <v>0.229240097846855</v>
+        <v>0.2292473533368309</v>
       </c>
       <c r="E3">
-        <v>0.1492898738212389</v>
+        <v>0.149323344542303</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.434622434045139</v>
+        <v>0.7772514391537442</v>
       </c>
       <c r="H3">
-        <v>1.772812628154867</v>
+        <v>1.653840895127701</v>
       </c>
       <c r="I3">
-        <v>0.03078600460024106</v>
+        <v>1.767949961676507</v>
       </c>
       <c r="J3">
-        <v>0.6284121846574919</v>
+        <v>0.03079824845521983</v>
       </c>
       <c r="K3">
-        <v>0.3333575378840337</v>
+        <v>0.6282182124327633</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.333247807654061</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.847907778519584</v>
+        <v>1.847970989337568</v>
       </c>
       <c r="C4">
-        <v>0.6210326510030768</v>
+        <v>0.6203525009263728</v>
       </c>
       <c r="D4">
-        <v>0.20804590494987</v>
+        <v>0.208054142621009</v>
       </c>
       <c r="E4">
-        <v>0.135459371856637</v>
+        <v>0.1354910412809787</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.261141543020457</v>
+        <v>0.7175472335745638</v>
       </c>
       <c r="H4">
-        <v>1.659840031655634</v>
+        <v>1.540748928173358</v>
       </c>
       <c r="I4">
-        <v>0.02792898671954269</v>
+        <v>1.655369909452645</v>
       </c>
       <c r="J4">
-        <v>0.5664521995988849</v>
+        <v>0.02794040534760889</v>
       </c>
       <c r="K4">
-        <v>0.3011687052398386</v>
+        <v>0.5662839240256687</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.3010711081407393</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.766834799063218</v>
+        <v>1.76690543775365</v>
       </c>
       <c r="C5">
-        <v>0.5933724005087697</v>
+        <v>0.5927231132778559</v>
       </c>
       <c r="D5">
-        <v>0.1995272448661893</v>
+        <v>0.1995357800753084</v>
       </c>
       <c r="E5">
-        <v>0.129905151995807</v>
+        <v>0.1299360437333874</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.191722591402424</v>
+        <v>0.6936334411677763</v>
       </c>
       <c r="H5">
-        <v>1.614687491082449</v>
+        <v>1.495519443530611</v>
       </c>
       <c r="I5">
-        <v>0.02678252034661632</v>
+        <v>1.610375659323068</v>
       </c>
       <c r="J5">
-        <v>0.5414860891084174</v>
+        <v>0.02679359829908634</v>
       </c>
       <c r="K5">
-        <v>0.2882279760368007</v>
+        <v>0.5413276111337453</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.2881350809301111</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.753422369463237</v>
+        <v>1.753494128284217</v>
       </c>
       <c r="C6">
-        <v>0.5887980428648518</v>
+        <v>0.5881538308432539</v>
       </c>
       <c r="D6">
-        <v>0.1981193538664883</v>
+        <v>0.1981279328832528</v>
       </c>
       <c r="E6">
-        <v>0.1289874640787403</v>
+        <v>0.1290182243561873</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.180267735206371</v>
+        <v>0.6896860345979974</v>
       </c>
       <c r="H6">
-        <v>1.607240034819185</v>
+        <v>1.488057586025604</v>
       </c>
       <c r="I6">
-        <v>0.02659314710980176</v>
+        <v>1.602954396437767</v>
       </c>
       <c r="J6">
-        <v>0.5373562131736307</v>
+        <v>0.02660416827514567</v>
       </c>
       <c r="K6">
-        <v>0.2860890301664938</v>
+        <v>0.5371993244340487</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.2859969024637223</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.846810978471723</v>
+        <v>1.846874297242692</v>
       </c>
       <c r="C7">
-        <v>0.6206583323633765</v>
+        <v>0.6199786019286648</v>
       </c>
       <c r="D7">
-        <v>0.207930564234232</v>
+        <v>0.207938806306089</v>
       </c>
       <c r="E7">
-        <v>0.1353841506641196</v>
+        <v>0.1354158097627405</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.260200394876904</v>
+        <v>0.7172231152714659</v>
       </c>
       <c r="H7">
-        <v>1.659227659318788</v>
+        <v>1.54013562888052</v>
       </c>
       <c r="I7">
-        <v>0.02791345659641387</v>
+        <v>1.654759678175196</v>
       </c>
       <c r="J7">
-        <v>0.5661144142945247</v>
+        <v>0.02792487064558458</v>
       </c>
       <c r="K7">
-        <v>0.300993504329135</v>
+        <v>0.56594627344397</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.3008959715653319</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.267172427892319</v>
+        <v>2.267179900635938</v>
       </c>
       <c r="C8">
-        <v>0.7643593014571195</v>
+        <v>0.7635145547938578</v>
       </c>
       <c r="D8">
-        <v>0.2523120431492316</v>
+        <v>0.2523178357057105</v>
       </c>
       <c r="E8">
-        <v>0.1643642621004133</v>
+        <v>0.1643994726703397</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.624608407245844</v>
+        <v>0.8425543261122641</v>
       </c>
       <c r="H8">
-        <v>1.896729435025676</v>
+        <v>1.77777989181844</v>
       </c>
       <c r="I8">
-        <v>0.03390347497637336</v>
+        <v>1.891441080514255</v>
       </c>
       <c r="J8">
-        <v>0.6956367038977547</v>
+        <v>0.03391657931224401</v>
       </c>
       <c r="K8">
-        <v>0.3683915543451164</v>
+        <v>0.6954126892783918</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.3682679146011338</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.132710898113316</v>
+        <v>3.132517006814169</v>
       </c>
       <c r="C9">
-        <v>1.061828380480733</v>
+        <v>1.060617767980347</v>
       </c>
       <c r="D9">
-        <v>0.3446193444353725</v>
+        <v>0.3446150751873347</v>
       </c>
       <c r="E9">
-        <v>0.2248582408503026</v>
+        <v>0.2248979684887971</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.394483670371102</v>
+        <v>1.106532315299489</v>
       </c>
       <c r="H9">
-        <v>2.400510023829511</v>
+        <v>2.280702475610013</v>
       </c>
       <c r="I9">
-        <v>0.04644879801785962</v>
+        <v>2.393527122557302</v>
       </c>
       <c r="J9">
-        <v>0.9627400799396781</v>
+        <v>0.04646490777884793</v>
       </c>
       <c r="K9">
-        <v>0.5085852642374391</v>
+        <v>0.9623754243633158</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.5083985963890498</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.806890420761306</v>
+        <v>3.806461841484122</v>
       </c>
       <c r="C10">
-        <v>1.295078426046246</v>
+        <v>1.293558056690244</v>
       </c>
       <c r="D10">
-        <v>0.4172075233026646</v>
+        <v>0.4171903440642382</v>
       </c>
       <c r="E10">
-        <v>0.272626997251642</v>
+        <v>0.2726672727385946</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.008851894882156</v>
+        <v>1.316657351441279</v>
       </c>
       <c r="H10">
-        <v>2.803958814137687</v>
+        <v>2.682596793279146</v>
       </c>
       <c r="I10">
-        <v>0.05639279783693496</v>
+        <v>2.795643823726905</v>
       </c>
       <c r="J10">
-        <v>1.171193882450126</v>
+        <v>0.05641071040830425</v>
       </c>
       <c r="K10">
-        <v>0.6189591760308488</v>
+        <v>1.170696283097229</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.6187143068594168</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.125490255819955</v>
+        <v>4.124926877698101</v>
       </c>
       <c r="C11">
-        <v>1.405793095513275</v>
+        <v>1.404118442208016</v>
       </c>
       <c r="D11">
-        <v>0.4516881892114668</v>
+        <v>0.4516632175506459</v>
       </c>
       <c r="E11">
-        <v>0.2953775612483582</v>
+        <v>0.2954170705066943</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4.303017648859822</v>
+        <v>1.417143549354165</v>
       </c>
       <c r="H11">
-        <v>2.997483986991611</v>
+        <v>2.875154483642149</v>
       </c>
       <c r="I11">
-        <v>0.06114014170890414</v>
+        <v>2.988534065001133</v>
       </c>
       <c r="J11">
-        <v>1.269830597073451</v>
+        <v>0.06115871281174989</v>
       </c>
       <c r="K11">
-        <v>0.671450626223006</v>
+        <v>1.269262913032335</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.6711752680789544</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.248213214053521</v>
+        <v>4.247593743542495</v>
       </c>
       <c r="C12">
-        <v>1.448524573291934</v>
+        <v>1.446789085632872</v>
       </c>
       <c r="D12">
-        <v>0.4649978916126543</v>
+        <v>0.4649696108725436</v>
       </c>
       <c r="E12">
-        <v>0.3041695938834224</v>
+        <v>0.3042086184856032</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4.416937246887983</v>
+        <v>1.456039623480763</v>
       </c>
       <c r="H12">
-        <v>3.072482768175718</v>
+        <v>2.949743623631065</v>
       </c>
       <c r="I12">
-        <v>0.06297671938919081</v>
+        <v>3.063287180367752</v>
       </c>
       <c r="J12">
-        <v>1.307847012549402</v>
+        <v>0.06299550770815543</v>
       </c>
       <c r="K12">
-        <v>0.6917249901338849</v>
+        <v>1.307251058684727</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.6914373492365442</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.221683795085767</v>
+        <v>4.221076648504379</v>
       </c>
       <c r="C13">
-        <v>1.439283151783286</v>
+        <v>1.437560882141156</v>
       </c>
       <c r="D13">
-        <v>0.4621194108647444</v>
+        <v>0.4620918602885524</v>
       </c>
       <c r="E13">
-        <v>0.302267665201704</v>
+        <v>0.3023068037661076</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4.392282914677338</v>
+        <v>1.447622619892428</v>
       </c>
       <c r="H13">
-        <v>3.056249200811138</v>
+        <v>2.933600306982726</v>
       </c>
       <c r="I13">
-        <v>0.06257933131080406</v>
+        <v>3.047106773806064</v>
       </c>
       <c r="J13">
-        <v>1.29962783440709</v>
+        <v>0.06259807445274745</v>
       </c>
       <c r="K13">
-        <v>0.6873396530674398</v>
+        <v>1.299038052409003</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.6870546932876707</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.135542822454283</v>
+        <v>4.13497493746388</v>
       </c>
       <c r="C14">
-        <v>1.409291563738577</v>
+        <v>1.407611957077677</v>
       </c>
       <c r="D14">
-        <v>0.4527778515731882</v>
+        <v>0.45275261540624</v>
       </c>
       <c r="E14">
-        <v>0.2960971494708673</v>
+        <v>0.2961366230847631</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>4.312336635035223</v>
+        <v>1.420325745573649</v>
       </c>
       <c r="H14">
-        <v>3.003618041299291</v>
+        <v>2.881255740414048</v>
       </c>
       <c r="I14">
-        <v>0.06129041650360634</v>
+        <v>2.994648020051315</v>
       </c>
       <c r="J14">
-        <v>1.272944159691392</v>
+        <v>0.06130900618300572</v>
       </c>
       <c r="K14">
-        <v>0.6731102142782959</v>
+        <v>1.272374186861626</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.6728338614716307</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.083061261085163</v>
+        <v>4.082516733193813</v>
       </c>
       <c r="C15">
-        <v>1.391030560682509</v>
+        <v>1.389376755955084</v>
       </c>
       <c r="D15">
-        <v>0.4470901727494265</v>
+        <v>0.4470663047378309</v>
       </c>
       <c r="E15">
-        <v>0.2923415552619559</v>
+        <v>0.2923812070856258</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>4.26370964909546</v>
+        <v>1.403720122784136</v>
       </c>
       <c r="H15">
-        <v>2.97161237050581</v>
+        <v>2.849419792082386</v>
       </c>
       <c r="I15">
-        <v>0.06050619927270162</v>
+        <v>2.962747235750811</v>
       </c>
       <c r="J15">
-        <v>1.256690053973642</v>
+        <v>0.060524690449693</v>
       </c>
       <c r="K15">
-        <v>0.6644482310147737</v>
+        <v>1.256131977672823</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.6641770487352971</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.786338469517659</v>
+        <v>3.785918054276578</v>
       </c>
       <c r="C16">
-        <v>1.287947378247793</v>
+        <v>1.286436783525289</v>
       </c>
       <c r="D16">
-        <v>0.4149869889356239</v>
+        <v>0.4149702737946086</v>
       </c>
       <c r="E16">
-        <v>0.2711631837717476</v>
+        <v>0.2712034850736842</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.989956716870267</v>
+        <v>1.31020031250236</v>
       </c>
       <c r="H16">
-        <v>2.791535257479566</v>
+        <v>2.670230745056386</v>
       </c>
       <c r="I16">
-        <v>0.05608759477259184</v>
+        <v>2.783261092718561</v>
       </c>
       <c r="J16">
-        <v>1.164833936461051</v>
+        <v>0.05610546035697084</v>
       </c>
       <c r="K16">
-        <v>0.6155802615943742</v>
+        <v>1.164340696060648</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.6153372914364397</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.607598452949219</v>
+        <v>3.6072463482285</v>
       </c>
       <c r="C17">
-        <v>1.225983693959847</v>
+        <v>1.22455721651221</v>
       </c>
       <c r="D17">
-        <v>0.395694748734428</v>
+        <v>0.3956818781842628</v>
       </c>
       <c r="E17">
-        <v>0.2584520999126241</v>
+        <v>0.2584925093211083</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.826051906892872</v>
+        <v>1.254175664303631</v>
       </c>
       <c r="H17">
-        <v>2.683806494050074</v>
+        <v>2.562976204759622</v>
       </c>
       <c r="I17">
-        <v>0.0534386259411157</v>
+        <v>2.675886765315383</v>
       </c>
       <c r="J17">
-        <v>1.109535894062603</v>
+        <v>0.05345606086227761</v>
       </c>
       <c r="K17">
-        <v>0.586231023176353</v>
+        <v>1.109079744889797</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.586004230928431</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.505888010873491</v>
+        <v>3.505572630852953</v>
       </c>
       <c r="C18">
-        <v>1.190767586526476</v>
+        <v>1.189388267293396</v>
       </c>
       <c r="D18">
-        <v>0.3847328282808178</v>
+        <v>0.3847219943948801</v>
       </c>
       <c r="E18">
-        <v>0.2512349685653987</v>
+        <v>0.2512753481816645</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.733131980917022</v>
+        <v>1.222403259997236</v>
       </c>
       <c r="H18">
-        <v>2.62276527483786</v>
+        <v>2.502183635838492</v>
       </c>
       <c r="I18">
-        <v>0.05193560762020866</v>
+        <v>2.615046758615435</v>
       </c>
       <c r="J18">
-        <v>1.078080437640111</v>
+        <v>0.05195278030062056</v>
       </c>
       <c r="K18">
-        <v>0.5695601181129035</v>
+        <v>1.077644743168051</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.5693422649331552</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.471628811143717</v>
+        <v>3.471325451837401</v>
       </c>
       <c r="C19">
-        <v>1.178912835392396</v>
+        <v>1.177549285969121</v>
       </c>
       <c r="D19">
-        <v>0.3810432227404021</v>
+        <v>0.3810330505951356</v>
       </c>
       <c r="E19">
-        <v>0.2488066732644327</v>
+        <v>0.2488470282527757</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.701891953008698</v>
+        <v>1.211719346803108</v>
       </c>
       <c r="H19">
-        <v>2.60224834037885</v>
+        <v>2.481746913579798</v>
       </c>
       <c r="I19">
-        <v>0.05143006466435551</v>
+        <v>2.594597524976933</v>
       </c>
       <c r="J19">
-        <v>1.067487128627036</v>
+        <v>0.05144714628577418</v>
       </c>
       <c r="K19">
-        <v>0.5639498006279311</v>
+        <v>1.067058218062883</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.5637349154266929</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.626509764333775</v>
+        <v>3.626150659952827</v>
       </c>
       <c r="C20">
-        <v>1.232535017591545</v>
+        <v>1.231099715545554</v>
       </c>
       <c r="D20">
-        <v>0.3977342383006714</v>
+        <v>0.3977209770882837</v>
       </c>
       <c r="E20">
-        <v>0.2597952916296151</v>
+        <v>0.2598356993554276</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.843356975371847</v>
+        <v>1.260091921805639</v>
       </c>
       <c r="H20">
-        <v>2.695177171769089</v>
+        <v>2.574298935559199</v>
       </c>
       <c r="I20">
-        <v>0.0537184367128809</v>
+        <v>2.687219993938896</v>
       </c>
       <c r="J20">
-        <v>1.115385406719355</v>
+        <v>0.05373591903885</v>
       </c>
       <c r="K20">
-        <v>0.5893331054460944</v>
+        <v>1.114925402375562</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.5891046299455667</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.160784945142495</v>
+        <v>4.160205674421263</v>
       </c>
       <c r="C21">
-        <v>1.418077661581151</v>
+        <v>1.416385593661403</v>
       </c>
       <c r="D21">
-        <v>0.4555144594363298</v>
+        <v>0.4554885539642157</v>
       </c>
       <c r="E21">
-        <v>0.2979045109373004</v>
+        <v>0.2979438918776012</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>4.335746589705906</v>
+        <v>1.428319351794812</v>
       </c>
       <c r="H21">
-        <v>3.019028081613769</v>
+        <v>2.896582826831661</v>
       </c>
       <c r="I21">
-        <v>0.06166788789222366</v>
+        <v>3.010007572298221</v>
       </c>
       <c r="J21">
-        <v>1.280762719488024</v>
+        <v>0.06168652360583238</v>
       </c>
       <c r="K21">
-        <v>0.6772783591326643</v>
+        <v>1.280186978398589</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.6769994997489093</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.522285296979703</v>
+        <v>4.521532043267996</v>
       </c>
       <c r="C22">
-        <v>1.544127087762149</v>
+        <v>1.542252839570267</v>
       </c>
       <c r="D22">
-        <v>0.4947753674226192</v>
+        <v>0.4947390535590728</v>
       </c>
       <c r="E22">
-        <v>0.3238603713184958</v>
+        <v>0.3238979133024955</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>4.672520932550469</v>
+        <v>1.543270084660747</v>
       </c>
       <c r="H22">
-        <v>3.240846974485819</v>
+        <v>3.117121953593653</v>
       </c>
       <c r="I22">
-        <v>0.06709388529102256</v>
+        <v>3.231100341151901</v>
       </c>
       <c r="J22">
-        <v>1.392792289319942</v>
+        <v>0.06711308089201751</v>
       </c>
       <c r="K22">
-        <v>0.7371113557604687</v>
+        <v>1.392130591799997</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.7367951621339586</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.32808032694436</v>
+        <v>4.327423091606647</v>
       </c>
       <c r="C23">
-        <v>1.476359402196579</v>
+        <v>1.474583895761498</v>
       </c>
       <c r="D23">
-        <v>0.4736677936837737</v>
+        <v>0.473637264820411</v>
       </c>
       <c r="E23">
-        <v>0.3098997543286188</v>
+        <v>0.309938404794643</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>4.491251432072687</v>
+        <v>1.481407806075396</v>
       </c>
       <c r="H23">
-        <v>3.121422657897469</v>
+        <v>2.998406230026745</v>
       </c>
       <c r="I23">
-        <v>0.06417428341714171</v>
+        <v>3.112066842893285</v>
       </c>
       <c r="J23">
-        <v>1.332594435643585</v>
+        <v>0.06419320171397658</v>
       </c>
       <c r="K23">
-        <v>0.7049355891888922</v>
+        <v>1.331979698018941</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.7046397895435916</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.617956717774348</v>
+        <v>3.617600785802779</v>
       </c>
       <c r="C24">
-        <v>1.229571904934232</v>
+        <v>1.228140596196909</v>
       </c>
       <c r="D24">
-        <v>0.3968117849863404</v>
+        <v>0.396798700927576</v>
       </c>
       <c r="E24">
-        <v>0.259187754528547</v>
+        <v>0.2592281632980544</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.835529300248197</v>
+        <v>1.257415831097887</v>
       </c>
       <c r="H24">
-        <v>2.690033725691464</v>
+        <v>2.569177240570326</v>
       </c>
       <c r="I24">
-        <v>0.05359187273703725</v>
+        <v>2.682093486483708</v>
       </c>
       <c r="J24">
-        <v>1.112739803625772</v>
+        <v>0.0536093336763237</v>
       </c>
       <c r="K24">
-        <v>0.5879300287543003</v>
+        <v>1.112281544887963</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.5877023153677712</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.892908404474781</v>
+        <v>2.892781613483578</v>
       </c>
       <c r="C25">
-        <v>0.9791930595484075</v>
+        <v>0.9780873371001064</v>
       </c>
       <c r="D25">
-        <v>0.3189362490137313</v>
+        <v>0.3189354706906045</v>
       </c>
       <c r="E25">
-        <v>0.2079979531242344</v>
+        <v>0.2080368327807207</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.178873427164135</v>
+        <v>1.032690215212469</v>
       </c>
       <c r="H25">
-        <v>2.259193987413084</v>
+        <v>2.139762571690127</v>
       </c>
       <c r="I25">
-        <v>0.04294683283107581</v>
+        <v>2.252681905118379</v>
       </c>
       <c r="J25">
-        <v>0.8886802333806116</v>
+        <v>0.04296218117704065</v>
       </c>
       <c r="K25">
-        <v>0.4695661395064903</v>
+        <v>0.8883579230284511</v>
       </c>
       <c r="L25">
+        <v>0.4693982105463235</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_3/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_3/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.383422605330452</v>
+        <v>5.235427607533438</v>
       </c>
       <c r="C2">
-        <v>0.8032988157456771</v>
+        <v>0.7627353016880534</v>
       </c>
       <c r="D2">
-        <v>0.2646489490470856</v>
+        <v>0.1419563322139368</v>
       </c>
       <c r="E2">
-        <v>0.1724653639637452</v>
+        <v>0.01898312294370186</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.8775807603447561</v>
+        <v>0.0008864428391756449</v>
       </c>
       <c r="H2">
-        <v>1.844347581541854</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1.957812439482325</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03558638264280667</v>
+        <v>0.05320511249327353</v>
       </c>
       <c r="K2">
-        <v>0.7312414758762174</v>
+        <v>1.290603990344394</v>
       </c>
       <c r="L2">
-        <v>0.3869851644129625</v>
+        <v>0.3384241907839964</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.9107534722019466</v>
+      </c>
+      <c r="N2">
+        <v>5.336676778276995</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.049087925706601</v>
+        <v>4.722844640425535</v>
       </c>
       <c r="C3">
-        <v>0.688974702883911</v>
+        <v>0.6667533157441881</v>
       </c>
       <c r="D3">
-        <v>0.2292473533368309</v>
+        <v>0.136046039121787</v>
       </c>
       <c r="E3">
-        <v>0.149323344542303</v>
+        <v>0.01882754635803274</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.7772514391537442</v>
+        <v>0.0008998252960401571</v>
       </c>
       <c r="H3">
-        <v>1.653840895127701</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1.767949961676507</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03079824845521983</v>
+        <v>0.04560328931373192</v>
       </c>
       <c r="K3">
-        <v>0.6282182124327633</v>
+        <v>1.155743308486777</v>
       </c>
       <c r="L3">
-        <v>0.333247807654061</v>
+        <v>0.31683247247841</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.8284456372842399</v>
+      </c>
+      <c r="N3">
+        <v>5.121581714397252</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.847970989337568</v>
+        <v>4.419688755269306</v>
       </c>
       <c r="C4">
-        <v>0.6203525009263728</v>
+        <v>0.6096665338491505</v>
       </c>
       <c r="D4">
-        <v>0.208054142621009</v>
+        <v>0.1326522889156152</v>
       </c>
       <c r="E4">
-        <v>0.1354910412809787</v>
+        <v>0.01873881801710642</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.7175472335745638</v>
+        <v>0.0009082166608117242</v>
       </c>
       <c r="H4">
-        <v>1.540748928173358</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1.655369909452645</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02794040534760889</v>
+        <v>0.04104376332222159</v>
       </c>
       <c r="K4">
-        <v>0.5662839240256687</v>
+        <v>1.075867317895288</v>
       </c>
       <c r="L4">
-        <v>0.3010711081407393</v>
+        <v>0.3042366473871994</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.7798816793409244</v>
+      </c>
+      <c r="N4">
+        <v>4.993568291954858</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.76690543775365</v>
+        <v>4.298731329891154</v>
       </c>
       <c r="C5">
-        <v>0.5927231132778559</v>
+        <v>0.5868058038010986</v>
       </c>
       <c r="D5">
-        <v>0.1995357800753084</v>
+        <v>0.1313238844057452</v>
       </c>
       <c r="E5">
-        <v>0.1299360437333874</v>
+        <v>0.01870416005049114</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.6936334411677763</v>
+        <v>0.0009116840499091926</v>
       </c>
       <c r="H5">
-        <v>1.495519443530611</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1.610375659323068</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.02679359829908634</v>
+        <v>0.03920827038707131</v>
       </c>
       <c r="K5">
-        <v>0.5413276111337453</v>
+        <v>1.043967275514134</v>
       </c>
       <c r="L5">
-        <v>0.2881350809301111</v>
+        <v>0.2992545904174051</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.7605338025367914</v>
+      </c>
+      <c r="N5">
+        <v>4.942306835939092</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.753494128284217</v>
+        <v>4.278793390941587</v>
       </c>
       <c r="C6">
-        <v>0.5881538308432539</v>
+        <v>0.5830324368117203</v>
       </c>
       <c r="D6">
-        <v>0.1981279328832528</v>
+        <v>0.1311064759040264</v>
       </c>
       <c r="E6">
-        <v>0.1290182243561873</v>
+        <v>0.0186984900864009</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.6896860345979974</v>
+        <v>0.0009122628047934676</v>
       </c>
       <c r="H6">
-        <v>1.488057586025604</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1.602954396437767</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.02660416827514567</v>
+        <v>0.03890472502340003</v>
       </c>
       <c r="K6">
-        <v>0.5371993244340487</v>
+        <v>1.038707210884695</v>
       </c>
       <c r="L6">
-        <v>0.2859969024637223</v>
+        <v>0.2984360124916776</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.7573463528193329</v>
+      </c>
+      <c r="N6">
+        <v>4.933846441409912</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.846874297242692</v>
+        <v>4.418047439168106</v>
       </c>
       <c r="C7">
-        <v>0.6199786019286648</v>
+        <v>0.609356672576439</v>
       </c>
       <c r="D7">
-        <v>0.207938806306089</v>
+        <v>0.1326341582873951</v>
       </c>
       <c r="E7">
-        <v>0.1354158097627405</v>
+        <v>0.01873834479274272</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.7172231152714659</v>
+        <v>0.000908263224690012</v>
       </c>
       <c r="H7">
-        <v>1.54013562888052</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1.654759678175196</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.02792487064558458</v>
+        <v>0.04101892363857473</v>
       </c>
       <c r="K7">
-        <v>0.56594627344397</v>
+        <v>1.075434578055663</v>
       </c>
       <c r="L7">
-        <v>0.3008959715653319</v>
+        <v>0.3041688661408273</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.779619023100409</v>
+      </c>
+      <c r="N7">
+        <v>4.992873440586266</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.267179900635938</v>
+        <v>5.056077374345762</v>
       </c>
       <c r="C8">
-        <v>0.7635145547938578</v>
+        <v>0.7292180318201247</v>
       </c>
       <c r="D8">
-        <v>0.2523178357057105</v>
+        <v>0.1398667379420715</v>
       </c>
       <c r="E8">
-        <v>0.1643994726703397</v>
+        <v>0.01892793430670014</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.8425543261122641</v>
+        <v>0.0008910234192321743</v>
       </c>
       <c r="H8">
-        <v>1.77777989181844</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1.891441080514255</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.03391657931224401</v>
+        <v>0.05055863610149203</v>
       </c>
       <c r="K8">
-        <v>0.6954126892783918</v>
+        <v>1.243440934890685</v>
       </c>
       <c r="L8">
-        <v>0.3682679146011338</v>
+        <v>0.3308321559833018</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.8819297663814893</v>
+      </c>
+      <c r="N8">
+        <v>5.261597130888049</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.132517006814169</v>
+        <v>6.416159274588381</v>
       </c>
       <c r="C9">
-        <v>1.060617767980347</v>
+        <v>0.9821334165188773</v>
       </c>
       <c r="D9">
-        <v>0.3446150751873347</v>
+        <v>0.1561527053748932</v>
       </c>
       <c r="E9">
-        <v>0.2248979684887971</v>
+        <v>0.01936486156751327</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.106532315299489</v>
+        <v>0.000858395993833449</v>
       </c>
       <c r="H9">
-        <v>2.280702475610013</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>2.393527122557302</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.04646490777884793</v>
+        <v>0.07036364587600019</v>
       </c>
       <c r="K9">
-        <v>0.9623754243633158</v>
+        <v>1.600636050419695</v>
       </c>
       <c r="L9">
-        <v>0.5083985963890498</v>
+        <v>0.3891742696116012</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1.101019076590426</v>
+      </c>
+      <c r="N9">
+        <v>5.826677066860583</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.806461841484122</v>
+        <v>7.509892885890281</v>
       </c>
       <c r="C10">
-        <v>1.293558056690244</v>
+        <v>1.184148118199801</v>
       </c>
       <c r="D10">
-        <v>0.4171903440642382</v>
+        <v>0.1697880170889761</v>
       </c>
       <c r="E10">
-        <v>0.2726672727385946</v>
+        <v>0.0197447219128577</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.316657351441279</v>
+        <v>0.0008348096438864785</v>
       </c>
       <c r="H10">
-        <v>2.682596793279146</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>2.795643823726905</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.05641071040830425</v>
+        <v>0.08598088396473003</v>
       </c>
       <c r="K10">
-        <v>1.170696283097229</v>
+        <v>1.887369617081433</v>
       </c>
       <c r="L10">
-        <v>0.6187143068594168</v>
+        <v>0.4370547324199663</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1.277839557339448</v>
+      </c>
+      <c r="N10">
+        <v>6.274764874936977</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.124926877698101</v>
+        <v>8.035780085827469</v>
       </c>
       <c r="C11">
-        <v>1.404118442208016</v>
+        <v>1.281048564853506</v>
       </c>
       <c r="D11">
-        <v>0.4516632175506459</v>
+        <v>0.1764610082050666</v>
       </c>
       <c r="E11">
-        <v>0.2954170705066943</v>
+        <v>0.01993590292162484</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.417143549354165</v>
+        <v>0.0008240710751157019</v>
       </c>
       <c r="H11">
-        <v>2.875154483642149</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>2.988534065001133</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06115871281174989</v>
+        <v>0.09342834552527535</v>
       </c>
       <c r="K11">
-        <v>1.269262913032335</v>
+        <v>2.025145797403908</v>
       </c>
       <c r="L11">
-        <v>0.6711752680789544</v>
+        <v>0.4602940259428152</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1.363001302198739</v>
+      </c>
+      <c r="N11">
+        <v>6.488428355360895</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.247593743542495</v>
+        <v>8.23980273666632</v>
       </c>
       <c r="C12">
-        <v>1.446789085632872</v>
+        <v>1.318615653404322</v>
       </c>
       <c r="D12">
-        <v>0.4649696108725436</v>
+        <v>0.1790665645422251</v>
       </c>
       <c r="E12">
-        <v>0.3042086184856032</v>
+        <v>0.02001154604857236</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.456039623480763</v>
+        <v>0.0008199938878883373</v>
       </c>
       <c r="H12">
-        <v>2.949743623631065</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>3.063287180367752</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.06299550770815543</v>
+        <v>0.09630942414263188</v>
       </c>
       <c r="K12">
-        <v>1.307251058684727</v>
+        <v>2.078586462207213</v>
       </c>
       <c r="L12">
-        <v>0.6914373492365442</v>
+        <v>0.4693418780919387</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1.396061574193098</v>
+      </c>
+      <c r="N12">
+        <v>6.571023965731001</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.221076648504379</v>
+        <v>8.195631193457984</v>
       </c>
       <c r="C13">
-        <v>1.437560882141156</v>
+        <v>1.310483299457758</v>
       </c>
       <c r="D13">
-        <v>0.4620918602885524</v>
+        <v>0.1785017151453019</v>
       </c>
       <c r="E13">
-        <v>0.3023068037661076</v>
+        <v>0.01999509937659738</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.447622619892428</v>
+        <v>0.0008208726303036945</v>
       </c>
       <c r="H13">
-        <v>2.933600306982726</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>3.047106773806064</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.06259807445274745</v>
+        <v>0.09568601487085004</v>
       </c>
       <c r="K13">
-        <v>1.299038052409003</v>
+        <v>2.067016831587168</v>
       </c>
       <c r="L13">
-        <v>0.6870546932876707</v>
+        <v>0.4673815620230783</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1.38890298377909</v>
+      </c>
+      <c r="N13">
+        <v>6.553155627301862</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.13497493746388</v>
+        <v>8.05246215555519</v>
       </c>
       <c r="C14">
-        <v>1.407611957077677</v>
+        <v>1.284120744814174</v>
       </c>
       <c r="D14">
-        <v>0.45275261540624</v>
+        <v>0.1766737220489034</v>
       </c>
       <c r="E14">
-        <v>0.2961366230847631</v>
+        <v>0.01994205708430519</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.420325745573649</v>
+        <v>0.000823735918041135</v>
       </c>
       <c r="H14">
-        <v>2.881255740414048</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>2.994648020051315</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.06130900618300572</v>
+        <v>0.0936640787421581</v>
       </c>
       <c r="K14">
-        <v>1.272374186861626</v>
+        <v>2.029515616155621</v>
       </c>
       <c r="L14">
-        <v>0.6728338614716307</v>
+        <v>0.4610331910005954</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1.365704080672202</v>
+      </c>
+      <c r="N14">
+        <v>6.495188006879062</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.082516733193813</v>
+        <v>7.965429182552271</v>
       </c>
       <c r="C15">
-        <v>1.389376755955084</v>
+        <v>1.268091693766564</v>
       </c>
       <c r="D15">
-        <v>0.4470663047378309</v>
+        <v>0.1755646281139889</v>
       </c>
       <c r="E15">
-        <v>0.2923812070856258</v>
+        <v>0.01991001033847617</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.403720122784136</v>
+        <v>0.0008254880566209626</v>
       </c>
       <c r="H15">
-        <v>2.849419792082386</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>2.962747235750811</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.060524690449693</v>
+        <v>0.09243389650232103</v>
       </c>
       <c r="K15">
-        <v>1.256131977672823</v>
+        <v>2.00671716734756</v>
       </c>
       <c r="L15">
-        <v>0.6641770487352971</v>
+        <v>0.4571781334031613</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1.351604104462425</v>
+      </c>
+      <c r="N15">
+        <v>6.45990970978437</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.785918054276578</v>
+        <v>7.476160561510028</v>
       </c>
       <c r="C16">
-        <v>1.286436783525289</v>
+        <v>1.177928566687797</v>
       </c>
       <c r="D16">
-        <v>0.4149702737946086</v>
+        <v>0.1693622788536544</v>
       </c>
       <c r="E16">
-        <v>0.2712034850736842</v>
+        <v>0.01973264618328097</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.31020031250236</v>
+        <v>0.0008355104877907879</v>
       </c>
       <c r="H16">
-        <v>2.670230745056386</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>2.783261092718561</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.05610546035697084</v>
+        <v>0.08550201460491991</v>
       </c>
       <c r="K16">
-        <v>1.164340696060648</v>
+        <v>1.878530541855142</v>
       </c>
       <c r="L16">
-        <v>0.6153372914364397</v>
+        <v>0.4355684127879869</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.272379822967295</v>
+      </c>
+      <c r="N16">
+        <v>6.261021368644549</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.6072463482285</v>
+        <v>7.183794973074725</v>
       </c>
       <c r="C17">
-        <v>1.22455721651221</v>
+        <v>1.12399790216125</v>
       </c>
       <c r="D17">
-        <v>0.3956818781842628</v>
+        <v>0.1656849844381867</v>
       </c>
       <c r="E17">
-        <v>0.2584925093211083</v>
+        <v>0.01962893491286666</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.254175664303631</v>
+        <v>0.0008416504496143253</v>
       </c>
       <c r="H17">
-        <v>2.562976204759622</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>2.675886765315383</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.05345606086227761</v>
+        <v>0.08134492922180669</v>
       </c>
       <c r="K17">
-        <v>1.109079744889797</v>
+        <v>1.80191070544825</v>
       </c>
       <c r="L17">
-        <v>0.586004230928431</v>
+        <v>0.4227098242370317</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.225074672337584</v>
+      </c>
+      <c r="N17">
+        <v>6.141705186384286</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.505572630852953</v>
+        <v>7.018245451145731</v>
       </c>
       <c r="C18">
-        <v>1.189388267293396</v>
+        <v>1.093438546867162</v>
       </c>
       <c r="D18">
-        <v>0.3847219943948801</v>
+        <v>0.1636133926081982</v>
       </c>
       <c r="E18">
-        <v>0.2512753481816645</v>
+        <v>0.01957096980938955</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.222403259997236</v>
+        <v>0.0008451818022311113</v>
       </c>
       <c r="H18">
-        <v>2.502183635838492</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>2.615046758615435</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.05195278030062056</v>
+        <v>0.07898536760297503</v>
       </c>
       <c r="K18">
-        <v>1.077644743168051</v>
+        <v>1.758516987159467</v>
       </c>
       <c r="L18">
-        <v>0.5693422649331552</v>
+        <v>0.4154485079760519</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.198301541387949</v>
+      </c>
+      <c r="N18">
+        <v>6.073983545894322</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.471325451837401</v>
+        <v>6.96261966552521</v>
       </c>
       <c r="C19">
-        <v>1.177549285969121</v>
+        <v>1.083166500410016</v>
       </c>
       <c r="D19">
-        <v>0.3810330505951356</v>
+        <v>0.1629191537864756</v>
       </c>
       <c r="E19">
-        <v>0.2488470282527757</v>
+        <v>0.01955161730655597</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.211719346803108</v>
+        <v>0.0008463776832890802</v>
       </c>
       <c r="H19">
-        <v>2.481746913579798</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>2.594597524976933</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.05144714628577418</v>
+        <v>0.07819155224269991</v>
       </c>
       <c r="K19">
-        <v>1.067058218062883</v>
+        <v>1.743934898825643</v>
       </c>
       <c r="L19">
-        <v>0.5637349154266929</v>
+        <v>0.4130120283612655</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.189307806330788</v>
+      </c>
+      <c r="N19">
+        <v>6.051202238246162</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.626150659952827</v>
+        <v>7.214642173552818</v>
       </c>
       <c r="C20">
-        <v>1.231099715545554</v>
+        <v>1.129690273777953</v>
       </c>
       <c r="D20">
-        <v>0.3977209770882837</v>
+        <v>0.1660718643010171</v>
       </c>
       <c r="E20">
-        <v>0.2598356993554276</v>
+        <v>0.01963979662774751</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.260091921805639</v>
+        <v>0.0008409969226177796</v>
       </c>
       <c r="H20">
-        <v>2.574298935559199</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>2.687219993938896</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.05373591903885</v>
+        <v>0.08178412315015748</v>
       </c>
       <c r="K20">
-        <v>1.114925402375562</v>
+        <v>1.809995647065492</v>
       </c>
       <c r="L20">
-        <v>0.5891046299455667</v>
+        <v>0.4240644600748738</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.230064434278802</v>
+      </c>
+      <c r="N20">
+        <v>6.154311027575773</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.160205674421263</v>
+        <v>8.094374702512596</v>
       </c>
       <c r="C21">
-        <v>1.416385593661403</v>
+        <v>1.291838994273064</v>
       </c>
       <c r="D21">
-        <v>0.4554885539642157</v>
+        <v>0.1772084151602229</v>
       </c>
       <c r="E21">
-        <v>0.2979438918776012</v>
+        <v>0.01995754324612031</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.428319351794812</v>
+        <v>0.0008228952765008648</v>
       </c>
       <c r="H21">
-        <v>2.896582826831661</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>3.010007572298221</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.06168652360583238</v>
+        <v>0.0942562141342691</v>
       </c>
       <c r="K21">
-        <v>1.280186978398589</v>
+        <v>2.040494320188074</v>
       </c>
       <c r="L21">
-        <v>0.6769994997489093</v>
+        <v>0.4628908008492658</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.372494959050755</v>
+      </c>
+      <c r="N21">
+        <v>6.512166310297459</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.521532043267996</v>
+        <v>8.698276039476582</v>
       </c>
       <c r="C22">
-        <v>1.542252839570267</v>
+        <v>1.402996456596895</v>
       </c>
       <c r="D22">
-        <v>0.4947390535590728</v>
+        <v>0.1849519390096788</v>
       </c>
       <c r="E22">
-        <v>0.3238979133024955</v>
+        <v>0.02018452664836756</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.543270084660747</v>
+        <v>0.0008109964895048052</v>
       </c>
       <c r="H22">
-        <v>3.117121953593653</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>3.231100341151901</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.06711308089201751</v>
+        <v>0.1027695343328929</v>
       </c>
       <c r="K22">
-        <v>1.392130591799997</v>
+        <v>2.198659746457423</v>
       </c>
       <c r="L22">
-        <v>0.7367951621339586</v>
+        <v>0.4897329005646611</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.470392302891554</v>
+      </c>
+      <c r="N22">
+        <v>6.756039486835107</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.327423091606647</v>
+        <v>8.37300410198759</v>
       </c>
       <c r="C23">
-        <v>1.474583895761498</v>
+        <v>1.343135990635176</v>
       </c>
       <c r="D23">
-        <v>0.473637264820411</v>
+        <v>0.1807722835915087</v>
       </c>
       <c r="E23">
-        <v>0.309938404794643</v>
+        <v>0.02006137490388449</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.481407806075396</v>
+        <v>0.0008173569692059885</v>
       </c>
       <c r="H23">
-        <v>2.998406230026745</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>3.112066842893285</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.06419320171397658</v>
+        <v>0.09818821780424969</v>
       </c>
       <c r="K23">
-        <v>1.331979698018941</v>
+        <v>2.113473863042543</v>
       </c>
       <c r="L23">
-        <v>0.7046397895435916</v>
+        <v>0.4752579490251492</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.417651691045009</v>
+      </c>
+      <c r="N23">
+        <v>6.624860689399213</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.617600785802779</v>
+        <v>7.200688315818638</v>
       </c>
       <c r="C24">
-        <v>1.228140596196909</v>
+        <v>1.127115374239338</v>
       </c>
       <c r="D24">
-        <v>0.396798700927576</v>
+        <v>0.1658968242354035</v>
       </c>
       <c r="E24">
-        <v>0.2592281632980544</v>
+        <v>0.01963488091998622</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.257415831097887</v>
+        <v>0.0008412923771073554</v>
       </c>
       <c r="H24">
-        <v>2.569177240570326</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>2.682093486483708</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.0536093336763237</v>
+        <v>0.08158546971959879</v>
       </c>
       <c r="K24">
-        <v>1.112281544887963</v>
+        <v>1.806338416993128</v>
       </c>
       <c r="L24">
-        <v>0.5877023153677712</v>
+        <v>0.4234516231397123</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.227807254246443</v>
+      </c>
+      <c r="N24">
+        <v>6.148609221804037</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.892781613483578</v>
+        <v>6.033930910105937</v>
       </c>
       <c r="C25">
-        <v>0.9780873371001064</v>
+        <v>0.9113043810620525</v>
       </c>
       <c r="D25">
-        <v>0.3189354706906045</v>
+        <v>0.1514853809317032</v>
       </c>
       <c r="E25">
-        <v>0.2080368327807207</v>
+        <v>0.0192379326835117</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.032690215212469</v>
+        <v>0.000867127689697793</v>
       </c>
       <c r="H25">
-        <v>2.139762571690127</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>2.252681905118379</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.04296218117704065</v>
+        <v>0.06485124634690465</v>
       </c>
       <c r="K25">
-        <v>0.8883579230284511</v>
+        <v>1.500343811243326</v>
       </c>
       <c r="L25">
-        <v>0.4693982105463235</v>
+        <v>0.3726187877394693</v>
       </c>
       <c r="M25">
+        <v>1.03934238334805</v>
+      </c>
+      <c r="N25">
+        <v>5.668816654379185</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_3/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_3/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.235427607533438</v>
+        <v>2.87537001230703</v>
       </c>
       <c r="C2">
-        <v>0.7627353016880534</v>
+        <v>0.5499639125710871</v>
       </c>
       <c r="D2">
-        <v>0.1419563322139368</v>
+        <v>0.1899508069047329</v>
       </c>
       <c r="E2">
-        <v>0.01898312294370186</v>
+        <v>0.03775244783566922</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008864428391756449</v>
+        <v>1.574623981090184</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.9816288741569394</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.9065835779010456</v>
       </c>
       <c r="J2">
-        <v>0.05320511249327353</v>
+        <v>0.05017852883471718</v>
       </c>
       <c r="K2">
-        <v>1.290603990344394</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3384241907839964</v>
+        <v>0.3116517756291728</v>
       </c>
       <c r="M2">
-        <v>0.9107534722019466</v>
+        <v>0.5584601409396726</v>
       </c>
       <c r="N2">
-        <v>5.336676778276995</v>
+        <v>1.071055306140661</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.722844640425535</v>
+        <v>2.517719006145398</v>
       </c>
       <c r="C3">
-        <v>0.6667533157441881</v>
+        <v>0.4751841417571825</v>
       </c>
       <c r="D3">
-        <v>0.136046039121787</v>
+        <v>0.1818481305646173</v>
       </c>
       <c r="E3">
-        <v>0.01882754635803274</v>
+        <v>0.03830452361843406</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008998252960401571</v>
+        <v>1.477987931715063</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.946081108673468</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.8828372518447338</v>
       </c>
       <c r="J3">
-        <v>0.04560328931373192</v>
+        <v>0.04525847913961201</v>
       </c>
       <c r="K3">
-        <v>1.155743308486777</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.31683247247841</v>
+        <v>0.2879549054049733</v>
       </c>
       <c r="M3">
-        <v>0.8284456372842399</v>
+        <v>0.4946456659744882</v>
       </c>
       <c r="N3">
-        <v>5.121581714397252</v>
+        <v>1.131375748715705</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.419688755269306</v>
+        <v>2.300813965061309</v>
       </c>
       <c r="C4">
-        <v>0.6096665338491505</v>
+        <v>0.4297255916159486</v>
       </c>
       <c r="D4">
-        <v>0.1326522889156152</v>
+        <v>0.1771273061902292</v>
       </c>
       <c r="E4">
-        <v>0.01873881801710642</v>
+        <v>0.03866356115272085</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0009082166608117242</v>
+        <v>1.421939202332155</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.9260624178342596</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.8700784707811238</v>
       </c>
       <c r="J4">
-        <v>0.04104376332222159</v>
+        <v>0.042250135891436</v>
       </c>
       <c r="K4">
-        <v>1.075867317895288</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3042366473871994</v>
+        <v>0.2738194396358296</v>
       </c>
       <c r="M4">
-        <v>0.7798816793409244</v>
+        <v>0.4560643325816827</v>
       </c>
       <c r="N4">
-        <v>4.993568291954858</v>
+        <v>1.169941434596764</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.298731329891154</v>
+        <v>2.213023034953039</v>
       </c>
       <c r="C5">
-        <v>0.5868058038010986</v>
+        <v>0.4112972840460145</v>
       </c>
       <c r="D5">
-        <v>0.1313238844057452</v>
+        <v>0.1752640372063397</v>
       </c>
       <c r="E5">
-        <v>0.01870416005049114</v>
+        <v>0.03881487405311823</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0009116840499091926</v>
+        <v>1.399865548460184</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.9183316517695204</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.8653102103931261</v>
       </c>
       <c r="J5">
-        <v>0.03920827038707131</v>
+        <v>0.0410262194185087</v>
       </c>
       <c r="K5">
-        <v>1.043967275514134</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2992545904174051</v>
+        <v>0.2681558702868898</v>
       </c>
       <c r="M5">
-        <v>0.7605338025367914</v>
+        <v>0.4404781530187236</v>
       </c>
       <c r="N5">
-        <v>4.942306835939092</v>
+        <v>1.186030693913585</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4.278793390941587</v>
+        <v>2.198479462882062</v>
       </c>
       <c r="C6">
-        <v>0.5830324368117203</v>
+        <v>0.4082425890262016</v>
       </c>
       <c r="D6">
-        <v>0.1311064759040264</v>
+        <v>0.1749582012943662</v>
       </c>
       <c r="E6">
-        <v>0.0186984900864009</v>
+        <v>0.03884030039876007</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0009122628047934676</v>
+        <v>1.396244872022322</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.9170729845277208</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.8645437239525933</v>
       </c>
       <c r="J6">
-        <v>0.03890472502340003</v>
+        <v>0.04082307805283847</v>
       </c>
       <c r="K6">
-        <v>1.038707210884695</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2984360124916776</v>
+        <v>0.2672210732600178</v>
       </c>
       <c r="M6">
-        <v>0.7573463528193329</v>
+        <v>0.4378978739821093</v>
       </c>
       <c r="N6">
-        <v>4.933846441409912</v>
+        <v>1.188724551210562</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.418047439168106</v>
+        <v>2.299627656865312</v>
       </c>
       <c r="C7">
-        <v>0.609356672576439</v>
+        <v>0.4294766939399608</v>
       </c>
       <c r="D7">
-        <v>0.1326341582873951</v>
+        <v>0.1771019368730364</v>
       </c>
       <c r="E7">
-        <v>0.01873834479274272</v>
+        <v>0.03866558161074618</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.000908263224690012</v>
+        <v>1.421638481037405</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.9259564641055107</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.8700124534036675</v>
       </c>
       <c r="J7">
-        <v>0.04101892363857473</v>
+        <v>0.0422336230646998</v>
       </c>
       <c r="K7">
-        <v>1.075434578055663</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3041688661408273</v>
+        <v>0.2737426765446571</v>
       </c>
       <c r="M7">
-        <v>0.779619023100409</v>
+        <v>0.4558536003380098</v>
       </c>
       <c r="N7">
-        <v>4.992873440586266</v>
+        <v>1.170156921900229</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.056077374345762</v>
+        <v>2.751444095743182</v>
       </c>
       <c r="C8">
-        <v>0.7292180318201247</v>
+        <v>0.5240735893609099</v>
       </c>
       <c r="D8">
-        <v>0.1398667379420715</v>
+        <v>0.1871020948663045</v>
       </c>
       <c r="E8">
-        <v>0.01892793430670014</v>
+        <v>0.03793861340928029</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008910234192321743</v>
+        <v>1.540584560491624</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.9689795860385573</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.8980009332444183</v>
       </c>
       <c r="J8">
-        <v>0.05055863610149203</v>
+        <v>0.04847875841011984</v>
       </c>
       <c r="K8">
-        <v>1.243440934890685</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3308321559833018</v>
+        <v>0.3033903867769823</v>
       </c>
       <c r="M8">
-        <v>0.8819297663814893</v>
+        <v>0.5363227250150615</v>
       </c>
       <c r="N8">
-        <v>5.261597130888049</v>
+        <v>1.091529676008729</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.416159274588381</v>
+        <v>3.66268282855691</v>
       </c>
       <c r="C9">
-        <v>0.9821334165188773</v>
+        <v>0.7141106226821137</v>
       </c>
       <c r="D9">
-        <v>0.1561527053748932</v>
+        <v>0.2088980686592237</v>
       </c>
       <c r="E9">
-        <v>0.01936486156751327</v>
+        <v>0.03667429603072003</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.000858395993833449</v>
+        <v>1.802841995064057</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.069045400393833</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.9686623608411509</v>
       </c>
       <c r="J9">
-        <v>0.07036364587600019</v>
+        <v>0.06088271332322748</v>
       </c>
       <c r="K9">
-        <v>1.600636050419695</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3891742696116012</v>
+        <v>0.3651873648866371</v>
       </c>
       <c r="M9">
-        <v>1.101019076590426</v>
+        <v>0.6996378212512511</v>
       </c>
       <c r="N9">
-        <v>5.826677066860583</v>
+        <v>0.9500038816700922</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.509892885890281</v>
+        <v>4.353472449624007</v>
       </c>
       <c r="C10">
-        <v>1.184148118199801</v>
+        <v>0.8578973215248311</v>
       </c>
       <c r="D10">
-        <v>0.1697880170889761</v>
+        <v>0.2265008865859244</v>
       </c>
       <c r="E10">
-        <v>0.0197447219128577</v>
+        <v>0.03584695836033358</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0008348096438864785</v>
+        <v>2.017681870646442</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.154202485614007</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1.032212460350479</v>
       </c>
       <c r="J10">
-        <v>0.08598088396473003</v>
+        <v>0.07018034844042376</v>
       </c>
       <c r="K10">
-        <v>1.887369617081433</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4370547324199663</v>
+        <v>0.4133851210081474</v>
       </c>
       <c r="M10">
-        <v>1.277839557339448</v>
+        <v>0.8241348933393269</v>
       </c>
       <c r="N10">
-        <v>6.274764874936977</v>
+        <v>0.8545497993178017</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.035780085827469</v>
+        <v>4.67383464774116</v>
       </c>
       <c r="C11">
-        <v>1.281048564853506</v>
+        <v>0.9245665437921957</v>
       </c>
       <c r="D11">
-        <v>0.1764610082050666</v>
+        <v>0.2349177153047606</v>
       </c>
       <c r="E11">
-        <v>0.01993590292162484</v>
+        <v>0.03549347543484904</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0008240710751157019</v>
+        <v>2.121347478125642</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1.195986724275286</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1.064152660831354</v>
       </c>
       <c r="J11">
-        <v>0.09342834552527535</v>
+        <v>0.07447242375823038</v>
       </c>
       <c r="K11">
-        <v>2.025145797403908</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4602940259428152</v>
+        <v>0.4360595639532363</v>
       </c>
       <c r="M11">
-        <v>1.363001302198739</v>
+        <v>0.8820372763534365</v>
       </c>
       <c r="N11">
-        <v>6.488428355360895</v>
+        <v>0.813178115214285</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.23980273666632</v>
+        <v>4.796164408246341</v>
       </c>
       <c r="C12">
-        <v>1.318615653404322</v>
+        <v>0.9500265181312102</v>
       </c>
       <c r="D12">
-        <v>0.1790665645422251</v>
+        <v>0.2381697031376149</v>
       </c>
       <c r="E12">
-        <v>0.02001154604857236</v>
+        <v>0.03536299338066629</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0008199938878883373</v>
+        <v>2.161560739984964</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1.212295690435496</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1.076730510463122</v>
       </c>
       <c r="J12">
-        <v>0.09630942414263188</v>
+        <v>0.07610880048934376</v>
       </c>
       <c r="K12">
-        <v>2.078586462207213</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4693418780919387</v>
+        <v>0.4447666025557595</v>
       </c>
       <c r="M12">
-        <v>1.396061574193098</v>
+        <v>0.9041723027734037</v>
       </c>
       <c r="N12">
-        <v>6.571023965731001</v>
+        <v>0.7978258632918056</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.195631193457984</v>
+        <v>4.769771021334464</v>
       </c>
       <c r="C13">
-        <v>1.310483299457758</v>
+        <v>0.9445331904581735</v>
       </c>
       <c r="D13">
-        <v>0.1785017151453019</v>
+        <v>0.2374663510390747</v>
       </c>
       <c r="E13">
-        <v>0.01999509937659738</v>
+        <v>0.03539094348945104</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0008208726303036945</v>
+        <v>2.15285573859498</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1.208760816287423</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1.073999371802273</v>
       </c>
       <c r="J13">
-        <v>0.09568601487085004</v>
+        <v>0.07575585007134578</v>
       </c>
       <c r="K13">
-        <v>2.067016831587168</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.4673815620230783</v>
+        <v>0.4428857949761209</v>
       </c>
       <c r="M13">
-        <v>1.38890298377909</v>
+        <v>0.8993953998251456</v>
       </c>
       <c r="N13">
-        <v>6.553155627301862</v>
+        <v>0.8011179352022531</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.05246215555519</v>
+        <v>4.683877608405794</v>
       </c>
       <c r="C14">
-        <v>1.284120744814174</v>
+        <v>0.9266566668172231</v>
       </c>
       <c r="D14">
-        <v>0.1766737220489034</v>
+        <v>0.2351839254737058</v>
       </c>
       <c r="E14">
-        <v>0.01994205708430519</v>
+        <v>0.0354826724488424</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.000823735918041135</v>
+        <v>2.124636024637567</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1.197318434298296</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1.065177485466634</v>
       </c>
       <c r="J14">
-        <v>0.0936640787421581</v>
+        <v>0.0746068150901209</v>
       </c>
       <c r="K14">
-        <v>2.029515616155621</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4610331910005954</v>
+        <v>0.4367733984221189</v>
       </c>
       <c r="M14">
-        <v>1.365704080672202</v>
+        <v>0.88385399590085</v>
       </c>
       <c r="N14">
-        <v>6.495188006879062</v>
+        <v>0.8119086584647484</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.965429182552271</v>
+        <v>4.631401942443802</v>
       </c>
       <c r="C15">
-        <v>1.268091693766564</v>
+        <v>0.9157356510097259</v>
       </c>
       <c r="D15">
-        <v>0.1755646281139889</v>
+        <v>0.233794486600587</v>
       </c>
       <c r="E15">
-        <v>0.01991001033847617</v>
+        <v>0.03553930121012616</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0008254880566209626</v>
+        <v>2.107478589011407</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1.190374479044635</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1.059838177390233</v>
       </c>
       <c r="J15">
-        <v>0.09243389650232103</v>
+        <v>0.0739045038445667</v>
       </c>
       <c r="K15">
-        <v>2.00671716734756</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4571781334031613</v>
+        <v>0.4330455098317003</v>
       </c>
       <c r="M15">
-        <v>1.351604104462425</v>
+        <v>0.8743624383587587</v>
       </c>
       <c r="N15">
-        <v>6.45990970978437</v>
+        <v>0.8185598313198064</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.476160561510028</v>
+        <v>4.332670424252967</v>
       </c>
       <c r="C16">
-        <v>1.177928566687797</v>
+        <v>0.853568390725286</v>
       </c>
       <c r="D16">
-        <v>0.1693622788536544</v>
+        <v>0.2259595500799207</v>
       </c>
       <c r="E16">
-        <v>0.01973264618328097</v>
+        <v>0.03587052663041979</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0008355104877907879</v>
+        <v>2.011035129997992</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1.151537081361596</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1.030189984473054</v>
       </c>
       <c r="J16">
-        <v>0.08550201460491991</v>
+        <v>0.06990128117328709</v>
       </c>
       <c r="K16">
-        <v>1.878530541855142</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4355684127879869</v>
+        <v>0.4119194466162099</v>
       </c>
       <c r="M16">
-        <v>1.272379822967295</v>
+        <v>0.8203785388948859</v>
       </c>
       <c r="N16">
-        <v>6.261021368644549</v>
+        <v>0.8572964161449477</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.183794973074725</v>
+        <v>4.151067558263662</v>
       </c>
       <c r="C17">
-        <v>1.12399790216125</v>
+        <v>0.8157755868847687</v>
       </c>
       <c r="D17">
-        <v>0.1656849844381867</v>
+        <v>0.2212618754491302</v>
       </c>
       <c r="E17">
-        <v>0.01962893491286666</v>
+        <v>0.03607963890854649</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0008416504496143253</v>
+        <v>1.953460635082223</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1.128524419780888</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1.012809950910494</v>
       </c>
       <c r="J17">
-        <v>0.08134492922180669</v>
+        <v>0.06746285078496328</v>
       </c>
       <c r="K17">
-        <v>1.80191070544825</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4227098242370317</v>
+        <v>0.3991599735561948</v>
       </c>
       <c r="M17">
-        <v>1.225074672337584</v>
+        <v>0.7876038043813836</v>
       </c>
       <c r="N17">
-        <v>6.141705186384286</v>
+        <v>0.8815984953145986</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.018245451145731</v>
+        <v>4.047181371034128</v>
       </c>
       <c r="C18">
-        <v>1.093438546867162</v>
+        <v>0.7941546040033245</v>
       </c>
       <c r="D18">
-        <v>0.1636133926081982</v>
+        <v>0.2185980298638128</v>
       </c>
       <c r="E18">
-        <v>0.01957096980938955</v>
+        <v>0.03620206240264467</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0008451818022311113</v>
+        <v>1.920896985125182</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1.11557166387874</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1.003095614992439</v>
       </c>
       <c r="J18">
-        <v>0.07898536760297503</v>
+        <v>0.06606607940666365</v>
       </c>
       <c r="K18">
-        <v>1.758516987159467</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4154485079760519</v>
+        <v>0.3918907104044109</v>
       </c>
       <c r="M18">
-        <v>1.198301541387949</v>
+        <v>0.7688702676793611</v>
       </c>
       <c r="N18">
-        <v>6.073983545894322</v>
+        <v>0.8957681683596839</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.96261966552521</v>
+        <v>4.012100766455717</v>
       </c>
       <c r="C19">
-        <v>1.083166500410016</v>
+        <v>0.7868531728267101</v>
       </c>
       <c r="D19">
-        <v>0.1629191537864756</v>
+        <v>0.2177024774442486</v>
       </c>
       <c r="E19">
-        <v>0.01955161730655597</v>
+        <v>0.03624387935050688</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0008463776832890802</v>
+        <v>1.909963249847891</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1.111233391573023</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.9998536246860041</v>
       </c>
       <c r="J19">
-        <v>0.07819155224269991</v>
+        <v>0.0655940847392813</v>
       </c>
       <c r="K19">
-        <v>1.743934898825643</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4130120283612655</v>
+        <v>0.3894410504448587</v>
       </c>
       <c r="M19">
-        <v>1.189307806330788</v>
+        <v>0.7625468588125628</v>
       </c>
       <c r="N19">
-        <v>6.051202238246162</v>
+        <v>0.900598153118441</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.214642173552818</v>
+        <v>4.170339875539753</v>
       </c>
       <c r="C20">
-        <v>1.129690273777953</v>
+        <v>0.8197864195601312</v>
       </c>
       <c r="D20">
-        <v>0.1660718643010171</v>
+        <v>0.2217579636982379</v>
       </c>
       <c r="E20">
-        <v>0.01963979662774751</v>
+        <v>0.03605715569850476</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0008409969226177796</v>
+        <v>1.959531723035155</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.130944480949665</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1.014630554155765</v>
       </c>
       <c r="J20">
-        <v>0.08178412315015748</v>
+        <v>0.06772181658097054</v>
       </c>
       <c r="K20">
-        <v>1.809995647065492</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4240644600748738</v>
+        <v>0.4005109429983946</v>
       </c>
       <c r="M20">
-        <v>1.230064434278802</v>
+        <v>0.7910803754068567</v>
       </c>
       <c r="N20">
-        <v>6.154311027575773</v>
+        <v>0.8789915170974787</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.094374702512596</v>
+        <v>4.709077870229976</v>
       </c>
       <c r="C21">
-        <v>1.291838994273064</v>
+        <v>0.9319013550247064</v>
       </c>
       <c r="D21">
-        <v>0.1772084151602229</v>
+        <v>0.2358525229684147</v>
       </c>
       <c r="E21">
-        <v>0.01995754324612031</v>
+        <v>0.03545563712478383</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0008228952765008648</v>
+        <v>2.132897971417378</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1.200665734427446</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1.067755185459774</v>
       </c>
       <c r="J21">
-        <v>0.0942562141342691</v>
+        <v>0.0749439966690062</v>
       </c>
       <c r="K21">
-        <v>2.040494320188074</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4628908008492658</v>
+        <v>0.4385653706212622</v>
       </c>
       <c r="M21">
-        <v>1.372494959050755</v>
+        <v>0.8884129965824883</v>
       </c>
       <c r="N21">
-        <v>6.512166310297459</v>
+        <v>0.8087304662828352</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.698276039476582</v>
+        <v>5.067167509210606</v>
       </c>
       <c r="C22">
-        <v>1.402996456596895</v>
+        <v>1.006438911385857</v>
       </c>
       <c r="D22">
-        <v>0.1849519390096788</v>
+        <v>0.2454445303158508</v>
       </c>
       <c r="E22">
-        <v>0.02018452664836756</v>
+        <v>0.03508222524448001</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0008109964895048052</v>
+        <v>2.251839646862834</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1.249092695572784</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1.105314799253804</v>
       </c>
       <c r="J22">
-        <v>0.1027695343328929</v>
+        <v>0.07972971642843873</v>
       </c>
       <c r="K22">
-        <v>2.198659746457423</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.4897329005646611</v>
+        <v>0.4641468503823063</v>
       </c>
       <c r="M22">
-        <v>1.470392302891554</v>
+        <v>0.9532559721555387</v>
       </c>
       <c r="N22">
-        <v>6.756039486835107</v>
+        <v>0.7646533902247477</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.37300410198759</v>
+        <v>4.87545121604353</v>
       </c>
       <c r="C23">
-        <v>1.343135990635176</v>
+        <v>0.9665294113626999</v>
       </c>
       <c r="D23">
-        <v>0.1807722835915087</v>
+        <v>0.2402881870640385</v>
       </c>
       <c r="E23">
-        <v>0.02006137490388449</v>
+        <v>0.03527968733768549</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0008173569692059885</v>
+        <v>2.187805078644601</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1.222967297688285</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1.08499184702039</v>
       </c>
       <c r="J23">
-        <v>0.09818821780424969</v>
+        <v>0.07716873803895652</v>
       </c>
       <c r="K23">
-        <v>2.113473863042543</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.4752579490251492</v>
+        <v>0.4504238347226703</v>
       </c>
       <c r="M23">
-        <v>1.417651691045009</v>
+        <v>0.918526021134582</v>
       </c>
       <c r="N23">
-        <v>6.624860689399213</v>
+        <v>0.7880025900498175</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.200688315818638</v>
+        <v>4.161625252165379</v>
       </c>
       <c r="C24">
-        <v>1.127115374239338</v>
+        <v>0.8179727924804183</v>
       </c>
       <c r="D24">
-        <v>0.1658968242354035</v>
+        <v>0.2215335676702637</v>
       </c>
       <c r="E24">
-        <v>0.01963488091998622</v>
+        <v>0.03606731350506687</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0008412923771073554</v>
+        <v>1.956785320216142</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.129849510430574</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1.013806598013581</v>
       </c>
       <c r="J24">
-        <v>0.08158546971959879</v>
+        <v>0.06760472236670623</v>
       </c>
       <c r="K24">
-        <v>1.806338416993128</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4234516231397123</v>
+        <v>0.3998999640830192</v>
       </c>
       <c r="M24">
-        <v>1.227807254246443</v>
+        <v>0.7895082797938855</v>
       </c>
       <c r="N24">
-        <v>6.148609221804037</v>
+        <v>0.8801695164032779</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6.033930910105937</v>
+        <v>3.412889558479151</v>
       </c>
       <c r="C25">
-        <v>0.9113043810620525</v>
+        <v>0.6620786274122281</v>
       </c>
       <c r="D25">
-        <v>0.1514853809317032</v>
+        <v>0.2027425607002868</v>
       </c>
       <c r="E25">
-        <v>0.0192379326835117</v>
+        <v>0.03699875152974608</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.000867127689697793</v>
+        <v>1.728352359541191</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.040092565489829</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.9476606913750345</v>
       </c>
       <c r="J25">
-        <v>0.06485124634690465</v>
+        <v>0.05750165906717442</v>
       </c>
       <c r="K25">
-        <v>1.500343811243326</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3726187877394693</v>
+        <v>0.3480228139479067</v>
       </c>
       <c r="M25">
-        <v>1.03934238334805</v>
+        <v>0.6547543010729697</v>
       </c>
       <c r="N25">
-        <v>5.668816654379185</v>
+        <v>0.9868563756496371</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_3/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_3/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.87537001230703</v>
+        <v>2.236963703934521</v>
       </c>
       <c r="C2">
-        <v>0.5499639125710871</v>
+        <v>0.1868048338275798</v>
       </c>
       <c r="D2">
-        <v>0.1899508069047329</v>
+        <v>0.4125214146171032</v>
       </c>
       <c r="E2">
-        <v>0.03775244783566922</v>
+        <v>0.1061728715418604</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.574623981090184</v>
+        <v>2.403171259473737</v>
       </c>
       <c r="H2">
-        <v>0.9816288741569394</v>
+        <v>1.950001808201165</v>
       </c>
       <c r="I2">
-        <v>0.9065835779010456</v>
+        <v>1.790789228615473</v>
       </c>
       <c r="J2">
-        <v>0.05017852883471718</v>
+        <v>0.03565943707513242</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3116517756291728</v>
+        <v>0.5301895619529802</v>
       </c>
       <c r="M2">
-        <v>0.5584601409396726</v>
+        <v>0.56468599846405</v>
       </c>
       <c r="N2">
-        <v>1.071055306140661</v>
+        <v>2.277037435095849</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.517719006145398</v>
+        <v>2.152429527502534</v>
       </c>
       <c r="C3">
-        <v>0.4751841417571825</v>
+        <v>0.1663017038063686</v>
       </c>
       <c r="D3">
-        <v>0.1818481305646173</v>
+        <v>0.412753840363365</v>
       </c>
       <c r="E3">
-        <v>0.03830452361843406</v>
+        <v>0.1065940505272485</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.477987931715063</v>
+        <v>2.395937815654861</v>
       </c>
       <c r="H3">
-        <v>0.946081108673468</v>
+        <v>1.953567051358476</v>
       </c>
       <c r="I3">
-        <v>0.8828372518447338</v>
+        <v>1.796697837749022</v>
       </c>
       <c r="J3">
-        <v>0.04525847913961201</v>
+        <v>0.03402759037572167</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2879549054049733</v>
+        <v>0.5271813717441916</v>
       </c>
       <c r="M3">
-        <v>0.4946456659744882</v>
+        <v>0.5509545458252774</v>
       </c>
       <c r="N3">
-        <v>1.131375748715705</v>
+        <v>2.301193869387239</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.300813965061309</v>
+        <v>2.10161077907145</v>
       </c>
       <c r="C4">
-        <v>0.4297255916159486</v>
+        <v>0.1537629123999409</v>
       </c>
       <c r="D4">
-        <v>0.1771273061902292</v>
+        <v>0.4130505900932988</v>
       </c>
       <c r="E4">
-        <v>0.03866356115272085</v>
+        <v>0.1068685861689156</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.421939202332155</v>
+        <v>2.392849898295253</v>
       </c>
       <c r="H4">
-        <v>0.9260624178342596</v>
+        <v>1.956644586090903</v>
       </c>
       <c r="I4">
-        <v>0.8700784707811238</v>
+        <v>1.801180497525813</v>
       </c>
       <c r="J4">
-        <v>0.042250135891436</v>
+        <v>0.03301240256537241</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2738194396358296</v>
+        <v>0.5255596765048551</v>
       </c>
       <c r="M4">
-        <v>0.4560643325816827</v>
+        <v>0.5427954884793991</v>
       </c>
       <c r="N4">
-        <v>1.169941434596764</v>
+        <v>2.316758791818961</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.213023034953039</v>
+        <v>2.081175142173322</v>
       </c>
       <c r="C5">
-        <v>0.4112972840460145</v>
+        <v>0.1486657439627095</v>
       </c>
       <c r="D5">
-        <v>0.1752640372063397</v>
+        <v>0.4132102966172795</v>
       </c>
       <c r="E5">
-        <v>0.03881487405311823</v>
+        <v>0.1069844760972121</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.399865548460184</v>
+        <v>2.391931295829508</v>
       </c>
       <c r="H5">
-        <v>0.9183316517695204</v>
+        <v>1.958122009684232</v>
       </c>
       <c r="I5">
-        <v>0.8653102103931261</v>
+        <v>1.803221950636612</v>
       </c>
       <c r="J5">
-        <v>0.0410262194185087</v>
+        <v>0.03259535869621288</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2681558702868898</v>
+        <v>0.5249555434970432</v>
       </c>
       <c r="M5">
-        <v>0.4404781530187236</v>
+        <v>0.5395391201019351</v>
       </c>
       <c r="N5">
-        <v>1.186030693913585</v>
+        <v>2.323285783888581</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.198479462882062</v>
+        <v>2.077798347169789</v>
       </c>
       <c r="C6">
-        <v>0.4082425890262016</v>
+        <v>0.1478201135474535</v>
       </c>
       <c r="D6">
-        <v>0.1749582012943662</v>
+        <v>0.4132391592120328</v>
       </c>
       <c r="E6">
-        <v>0.03884030039876007</v>
+        <v>0.1070039622488577</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.396244872022322</v>
+        <v>2.391799265613713</v>
       </c>
       <c r="H6">
-        <v>0.9170729845277208</v>
+        <v>1.958380818668346</v>
       </c>
       <c r="I6">
-        <v>0.8645437239525933</v>
+        <v>1.803573895913395</v>
       </c>
       <c r="J6">
-        <v>0.04082307805283847</v>
+        <v>0.03252590615667472</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2672210732600178</v>
+        <v>0.5248586551620917</v>
       </c>
       <c r="M6">
-        <v>0.4378978739821093</v>
+        <v>0.539002543383134</v>
       </c>
       <c r="N6">
-        <v>1.188724551210562</v>
+        <v>2.324380705833709</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.299627656865312</v>
+        <v>2.101334069292022</v>
       </c>
       <c r="C7">
-        <v>0.4294766939399608</v>
+        <v>0.153694119803589</v>
       </c>
       <c r="D7">
-        <v>0.1771019368730364</v>
+        <v>0.4130525868783579</v>
       </c>
       <c r="E7">
-        <v>0.03866558161074618</v>
+        <v>0.1068701328350738</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.421638481037405</v>
+        <v>2.392836134853539</v>
       </c>
       <c r="H7">
-        <v>0.9259564641055107</v>
+        <v>1.956663607149096</v>
       </c>
       <c r="I7">
-        <v>0.8700124534036675</v>
+        <v>1.801207160105648</v>
       </c>
       <c r="J7">
-        <v>0.0422336230646998</v>
+        <v>0.03300679174305898</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2737426765446571</v>
+        <v>0.5255512992192735</v>
       </c>
       <c r="M7">
-        <v>0.4558536003380098</v>
+        <v>0.5427512944279016</v>
       </c>
       <c r="N7">
-        <v>1.170156921900229</v>
+        <v>2.31684607160615</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.751444095743182</v>
+        <v>2.207591235621294</v>
       </c>
       <c r="C8">
-        <v>0.5240735893609099</v>
+        <v>0.1797248442674686</v>
       </c>
       <c r="D8">
-        <v>0.1871020948663045</v>
+        <v>0.4125696096437252</v>
       </c>
       <c r="E8">
-        <v>0.03793861340928029</v>
+        <v>0.1063147930114305</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.540584560491624</v>
+        <v>2.400395896860829</v>
       </c>
       <c r="H8">
-        <v>0.9689795860385573</v>
+        <v>1.951046634365355</v>
       </c>
       <c r="I8">
-        <v>0.8980009332444183</v>
+        <v>1.792648989129702</v>
       </c>
       <c r="J8">
-        <v>0.04847875841011984</v>
+        <v>0.03509950894076752</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3033903867769823</v>
+        <v>0.5291055984686182</v>
       </c>
       <c r="M8">
-        <v>0.5363227250150615</v>
+        <v>0.5598949643562108</v>
       </c>
       <c r="N8">
-        <v>1.091529676008729</v>
+        <v>2.285214426840167</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.66268282855691</v>
+        <v>2.424569415025928</v>
       </c>
       <c r="C9">
-        <v>0.7141106226821137</v>
+        <v>0.2311782611702426</v>
       </c>
       <c r="D9">
-        <v>0.2088980686592237</v>
+        <v>0.4128431664678089</v>
       </c>
       <c r="E9">
-        <v>0.03667429603072003</v>
+        <v>0.1053517764760423</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.802841995064057</v>
+        <v>2.425990220001097</v>
       </c>
       <c r="H9">
-        <v>1.069045400393833</v>
+        <v>1.947088092633777</v>
       </c>
       <c r="I9">
-        <v>0.9686623608411509</v>
+        <v>1.782659015553165</v>
       </c>
       <c r="J9">
-        <v>0.06088271332322748</v>
+        <v>0.03909945014675031</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3651873648866371</v>
+        <v>0.5378621266166306</v>
       </c>
       <c r="M9">
-        <v>0.6996378212512511</v>
+        <v>0.5956713056003338</v>
       </c>
       <c r="N9">
-        <v>0.9500038816700922</v>
+        <v>2.229002715509409</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.353472449624007</v>
+        <v>2.589244437818763</v>
       </c>
       <c r="C10">
-        <v>0.8578973215248311</v>
+        <v>0.2692454732429326</v>
       </c>
       <c r="D10">
-        <v>0.2265008865859244</v>
+        <v>0.413786771703144</v>
       </c>
       <c r="E10">
-        <v>0.03584695836033358</v>
+        <v>0.1047205135377571</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.017681870646442</v>
+        <v>2.451408396584668</v>
       </c>
       <c r="H10">
-        <v>1.154202485614007</v>
+        <v>1.948493677716272</v>
       </c>
       <c r="I10">
-        <v>1.032212460350479</v>
+        <v>1.779476985921669</v>
       </c>
       <c r="J10">
-        <v>0.07018034844042376</v>
+        <v>0.04197661094352867</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4133851210081474</v>
+        <v>0.5453842042976902</v>
       </c>
       <c r="M10">
-        <v>0.8241348933393269</v>
+        <v>0.6232733762687346</v>
       </c>
       <c r="N10">
-        <v>0.8545497993178017</v>
+        <v>2.19125426450821</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.67383464774116</v>
+        <v>2.6653061770985</v>
       </c>
       <c r="C11">
-        <v>0.9245665437921957</v>
+        <v>0.2866243781544426</v>
       </c>
       <c r="D11">
-        <v>0.2349177153047606</v>
+        <v>0.4143770243399558</v>
       </c>
       <c r="E11">
-        <v>0.03549347543484904</v>
+        <v>0.1044497795810866</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.121347478125642</v>
+        <v>2.464418947045374</v>
       </c>
       <c r="H11">
-        <v>1.195986724275286</v>
+        <v>1.950072754216308</v>
       </c>
       <c r="I11">
-        <v>1.064152660831354</v>
+        <v>1.778936000888777</v>
       </c>
       <c r="J11">
-        <v>0.07447242375823038</v>
+        <v>0.04327251588355097</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4360595639532363</v>
+        <v>0.5490426096769454</v>
       </c>
       <c r="M11">
-        <v>0.8820372763534365</v>
+        <v>0.636116966818733</v>
       </c>
       <c r="N11">
-        <v>0.813178115214285</v>
+        <v>2.174853240036789</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.796164408246341</v>
+        <v>2.694274131169664</v>
       </c>
       <c r="C12">
-        <v>0.9500265181312102</v>
+        <v>0.2932144442733602</v>
       </c>
       <c r="D12">
-        <v>0.2381697031376149</v>
+        <v>0.4146236590536461</v>
       </c>
       <c r="E12">
-        <v>0.03536299338066629</v>
+        <v>0.1043496136357951</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.161560739984964</v>
+        <v>2.469554678019563</v>
       </c>
       <c r="H12">
-        <v>1.212295690435496</v>
+        <v>1.950806036183764</v>
       </c>
       <c r="I12">
-        <v>1.076730510463122</v>
+        <v>1.778861792571661</v>
       </c>
       <c r="J12">
-        <v>0.07610880048934376</v>
+        <v>0.04376140780046001</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4447666025557595</v>
+        <v>0.5504619482714048</v>
       </c>
       <c r="M12">
-        <v>0.9041723027734037</v>
+        <v>0.6410217925208954</v>
       </c>
       <c r="N12">
-        <v>0.7978258632918056</v>
+        <v>2.168753587976674</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.769771021334464</v>
+        <v>2.688028030339467</v>
       </c>
       <c r="C13">
-        <v>0.9445331904581735</v>
+        <v>0.2917947506919347</v>
       </c>
       <c r="D13">
-        <v>0.2374663510390747</v>
+        <v>0.4145695141543086</v>
       </c>
       <c r="E13">
-        <v>0.03539094348945104</v>
+        <v>0.1043710815394125</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.15285573859498</v>
+        <v>2.468439302876476</v>
       </c>
       <c r="H13">
-        <v>1.208760816287423</v>
+        <v>1.950642089202205</v>
       </c>
       <c r="I13">
-        <v>1.073999371802273</v>
+        <v>1.778871959212807</v>
       </c>
       <c r="J13">
-        <v>0.07575585007134578</v>
+        <v>0.04365619765381012</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.4428857949761209</v>
+        <v>0.5501547576519954</v>
       </c>
       <c r="M13">
-        <v>0.8993953998251456</v>
+        <v>0.6399636176526613</v>
       </c>
       <c r="N13">
-        <v>0.8011179352022531</v>
+        <v>2.170062314504143</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.683877608405794</v>
+        <v>2.667686082904197</v>
       </c>
       <c r="C14">
-        <v>0.9266566668172231</v>
+        <v>0.2871663646031095</v>
       </c>
       <c r="D14">
-        <v>0.2351839254737058</v>
+        <v>0.4143968519764769</v>
       </c>
       <c r="E14">
-        <v>0.0354826724488424</v>
+        <v>0.1044414917114511</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.124636024637567</v>
+        <v>2.464837275418489</v>
       </c>
       <c r="H14">
-        <v>1.197318434298296</v>
+        <v>1.95013036860496</v>
       </c>
       <c r="I14">
-        <v>1.065177485466634</v>
+        <v>1.778927275594313</v>
       </c>
       <c r="J14">
-        <v>0.0746068150901209</v>
+        <v>0.04331277405921696</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4367733984221189</v>
+        <v>0.5491586987287462</v>
       </c>
       <c r="M14">
-        <v>0.88385399590085</v>
+        <v>0.636519663739783</v>
       </c>
       <c r="N14">
-        <v>0.8119086584647484</v>
+        <v>2.174349191015395</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.631401942443802</v>
+        <v>2.655247532751559</v>
       </c>
       <c r="C15">
-        <v>0.9157356510097259</v>
+        <v>0.2843325276759003</v>
       </c>
       <c r="D15">
-        <v>0.233794486600587</v>
+        <v>0.414294101198891</v>
       </c>
       <c r="E15">
-        <v>0.03553930121012616</v>
+        <v>0.1044849264579506</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.107478589011407</v>
+        <v>2.462658159031264</v>
       </c>
       <c r="H15">
-        <v>1.190374479044635</v>
+        <v>1.949834553553217</v>
       </c>
       <c r="I15">
-        <v>1.059838177390233</v>
+        <v>1.778978181847151</v>
       </c>
       <c r="J15">
-        <v>0.0739045038445667</v>
+        <v>0.04310217827838159</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4330455098317003</v>
+        <v>0.548553007925392</v>
       </c>
       <c r="M15">
-        <v>0.8743624383587587</v>
+        <v>0.6344155106670044</v>
       </c>
       <c r="N15">
-        <v>0.8185598313198064</v>
+        <v>2.176989495993674</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.332670424252967</v>
+        <v>2.584296737337354</v>
       </c>
       <c r="C16">
-        <v>0.853568390725286</v>
+        <v>0.2681109796641863</v>
       </c>
       <c r="D16">
-        <v>0.2259595500799207</v>
+        <v>0.4137514342316564</v>
       </c>
       <c r="E16">
-        <v>0.03587052663041979</v>
+        <v>0.104738536616158</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.011035129997992</v>
+        <v>2.450587320964843</v>
       </c>
       <c r="H16">
-        <v>1.151537081361596</v>
+        <v>1.948409406577269</v>
       </c>
       <c r="I16">
-        <v>1.030189984473054</v>
+        <v>1.779530607249036</v>
       </c>
       <c r="J16">
-        <v>0.06990128117328709</v>
+        <v>0.04189166204525208</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4119194466162099</v>
+        <v>0.5451498759906173</v>
       </c>
       <c r="M16">
-        <v>0.8203785388948859</v>
+        <v>0.6224397917707236</v>
       </c>
       <c r="N16">
-        <v>0.8572964161449477</v>
+        <v>2.192341640209289</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.151067558263662</v>
+        <v>2.541065052755926</v>
       </c>
       <c r="C17">
-        <v>0.8157755868847687</v>
+        <v>0.2581755519796616</v>
       </c>
       <c r="D17">
-        <v>0.2212618754491302</v>
+        <v>0.4134597382843026</v>
       </c>
       <c r="E17">
-        <v>0.03607963890854649</v>
+        <v>0.1048983211122398</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.953460635082223</v>
+        <v>2.443553566347504</v>
       </c>
       <c r="H17">
-        <v>1.128524419780888</v>
+        <v>1.947775934929922</v>
       </c>
       <c r="I17">
-        <v>1.012809950910494</v>
+        <v>1.780101894238896</v>
       </c>
       <c r="J17">
-        <v>0.06746285078496328</v>
+        <v>0.04114575218746097</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3991599735561948</v>
+        <v>0.5431227286947262</v>
       </c>
       <c r="M17">
-        <v>0.7876038043813836</v>
+        <v>0.6151666003935716</v>
       </c>
       <c r="N17">
-        <v>0.8815984953145986</v>
+        <v>2.201957279086294</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.047181371034128</v>
+        <v>2.516307619511224</v>
       </c>
       <c r="C18">
-        <v>0.7941546040033245</v>
+        <v>0.2524667779208301</v>
       </c>
       <c r="D18">
-        <v>0.2185980298638128</v>
+        <v>0.4133071186716677</v>
       </c>
       <c r="E18">
-        <v>0.03620206240264467</v>
+        <v>0.1049917719150399</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.920896985125182</v>
+        <v>2.439644155711704</v>
       </c>
       <c r="H18">
-        <v>1.11557166387874</v>
+        <v>1.947500012775578</v>
       </c>
       <c r="I18">
-        <v>1.003095614992439</v>
+        <v>1.780515793121999</v>
       </c>
       <c r="J18">
-        <v>0.06606607940666365</v>
+        <v>0.04071550632802357</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3918907104044109</v>
+        <v>0.5419790369413136</v>
       </c>
       <c r="M18">
-        <v>0.7688702676793611</v>
+        <v>0.6110102964470769</v>
       </c>
       <c r="N18">
-        <v>0.8957681683596839</v>
+        <v>2.207560491977929</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.012100766455717</v>
+        <v>2.507943788442503</v>
       </c>
       <c r="C19">
-        <v>0.7868531728267101</v>
+        <v>0.2505348805256347</v>
       </c>
       <c r="D19">
-        <v>0.2177024774442486</v>
+        <v>0.4132580484022839</v>
       </c>
       <c r="E19">
-        <v>0.03624387935050688</v>
+        <v>0.105023678679943</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.909963249847891</v>
+        <v>2.438343869743704</v>
       </c>
       <c r="H19">
-        <v>1.111233391573023</v>
+        <v>1.947421772982921</v>
       </c>
       <c r="I19">
-        <v>0.9998536246860041</v>
+        <v>1.780670575368596</v>
       </c>
       <c r="J19">
-        <v>0.0655940847392813</v>
+        <v>0.04056962262744435</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3894410504448587</v>
+        <v>0.5415956286398398</v>
       </c>
       <c r="M19">
-        <v>0.7625468588125628</v>
+        <v>0.6096076903250562</v>
       </c>
       <c r="N19">
-        <v>0.900598153118441</v>
+        <v>2.209470098397368</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.170339875539753</v>
+        <v>2.545655934774913</v>
       </c>
       <c r="C20">
-        <v>0.8197864195601312</v>
+        <v>0.2592325917000267</v>
       </c>
       <c r="D20">
-        <v>0.2217579636982379</v>
+        <v>0.4134892214514139</v>
       </c>
       <c r="E20">
-        <v>0.03605715569850476</v>
+        <v>0.1048811517279908</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.959531723035155</v>
+        <v>2.44428821808205</v>
       </c>
       <c r="H20">
-        <v>1.130944480949665</v>
+        <v>1.947834215111897</v>
       </c>
       <c r="I20">
-        <v>1.014630554155765</v>
+        <v>1.780032248459555</v>
       </c>
       <c r="J20">
-        <v>0.06772181658097054</v>
+        <v>0.04122528150122662</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4005109429983946</v>
+        <v>0.5433362174422172</v>
       </c>
       <c r="M20">
-        <v>0.7910803754068567</v>
+        <v>0.6159380456850272</v>
       </c>
       <c r="N20">
-        <v>0.8789915170974787</v>
+        <v>2.200926167682486</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.709077870229976</v>
+        <v>2.673656530201129</v>
       </c>
       <c r="C21">
-        <v>0.9319013550247064</v>
+        <v>0.2885255869517493</v>
       </c>
       <c r="D21">
-        <v>0.2358525229684147</v>
+        <v>0.4144469398631117</v>
       </c>
       <c r="E21">
-        <v>0.03545563712478383</v>
+        <v>0.1044207466797515</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.132897971417378</v>
+        <v>2.465889602270295</v>
       </c>
       <c r="H21">
-        <v>1.200665734427446</v>
+        <v>1.950276999206238</v>
       </c>
       <c r="I21">
-        <v>1.067755185459774</v>
+        <v>1.778907479647373</v>
       </c>
       <c r="J21">
-        <v>0.0749439966690062</v>
+        <v>0.04341369564725994</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4385653706212622</v>
+        <v>0.549450343479208</v>
       </c>
       <c r="M21">
-        <v>0.8884129965824883</v>
+        <v>0.6375301178956505</v>
       </c>
       <c r="N21">
-        <v>0.8087304662828352</v>
+        <v>2.173087015704922</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.067167509210606</v>
+        <v>2.758274040879257</v>
       </c>
       <c r="C22">
-        <v>1.006438911385857</v>
+        <v>0.3077230840256391</v>
       </c>
       <c r="D22">
-        <v>0.2454445303158508</v>
+        <v>0.4152076038776897</v>
       </c>
       <c r="E22">
-        <v>0.03508222524448001</v>
+        <v>0.1041335693860641</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.251839646862834</v>
+        <v>2.481225439806991</v>
       </c>
       <c r="H22">
-        <v>1.249092695572784</v>
+        <v>1.952662343591442</v>
       </c>
       <c r="I22">
-        <v>1.105314799253804</v>
+        <v>1.778934051383303</v>
       </c>
       <c r="J22">
-        <v>0.07972971642843873</v>
+        <v>0.04483324019292922</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.4641468503823063</v>
+        <v>0.5536443220547369</v>
       </c>
       <c r="M22">
-        <v>0.9532559721555387</v>
+        <v>0.6518821130011716</v>
       </c>
       <c r="N22">
-        <v>0.7646533902247477</v>
+        <v>2.155539960303617</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.87545121604353</v>
+        <v>2.713024206679506</v>
       </c>
       <c r="C23">
-        <v>0.9665294113626999</v>
+        <v>0.2974721357818169</v>
       </c>
       <c r="D23">
-        <v>0.2402881870640385</v>
+        <v>0.4147893051643763</v>
       </c>
       <c r="E23">
-        <v>0.03527968733768549</v>
+        <v>0.1042855880521527</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.187805078644601</v>
+        <v>2.472928712484787</v>
       </c>
       <c r="H23">
-        <v>1.222967297688285</v>
+        <v>1.951316994653723</v>
       </c>
       <c r="I23">
-        <v>1.08499184702039</v>
+        <v>1.77885007852592</v>
       </c>
       <c r="J23">
-        <v>0.07716873803895652</v>
+        <v>0.04407657589121072</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.4504238347226703</v>
+        <v>0.5513878082478811</v>
       </c>
       <c r="M23">
-        <v>0.918526021134582</v>
+        <v>0.6442002162068334</v>
       </c>
       <c r="N23">
-        <v>0.7880025900498175</v>
+        <v>2.164845845457535</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.161625252165379</v>
+        <v>2.543580094722699</v>
       </c>
       <c r="C24">
-        <v>0.8179727924804183</v>
+        <v>0.258754693977977</v>
       </c>
       <c r="D24">
-        <v>0.2215335676702637</v>
+        <v>0.4134758451368157</v>
       </c>
       <c r="E24">
-        <v>0.03606731350506687</v>
+        <v>0.1048889090579763</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.956785320216142</v>
+        <v>2.44395566348183</v>
       </c>
       <c r="H24">
-        <v>1.129849510430574</v>
+        <v>1.947807591701775</v>
       </c>
       <c r="I24">
-        <v>1.013806598013581</v>
+        <v>1.78006346914087</v>
       </c>
       <c r="J24">
-        <v>0.06760472236670623</v>
+        <v>0.04118933069990049</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3998999640830192</v>
+        <v>0.5432396314534031</v>
       </c>
       <c r="M24">
-        <v>0.7895082797938855</v>
+        <v>0.6155891969224427</v>
       </c>
       <c r="N24">
-        <v>0.8801695164032779</v>
+        <v>2.201392099370917</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.412889558479151</v>
+        <v>2.364948177076542</v>
       </c>
       <c r="C25">
-        <v>0.6620786274122281</v>
+        <v>0.2172134933536825</v>
       </c>
       <c r="D25">
-        <v>0.2027425607002868</v>
+        <v>0.4126386422769741</v>
       </c>
       <c r="E25">
-        <v>0.03699875152974608</v>
+        <v>0.1055988655386138</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.728352359541191</v>
+        <v>2.417908327252974</v>
       </c>
       <c r="H25">
-        <v>1.040092565489829</v>
+        <v>1.947402314590875</v>
       </c>
       <c r="I25">
-        <v>0.9476606913750345</v>
+        <v>1.78463267205143</v>
       </c>
       <c r="J25">
-        <v>0.05750165906717442</v>
+        <v>0.03802830199035157</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3480228139479067</v>
+        <v>0.5353020461624567</v>
       </c>
       <c r="M25">
-        <v>0.6547543010729697</v>
+        <v>0.585761687934145</v>
       </c>
       <c r="N25">
-        <v>0.9868563756496371</v>
+        <v>2.243586285244579</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_3/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_3/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.236963703934521</v>
+        <v>2.875370012306917</v>
       </c>
       <c r="C2">
-        <v>0.1868048338275798</v>
+        <v>0.5499639125709734</v>
       </c>
       <c r="D2">
-        <v>0.4125214146171032</v>
+        <v>0.1899508069047329</v>
       </c>
       <c r="E2">
-        <v>0.1061728715418604</v>
+        <v>0.03775244783566833</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.403171259473737</v>
+        <v>1.574623981090298</v>
       </c>
       <c r="H2">
-        <v>1.950001808201165</v>
+        <v>0.981628874156911</v>
       </c>
       <c r="I2">
-        <v>1.790789228615473</v>
+        <v>0.9065835779010598</v>
       </c>
       <c r="J2">
-        <v>0.03565943707513242</v>
+        <v>0.050178528834806</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.5301895619529802</v>
+        <v>0.3116517756291159</v>
       </c>
       <c r="M2">
-        <v>0.56468599846405</v>
+        <v>0.5584601409396939</v>
       </c>
       <c r="N2">
-        <v>2.277037435095849</v>
+        <v>1.071055306140707</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.152429527502534</v>
+        <v>2.517719006145569</v>
       </c>
       <c r="C3">
-        <v>0.1663017038063686</v>
+        <v>0.4751841417571825</v>
       </c>
       <c r="D3">
-        <v>0.412753840363365</v>
+        <v>0.1818481305645321</v>
       </c>
       <c r="E3">
-        <v>0.1065940505272485</v>
+        <v>0.03830452361843317</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.395937815654861</v>
+        <v>1.477987931715035</v>
       </c>
       <c r="H3">
-        <v>1.953567051358476</v>
+        <v>0.9460811086733543</v>
       </c>
       <c r="I3">
-        <v>1.796697837749022</v>
+        <v>0.8828372518447196</v>
       </c>
       <c r="J3">
-        <v>0.03402759037572167</v>
+        <v>0.04525847913961556</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.5271813717441916</v>
+        <v>0.2879549054050727</v>
       </c>
       <c r="M3">
-        <v>0.5509545458252774</v>
+        <v>0.4946456659744882</v>
       </c>
       <c r="N3">
-        <v>2.301193869387239</v>
+        <v>1.131375748715659</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.10161077907145</v>
+        <v>2.300813965061252</v>
       </c>
       <c r="C4">
-        <v>0.1537629123999409</v>
+        <v>0.4297255916158065</v>
       </c>
       <c r="D4">
-        <v>0.4130505900932988</v>
+        <v>0.1771273061904282</v>
       </c>
       <c r="E4">
-        <v>0.1068685861689156</v>
+        <v>0.03866356115269953</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.392849898295253</v>
+        <v>1.421939202332112</v>
       </c>
       <c r="H4">
-        <v>1.956644586090903</v>
+        <v>0.9260624178342596</v>
       </c>
       <c r="I4">
-        <v>1.801180497525813</v>
+        <v>0.8700784707811238</v>
       </c>
       <c r="J4">
-        <v>0.03301240256537241</v>
+        <v>0.04225013589137205</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.5255596765048551</v>
+        <v>0.2738194396357727</v>
       </c>
       <c r="M4">
-        <v>0.5427954884793991</v>
+        <v>0.4560643325816756</v>
       </c>
       <c r="N4">
-        <v>2.316758791818961</v>
+        <v>1.169941434596756</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.081175142173322</v>
+        <v>2.213023034953267</v>
       </c>
       <c r="C5">
-        <v>0.1486657439627095</v>
+        <v>0.4112972840459292</v>
       </c>
       <c r="D5">
-        <v>0.4132102966172795</v>
+        <v>0.1752640372062046</v>
       </c>
       <c r="E5">
-        <v>0.1069844760972121</v>
+        <v>0.03881487405311379</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.391931295829508</v>
+        <v>1.399865548460227</v>
       </c>
       <c r="H5">
-        <v>1.958122009684232</v>
+        <v>0.9183316517695204</v>
       </c>
       <c r="I5">
-        <v>1.803221950636612</v>
+        <v>0.865310210393119</v>
       </c>
       <c r="J5">
-        <v>0.03259535869621288</v>
+        <v>0.04102621941844475</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.5249555434970432</v>
+        <v>0.2681558702868614</v>
       </c>
       <c r="M5">
-        <v>0.5395391201019351</v>
+        <v>0.4404781530187236</v>
       </c>
       <c r="N5">
-        <v>2.323285783888581</v>
+        <v>1.186030693913567</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.077798347169789</v>
+        <v>2.19847946288229</v>
       </c>
       <c r="C6">
-        <v>0.1478201135474535</v>
+        <v>0.4082425890262016</v>
       </c>
       <c r="D6">
-        <v>0.4132391592120328</v>
+        <v>0.1749582012944018</v>
       </c>
       <c r="E6">
-        <v>0.1070039622488577</v>
+        <v>0.03884030039876363</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.391799265613713</v>
+        <v>1.39624487202228</v>
       </c>
       <c r="H6">
-        <v>1.958380818668346</v>
+        <v>0.9170729845277208</v>
       </c>
       <c r="I6">
-        <v>1.803573895913395</v>
+        <v>0.864543723952572</v>
       </c>
       <c r="J6">
-        <v>0.03252590615667472</v>
+        <v>0.04082307805279939</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.5248586551620917</v>
+        <v>0.2672210732600746</v>
       </c>
       <c r="M6">
-        <v>0.539002543383134</v>
+        <v>0.4378978739821164</v>
       </c>
       <c r="N6">
-        <v>2.324380705833709</v>
+        <v>1.188724551210569</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.101334069292022</v>
+        <v>2.299627656865084</v>
       </c>
       <c r="C7">
-        <v>0.153694119803589</v>
+        <v>0.4294766939398187</v>
       </c>
       <c r="D7">
-        <v>0.4130525868783579</v>
+        <v>0.1771019368729725</v>
       </c>
       <c r="E7">
-        <v>0.1068701328350738</v>
+        <v>0.03866558161074218</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.392836134853539</v>
+        <v>1.421638481037377</v>
       </c>
       <c r="H7">
-        <v>1.956663607149096</v>
+        <v>0.9259564641055391</v>
       </c>
       <c r="I7">
-        <v>1.801207160105648</v>
+        <v>0.8700124534036817</v>
       </c>
       <c r="J7">
-        <v>0.03300679174305898</v>
+        <v>0.04223362306466072</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.5255512992192735</v>
+        <v>0.2737426765446855</v>
       </c>
       <c r="M7">
-        <v>0.5427512944279016</v>
+        <v>0.4558536003380169</v>
       </c>
       <c r="N7">
-        <v>2.31684607160615</v>
+        <v>1.170156921900173</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.207591235621294</v>
+        <v>2.751444095743125</v>
       </c>
       <c r="C8">
-        <v>0.1797248442674686</v>
+        <v>0.5240735893609383</v>
       </c>
       <c r="D8">
-        <v>0.4125696096437252</v>
+        <v>0.1871020948661908</v>
       </c>
       <c r="E8">
-        <v>0.1063147930114305</v>
+        <v>0.03793861340927807</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.400395896860829</v>
+        <v>1.540584560491595</v>
       </c>
       <c r="H8">
-        <v>1.951046634365355</v>
+        <v>0.9689795860384436</v>
       </c>
       <c r="I8">
-        <v>1.792648989129702</v>
+        <v>0.8980009332444183</v>
       </c>
       <c r="J8">
-        <v>0.03509950894076752</v>
+        <v>0.04847875841009142</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.5291055984686182</v>
+        <v>0.3033903867769823</v>
       </c>
       <c r="M8">
-        <v>0.5598949643562108</v>
+        <v>0.5363227250150899</v>
       </c>
       <c r="N8">
-        <v>2.285214426840167</v>
+        <v>1.091529676008712</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.424569415025928</v>
+        <v>3.662682828556854</v>
       </c>
       <c r="C9">
-        <v>0.2311782611702426</v>
+        <v>0.7141106226821137</v>
       </c>
       <c r="D9">
-        <v>0.4128431664678089</v>
+        <v>0.2088980686593231</v>
       </c>
       <c r="E9">
-        <v>0.1053517764760423</v>
+        <v>0.03667429603070493</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.425990220001097</v>
+        <v>1.802841995064085</v>
       </c>
       <c r="H9">
-        <v>1.947088092633777</v>
+        <v>1.069045400393861</v>
       </c>
       <c r="I9">
-        <v>1.782659015553165</v>
+        <v>0.9686623608411438</v>
       </c>
       <c r="J9">
-        <v>0.03909945014675031</v>
+        <v>0.06088271332322748</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.5378621266166306</v>
+        <v>0.365187364886566</v>
       </c>
       <c r="M9">
-        <v>0.5956713056003338</v>
+        <v>0.6996378212512511</v>
       </c>
       <c r="N9">
-        <v>2.229002715509409</v>
+        <v>0.9500038816701561</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.589244437818763</v>
+        <v>4.353472449624178</v>
       </c>
       <c r="C10">
-        <v>0.2692454732429326</v>
+        <v>0.8578973215248027</v>
       </c>
       <c r="D10">
-        <v>0.413786771703144</v>
+        <v>0.2265008865860523</v>
       </c>
       <c r="E10">
-        <v>0.1047205135377571</v>
+        <v>0.03584695836035268</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.451408396584668</v>
+        <v>2.01768187064647</v>
       </c>
       <c r="H10">
-        <v>1.948493677716272</v>
+        <v>1.154202485614036</v>
       </c>
       <c r="I10">
-        <v>1.779476985921669</v>
+        <v>1.032212460350486</v>
       </c>
       <c r="J10">
-        <v>0.04197661094352867</v>
+        <v>0.07018034844050192</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5453842042976902</v>
+        <v>0.4133851210081474</v>
       </c>
       <c r="M10">
-        <v>0.6232733762687346</v>
+        <v>0.824134893339334</v>
       </c>
       <c r="N10">
-        <v>2.19125426450821</v>
+        <v>0.8545497993178479</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.6653061770985</v>
+        <v>4.67383464774116</v>
       </c>
       <c r="C11">
-        <v>0.2866243781544426</v>
+        <v>0.9245665437923378</v>
       </c>
       <c r="D11">
-        <v>0.4143770243399558</v>
+        <v>0.2349177153048458</v>
       </c>
       <c r="E11">
-        <v>0.1044497795810866</v>
+        <v>0.0354934754348073</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.464418947045374</v>
+        <v>2.121347478125671</v>
       </c>
       <c r="H11">
-        <v>1.950072754216308</v>
+        <v>1.195986724275258</v>
       </c>
       <c r="I11">
-        <v>1.778936000888777</v>
+        <v>1.064152660831354</v>
       </c>
       <c r="J11">
-        <v>0.04327251588355097</v>
+        <v>0.07447242375828012</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.5490426096769454</v>
+        <v>0.4360595639531937</v>
       </c>
       <c r="M11">
-        <v>0.636116966818733</v>
+        <v>0.8820372763534579</v>
       </c>
       <c r="N11">
-        <v>2.174853240036789</v>
+        <v>0.8131781152142743</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.694274131169664</v>
+        <v>4.796164408246227</v>
       </c>
       <c r="C12">
-        <v>0.2932144442733602</v>
+        <v>0.9500265181312386</v>
       </c>
       <c r="D12">
-        <v>0.4146236590536461</v>
+        <v>0.2381697031376149</v>
       </c>
       <c r="E12">
-        <v>0.1043496136357951</v>
+        <v>0.0353629933806805</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.469554678019563</v>
+        <v>2.161560739984878</v>
       </c>
       <c r="H12">
-        <v>1.950806036183764</v>
+        <v>1.212295690435411</v>
       </c>
       <c r="I12">
-        <v>1.778861792571661</v>
+        <v>1.076730510463122</v>
       </c>
       <c r="J12">
-        <v>0.04376140780046001</v>
+        <v>0.07610880048934376</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5504619482714048</v>
+        <v>0.4447666025556885</v>
       </c>
       <c r="M12">
-        <v>0.6410217925208954</v>
+        <v>0.9041723027734037</v>
       </c>
       <c r="N12">
-        <v>2.168753587976674</v>
+        <v>0.7978258632918021</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.688028030339467</v>
+        <v>4.769771021334464</v>
       </c>
       <c r="C13">
-        <v>0.2917947506919347</v>
+        <v>0.9445331904584577</v>
       </c>
       <c r="D13">
-        <v>0.4145695141543086</v>
+        <v>0.2374663510390604</v>
       </c>
       <c r="E13">
-        <v>0.1043710815394125</v>
+        <v>0.03539094348944927</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.468439302876476</v>
+        <v>2.152855738594951</v>
       </c>
       <c r="H13">
-        <v>1.950642089202205</v>
+        <v>1.208760816287423</v>
       </c>
       <c r="I13">
-        <v>1.778871959212807</v>
+        <v>1.073999371802273</v>
       </c>
       <c r="J13">
-        <v>0.04365619765381012</v>
+        <v>0.07575585007133867</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5501547576519954</v>
+        <v>0.4428857949761209</v>
       </c>
       <c r="M13">
-        <v>0.6399636176526613</v>
+        <v>0.8993953998251314</v>
       </c>
       <c r="N13">
-        <v>2.170062314504143</v>
+        <v>0.8011179352022495</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.667686082904197</v>
+        <v>4.683877608405737</v>
       </c>
       <c r="C14">
-        <v>0.2871663646031095</v>
+        <v>0.9266566668173084</v>
       </c>
       <c r="D14">
-        <v>0.4143968519764769</v>
+        <v>0.2351839254738053</v>
       </c>
       <c r="E14">
-        <v>0.1044414917114511</v>
+        <v>0.03548267244884284</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.464837275418489</v>
+        <v>2.124636024637624</v>
       </c>
       <c r="H14">
-        <v>1.95013036860496</v>
+        <v>1.197318434298325</v>
       </c>
       <c r="I14">
-        <v>1.778927275594313</v>
+        <v>1.065177485466634</v>
       </c>
       <c r="J14">
-        <v>0.04331277405921696</v>
+        <v>0.0746068150901209</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5491586987287462</v>
+        <v>0.4367733984220905</v>
       </c>
       <c r="M14">
-        <v>0.636519663739783</v>
+        <v>0.88385399590085</v>
       </c>
       <c r="N14">
-        <v>2.174349191015395</v>
+        <v>0.8119086584647057</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.655247532751559</v>
+        <v>4.631401942443631</v>
       </c>
       <c r="C15">
-        <v>0.2843325276759003</v>
+        <v>0.9157356510097827</v>
       </c>
       <c r="D15">
-        <v>0.414294101198891</v>
+        <v>0.2337944866005728</v>
       </c>
       <c r="E15">
-        <v>0.1044849264579506</v>
+        <v>0.03553930121012483</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.462658159031264</v>
+        <v>2.107478589011606</v>
       </c>
       <c r="H15">
-        <v>1.949834553553217</v>
+        <v>1.190374479044777</v>
       </c>
       <c r="I15">
-        <v>1.778978181847151</v>
+        <v>1.059838177390233</v>
       </c>
       <c r="J15">
-        <v>0.04310217827838159</v>
+        <v>0.07390450384450276</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.548553007925392</v>
+        <v>0.4330455098317998</v>
       </c>
       <c r="M15">
-        <v>0.6344155106670044</v>
+        <v>0.8743624383587587</v>
       </c>
       <c r="N15">
-        <v>2.176989495993674</v>
+        <v>0.818559831319817</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.584296737337354</v>
+        <v>4.332670424253024</v>
       </c>
       <c r="C16">
-        <v>0.2681109796641863</v>
+        <v>0.8535683907252576</v>
       </c>
       <c r="D16">
-        <v>0.4137514342316564</v>
+        <v>0.2259595500799065</v>
       </c>
       <c r="E16">
-        <v>0.104738536616158</v>
+        <v>0.03587052663038648</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.450587320964843</v>
+        <v>2.01103512999785</v>
       </c>
       <c r="H16">
-        <v>1.948409406577269</v>
+        <v>1.151537081361482</v>
       </c>
       <c r="I16">
-        <v>1.779530607249036</v>
+        <v>1.03018998447304</v>
       </c>
       <c r="J16">
-        <v>0.04189166204525208</v>
+        <v>0.06990128117314498</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.5451498759906173</v>
+        <v>0.4119194466161815</v>
       </c>
       <c r="M16">
-        <v>0.6224397917707236</v>
+        <v>0.8203785388948717</v>
       </c>
       <c r="N16">
-        <v>2.192341640209289</v>
+        <v>0.8572964161449335</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.541065052755926</v>
+        <v>4.151067558263492</v>
       </c>
       <c r="C17">
-        <v>0.2581755519796616</v>
+        <v>0.8157755868842571</v>
       </c>
       <c r="D17">
-        <v>0.4134597382843026</v>
+        <v>0.2212618754490308</v>
       </c>
       <c r="E17">
-        <v>0.1048983211122398</v>
+        <v>0.03607963890854604</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.443553566347504</v>
+        <v>1.953460635082138</v>
       </c>
       <c r="H17">
-        <v>1.947775934929922</v>
+        <v>1.128524419781002</v>
       </c>
       <c r="I17">
-        <v>1.780101894238896</v>
+        <v>1.012809950910501</v>
       </c>
       <c r="J17">
-        <v>0.04114575218746097</v>
+        <v>0.06746285078495973</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5431227286947262</v>
+        <v>0.3991599735561522</v>
       </c>
       <c r="M17">
-        <v>0.6151666003935716</v>
+        <v>0.7876038043813836</v>
       </c>
       <c r="N17">
-        <v>2.201957279086294</v>
+        <v>0.8815984953146483</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.516307619511224</v>
+        <v>4.047181371034128</v>
       </c>
       <c r="C18">
-        <v>0.2524667779208301</v>
+        <v>0.7941546040033245</v>
       </c>
       <c r="D18">
-        <v>0.4133071186716677</v>
+        <v>0.2185980298635002</v>
       </c>
       <c r="E18">
-        <v>0.1049917719150399</v>
+        <v>0.03620206240266688</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.439644155711704</v>
+        <v>1.920896985125182</v>
       </c>
       <c r="H18">
-        <v>1.947500012775578</v>
+        <v>1.11557166387874</v>
       </c>
       <c r="I18">
-        <v>1.780515793121999</v>
+        <v>1.003095614992418</v>
       </c>
       <c r="J18">
-        <v>0.04071550632802357</v>
+        <v>0.06606607940664233</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.5419790369413136</v>
+        <v>0.3918907104043825</v>
       </c>
       <c r="M18">
-        <v>0.6110102964470769</v>
+        <v>0.7688702676793824</v>
       </c>
       <c r="N18">
-        <v>2.207560491977929</v>
+        <v>0.8957681683596661</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.507943788442503</v>
+        <v>4.012100766455717</v>
       </c>
       <c r="C19">
-        <v>0.2505348805256347</v>
+        <v>0.7868531728269943</v>
       </c>
       <c r="D19">
-        <v>0.4132580484022839</v>
+        <v>0.2177024774442486</v>
       </c>
       <c r="E19">
-        <v>0.105023678679943</v>
+        <v>0.0362438793505051</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.438343869743704</v>
+        <v>1.909963249847834</v>
       </c>
       <c r="H19">
-        <v>1.947421772982921</v>
+        <v>1.111233391573023</v>
       </c>
       <c r="I19">
-        <v>1.780670575368596</v>
+        <v>0.9998536246860112</v>
       </c>
       <c r="J19">
-        <v>0.04056962262744435</v>
+        <v>0.06559408473933814</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5415956286398398</v>
+        <v>0.3894410504448444</v>
       </c>
       <c r="M19">
-        <v>0.6096076903250562</v>
+        <v>0.7625468588125344</v>
       </c>
       <c r="N19">
-        <v>2.209470098397368</v>
+        <v>0.9005981531185014</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.545655934774913</v>
+        <v>4.170339875539696</v>
       </c>
       <c r="C20">
-        <v>0.2592325917000267</v>
+        <v>0.8197864195603302</v>
       </c>
       <c r="D20">
-        <v>0.4134892214514139</v>
+        <v>0.2217579636982379</v>
       </c>
       <c r="E20">
-        <v>0.1048811517279908</v>
+        <v>0.03605715569848345</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.44428821808205</v>
+        <v>1.959531723035155</v>
       </c>
       <c r="H20">
-        <v>1.947834215111897</v>
+        <v>1.130944480949665</v>
       </c>
       <c r="I20">
-        <v>1.780032248459555</v>
+        <v>1.014630554155779</v>
       </c>
       <c r="J20">
-        <v>0.04122528150122662</v>
+        <v>0.06772181658100251</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5433362174422172</v>
+        <v>0.4005109429983378</v>
       </c>
       <c r="M20">
-        <v>0.6159380456850272</v>
+        <v>0.7910803754068425</v>
       </c>
       <c r="N20">
-        <v>2.200926167682486</v>
+        <v>0.8789915170974609</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.673656530201129</v>
+        <v>4.709077870229976</v>
       </c>
       <c r="C21">
-        <v>0.2885255869517493</v>
+        <v>0.9319013550247064</v>
       </c>
       <c r="D21">
-        <v>0.4144469398631117</v>
+        <v>0.2358525229684147</v>
       </c>
       <c r="E21">
-        <v>0.1044207466797515</v>
+        <v>0.03545563712478295</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.465889602270295</v>
+        <v>2.132897971417322</v>
       </c>
       <c r="H21">
-        <v>1.950276999206238</v>
+        <v>1.200665734427446</v>
       </c>
       <c r="I21">
-        <v>1.778907479647373</v>
+        <v>1.067755185459774</v>
       </c>
       <c r="J21">
-        <v>0.04341369564725994</v>
+        <v>0.07494399666906304</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.549450343479208</v>
+        <v>0.4385653706212622</v>
       </c>
       <c r="M21">
-        <v>0.6375301178956505</v>
+        <v>0.8884129965825025</v>
       </c>
       <c r="N21">
-        <v>2.173087015704922</v>
+        <v>0.808730466282892</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.758274040879257</v>
+        <v>5.067167509210435</v>
       </c>
       <c r="C22">
-        <v>0.3077230840256391</v>
+        <v>1.006438911386169</v>
       </c>
       <c r="D22">
-        <v>0.4152076038776897</v>
+        <v>0.2454445303157087</v>
       </c>
       <c r="E22">
-        <v>0.1041335693860641</v>
+        <v>0.03508222524447557</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.481225439806991</v>
+        <v>2.251839646863033</v>
       </c>
       <c r="H22">
-        <v>1.952662343591442</v>
+        <v>1.249092695572671</v>
       </c>
       <c r="I22">
-        <v>1.778934051383303</v>
+        <v>1.10531479925379</v>
       </c>
       <c r="J22">
-        <v>0.04483324019292922</v>
+        <v>0.07972971642841031</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5536443220547369</v>
+        <v>0.4641468503823205</v>
       </c>
       <c r="M22">
-        <v>0.6518821130011716</v>
+        <v>0.9532559721555387</v>
       </c>
       <c r="N22">
-        <v>2.155539960303617</v>
+        <v>0.7646533902247903</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.713024206679506</v>
+        <v>4.875451216043643</v>
       </c>
       <c r="C23">
-        <v>0.2974721357818169</v>
+        <v>0.9665294113627567</v>
       </c>
       <c r="D23">
-        <v>0.4147893051643763</v>
+        <v>0.240288187064138</v>
       </c>
       <c r="E23">
-        <v>0.1042855880521527</v>
+        <v>0.03527968733769349</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.472928712484787</v>
+        <v>2.187805078644658</v>
       </c>
       <c r="H23">
-        <v>1.951316994653723</v>
+        <v>1.2229672976882</v>
       </c>
       <c r="I23">
-        <v>1.77885007852592</v>
+        <v>1.084991847020376</v>
       </c>
       <c r="J23">
-        <v>0.04407657589121072</v>
+        <v>0.07716873803892099</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5513878082478811</v>
+        <v>0.4504238347226988</v>
       </c>
       <c r="M23">
-        <v>0.6442002162068334</v>
+        <v>0.9185260211345962</v>
       </c>
       <c r="N23">
-        <v>2.164845845457535</v>
+        <v>0.7880025900498424</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.543580094722699</v>
+        <v>4.161625252165265</v>
       </c>
       <c r="C24">
-        <v>0.258754693977977</v>
+        <v>0.8179727924804752</v>
       </c>
       <c r="D24">
-        <v>0.4134758451368157</v>
+        <v>0.2215335676703631</v>
       </c>
       <c r="E24">
-        <v>0.1048889090579763</v>
+        <v>0.03606731350508063</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.44395566348183</v>
+        <v>1.956785320216142</v>
       </c>
       <c r="H24">
-        <v>1.947807591701775</v>
+        <v>1.129849510430546</v>
       </c>
       <c r="I24">
-        <v>1.78006346914087</v>
+        <v>1.013806598013602</v>
       </c>
       <c r="J24">
-        <v>0.04118933069990049</v>
+        <v>0.0676047223668057</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5432396314534031</v>
+        <v>0.399899964083005</v>
       </c>
       <c r="M24">
-        <v>0.6155891969224427</v>
+        <v>0.7895082797938997</v>
       </c>
       <c r="N24">
-        <v>2.201392099370917</v>
+        <v>0.8801695164032743</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.364948177076542</v>
+        <v>3.412889558479037</v>
       </c>
       <c r="C25">
-        <v>0.2172134933536825</v>
+        <v>0.6620786274120576</v>
       </c>
       <c r="D25">
-        <v>0.4126386422769741</v>
+        <v>0.2027425607001732</v>
       </c>
       <c r="E25">
-        <v>0.1055988655386138</v>
+        <v>0.03699875152975451</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.417908327252974</v>
+        <v>1.728352359541191</v>
       </c>
       <c r="H25">
-        <v>1.947402314590875</v>
+        <v>1.040092565489687</v>
       </c>
       <c r="I25">
-        <v>1.78463267205143</v>
+        <v>0.9476606913750416</v>
       </c>
       <c r="J25">
-        <v>0.03802830199035157</v>
+        <v>0.05750165906718152</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.5353020461624567</v>
+        <v>0.3480228139479209</v>
       </c>
       <c r="M25">
-        <v>0.585761687934145</v>
+        <v>0.6547543010729626</v>
       </c>
       <c r="N25">
-        <v>2.243586285244579</v>
+        <v>0.9868563756496584</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_3/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_3/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.875370012306917</v>
+        <v>1.158174178179877</v>
       </c>
       <c r="C2">
-        <v>0.5499639125709734</v>
+        <v>0.1151335809423273</v>
       </c>
       <c r="D2">
-        <v>0.1899508069047329</v>
+        <v>0.2283853069872492</v>
       </c>
       <c r="E2">
-        <v>0.03775244783566833</v>
+        <v>0.03939343453078337</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.574623981090298</v>
+        <v>1.336143683730086</v>
       </c>
       <c r="H2">
-        <v>0.981628874156911</v>
+        <v>0.03510936281270371</v>
       </c>
       <c r="I2">
-        <v>0.9065835779010598</v>
+        <v>0.03321396387042386</v>
       </c>
       <c r="J2">
-        <v>0.050178528834806</v>
+        <v>0.9075389071103643</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.9563917737529479</v>
       </c>
       <c r="L2">
-        <v>0.3116517756291159</v>
+        <v>0.01372976538122472</v>
       </c>
       <c r="M2">
-        <v>0.5584601409396939</v>
+        <v>1.112971849188398</v>
       </c>
       <c r="N2">
-        <v>1.071055306140707</v>
+        <v>0.2224768236218253</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.270513541852484</v>
+      </c>
+      <c r="P2">
+        <v>1.684615923781017</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.517719006145569</v>
+        <v>1.017267309094564</v>
       </c>
       <c r="C3">
-        <v>0.4751841417571825</v>
+        <v>0.09938629766651275</v>
       </c>
       <c r="D3">
-        <v>0.1818481305645321</v>
+        <v>0.2109868760746707</v>
       </c>
       <c r="E3">
-        <v>0.03830452361843317</v>
+        <v>0.03669658198991321</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.477987931715035</v>
+        <v>1.277747645519213</v>
       </c>
       <c r="H3">
-        <v>0.9460811086733543</v>
+        <v>0.04113195879026454</v>
       </c>
       <c r="I3">
-        <v>0.8828372518447196</v>
+        <v>0.03899009634205219</v>
       </c>
       <c r="J3">
-        <v>0.04525847913961556</v>
+        <v>0.8845153910837524</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.9289775315187683</v>
       </c>
       <c r="L3">
-        <v>0.2879549054050727</v>
+        <v>0.01164942191961238</v>
       </c>
       <c r="M3">
-        <v>0.4946456659744882</v>
+        <v>0.97346690623786</v>
       </c>
       <c r="N3">
-        <v>1.131375748715659</v>
+        <v>0.2016110244792557</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.2397604037063026</v>
+      </c>
+      <c r="P3">
+        <v>1.70689311223618</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.300813965061252</v>
+        <v>0.9306212640452713</v>
       </c>
       <c r="C4">
-        <v>0.4297255916158065</v>
+        <v>0.08990998107451276</v>
       </c>
       <c r="D4">
-        <v>0.1771273061904282</v>
+        <v>0.2003833608487611</v>
       </c>
       <c r="E4">
-        <v>0.03866356115269953</v>
+        <v>0.03502849810427655</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.421939202332112</v>
+        <v>1.242341572736606</v>
       </c>
       <c r="H4">
-        <v>0.9260624178342596</v>
+        <v>0.04521035537550833</v>
       </c>
       <c r="I4">
-        <v>0.8700784707811238</v>
+        <v>0.04294000868875347</v>
       </c>
       <c r="J4">
-        <v>0.04225013589137205</v>
+        <v>0.8706831206328332</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.9122974568813476</v>
       </c>
       <c r="L4">
-        <v>0.2738194396357727</v>
+        <v>0.01041393615161645</v>
       </c>
       <c r="M4">
-        <v>0.4560643325816756</v>
+        <v>0.8880227693865095</v>
       </c>
       <c r="N4">
-        <v>1.169941434596756</v>
+        <v>0.1888674270492601</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.2208945775735778</v>
+      </c>
+      <c r="P4">
+        <v>1.720879980342723</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.213023034953267</v>
+        <v>0.8944216009512616</v>
       </c>
       <c r="C5">
-        <v>0.4112972840459292</v>
+        <v>0.08629918315330087</v>
       </c>
       <c r="D5">
-        <v>0.1752640372062046</v>
+        <v>0.196044238317441</v>
       </c>
       <c r="E5">
-        <v>0.03881487405311379</v>
+        <v>0.03433035069183532</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.399865548460227</v>
+        <v>1.226884929353474</v>
       </c>
       <c r="H5">
-        <v>0.9183316517695204</v>
+        <v>0.04697764287983697</v>
       </c>
       <c r="I5">
-        <v>0.865310210393119</v>
+        <v>0.0447573418823124</v>
       </c>
       <c r="J5">
-        <v>0.04102621941844475</v>
+        <v>0.8645429290221784</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.904708238201124</v>
       </c>
       <c r="L5">
-        <v>0.2681558702868614</v>
+        <v>0.009923283954618611</v>
       </c>
       <c r="M5">
-        <v>0.4404781530187236</v>
+        <v>0.8529587477514156</v>
       </c>
       <c r="N5">
-        <v>1.186030693913567</v>
+        <v>0.1837762809258763</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.2131202616312358</v>
+      </c>
+      <c r="P5">
+        <v>1.725778895136195</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.19847946288229</v>
+        <v>0.8873656287198344</v>
       </c>
       <c r="C6">
-        <v>0.4082425890262016</v>
+        <v>0.08595585205358702</v>
       </c>
       <c r="D6">
-        <v>0.1749582012944018</v>
+        <v>0.1952801214624884</v>
       </c>
       <c r="E6">
-        <v>0.03884030039876363</v>
+        <v>0.03419592198333454</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.39624487202228</v>
+        <v>1.222939180660561</v>
       </c>
       <c r="H6">
-        <v>0.9170729845277208</v>
+        <v>0.04729188015915398</v>
       </c>
       <c r="I6">
-        <v>0.864543723952572</v>
+        <v>0.04520569668781693</v>
       </c>
       <c r="J6">
-        <v>0.04082307805279939</v>
+        <v>0.862823043210895</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.9024391145213713</v>
       </c>
       <c r="L6">
-        <v>0.2672210732600746</v>
+        <v>0.009846743925372436</v>
       </c>
       <c r="M6">
-        <v>0.4378978739821164</v>
+        <v>0.8467866004801294</v>
       </c>
       <c r="N6">
-        <v>1.188724551210569</v>
+        <v>0.1830382455307245</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.211720895198706</v>
+      </c>
+      <c r="P6">
+        <v>1.725527984752006</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.299627656865084</v>
+        <v>0.9272758769627956</v>
       </c>
       <c r="C7">
-        <v>0.4294766939398187</v>
+        <v>0.09055490482911921</v>
       </c>
       <c r="D7">
-        <v>0.1771019368729725</v>
+        <v>0.200202777248748</v>
       </c>
       <c r="E7">
-        <v>0.03866558161074218</v>
+        <v>0.03496917988610626</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.421638481037377</v>
+        <v>1.238349680608138</v>
       </c>
       <c r="H7">
-        <v>0.9259564641055391</v>
+        <v>0.04527386022200219</v>
       </c>
       <c r="I7">
-        <v>0.8700124534036817</v>
+        <v>0.04332915961752715</v>
       </c>
       <c r="J7">
-        <v>0.04223362306466072</v>
+        <v>0.8686775800748308</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.9094349604597269</v>
       </c>
       <c r="L7">
-        <v>0.2737426765446855</v>
+        <v>0.01041919295535187</v>
       </c>
       <c r="M7">
-        <v>0.4558536003380169</v>
+        <v>0.8865838474654595</v>
       </c>
       <c r="N7">
-        <v>1.170156921900173</v>
+        <v>0.1890903713227701</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.2204923860305001</v>
+      </c>
+      <c r="P7">
+        <v>1.718043854158566</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.751444095743125</v>
+        <v>1.105790450643354</v>
       </c>
       <c r="C8">
-        <v>0.5240735893609383</v>
+        <v>0.1105853116782782</v>
       </c>
       <c r="D8">
-        <v>0.1871020948661908</v>
+        <v>0.2222075757521083</v>
       </c>
       <c r="E8">
-        <v>0.03793861340927807</v>
+        <v>0.03839987665791433</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.540584560491595</v>
+        <v>1.310910753299112</v>
       </c>
       <c r="H8">
-        <v>0.9689795860384436</v>
+        <v>0.03715102687617589</v>
       </c>
       <c r="I8">
-        <v>0.8980009332444183</v>
+        <v>0.03555600578227214</v>
       </c>
       <c r="J8">
-        <v>0.04847875841009142</v>
+        <v>0.8970014681740821</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.9432633069385261</v>
       </c>
       <c r="L8">
-        <v>0.3033903867769823</v>
+        <v>0.01301813451138045</v>
       </c>
       <c r="M8">
-        <v>0.5363227250150899</v>
+        <v>1.06352286034496</v>
       </c>
       <c r="N8">
-        <v>1.091529676008712</v>
+        <v>0.2156567222885073</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.2595078099277721</v>
+      </c>
+      <c r="P8">
+        <v>1.688473764725316</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.662682828556854</v>
+        <v>1.460346022887308</v>
       </c>
       <c r="C9">
-        <v>0.7141106226821137</v>
+        <v>0.150350021747073</v>
       </c>
       <c r="D9">
-        <v>0.2088980686593231</v>
+        <v>0.2662788091254242</v>
       </c>
       <c r="E9">
-        <v>0.03667429603070493</v>
+        <v>0.04513756696168869</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.802841995064085</v>
+        <v>1.463934534128128</v>
       </c>
       <c r="H9">
-        <v>1.069045400393861</v>
+        <v>0.02431779891539221</v>
       </c>
       <c r="I9">
-        <v>0.9686623608411438</v>
+        <v>0.02310075821378721</v>
       </c>
       <c r="J9">
-        <v>0.06088271332322748</v>
+        <v>0.9585581879281904</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.015884831017281</v>
       </c>
       <c r="L9">
-        <v>0.365187364886566</v>
+        <v>0.01848775319576745</v>
       </c>
       <c r="M9">
-        <v>0.6996378212512511</v>
+        <v>1.414473361289822</v>
       </c>
       <c r="N9">
-        <v>0.9500038816701561</v>
+        <v>0.2678636524661471</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.3367817385315917</v>
+      </c>
+      <c r="P9">
+        <v>1.638102197280958</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.353472449624178</v>
+        <v>1.709724480893186</v>
       </c>
       <c r="C10">
-        <v>0.8578973215248027</v>
+        <v>0.1816767969901036</v>
       </c>
       <c r="D10">
-        <v>0.2265008865860523</v>
+        <v>0.295000276581689</v>
       </c>
       <c r="E10">
-        <v>0.03584695836035268</v>
+        <v>0.04853790126020208</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.01768187064647</v>
+        <v>1.558646890739453</v>
       </c>
       <c r="H10">
-        <v>1.154202485614036</v>
+        <v>0.01752851104484998</v>
       </c>
       <c r="I10">
-        <v>1.032212460350486</v>
+        <v>0.01650539586185129</v>
       </c>
       <c r="J10">
-        <v>0.07018034844050192</v>
+        <v>0.995232463961969</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.056961650849807</v>
       </c>
       <c r="L10">
-        <v>0.4133851210081474</v>
+        <v>0.02366219118708912</v>
       </c>
       <c r="M10">
-        <v>0.824134893339334</v>
+        <v>1.666967927851857</v>
       </c>
       <c r="N10">
-        <v>0.8545497993178479</v>
+        <v>0.2979089195981288</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.3880563177979965</v>
+      </c>
+      <c r="P10">
+        <v>1.588920351660207</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.67383464774116</v>
+        <v>1.733210869694204</v>
       </c>
       <c r="C11">
-        <v>0.9245665437923378</v>
+        <v>0.2010067606756394</v>
       </c>
       <c r="D11">
-        <v>0.2349177153048458</v>
+        <v>0.2727136383131494</v>
       </c>
       <c r="E11">
-        <v>0.0354934754348073</v>
+        <v>0.03877013933487028</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.121347478125671</v>
+        <v>1.435969476944365</v>
       </c>
       <c r="H11">
-        <v>1.195986724275258</v>
+        <v>0.0356777368731116</v>
       </c>
       <c r="I11">
-        <v>1.064152660831354</v>
+        <v>0.01565711305610762</v>
       </c>
       <c r="J11">
-        <v>0.07447242375828012</v>
+        <v>0.9288177127971551</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.9703821291870298</v>
       </c>
       <c r="L11">
-        <v>0.4360595639531937</v>
+        <v>0.03661558857399783</v>
       </c>
       <c r="M11">
-        <v>0.8820372763534579</v>
+        <v>1.719241532279881</v>
       </c>
       <c r="N11">
-        <v>0.8131781152142743</v>
+        <v>0.2388042141538875</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.3627563084370067</v>
+      </c>
+      <c r="P11">
+        <v>1.462864939721435</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.796164408246227</v>
+        <v>1.703818947314602</v>
       </c>
       <c r="C12">
-        <v>0.9500265181312386</v>
+        <v>0.2096094312427113</v>
       </c>
       <c r="D12">
-        <v>0.2381697031376149</v>
+        <v>0.2487367185507452</v>
       </c>
       <c r="E12">
-        <v>0.0353629933806805</v>
+        <v>0.03230514400968332</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.161560739984878</v>
+        <v>1.321623374884638</v>
       </c>
       <c r="H12">
-        <v>1.212295690435411</v>
+        <v>0.07475519162155564</v>
       </c>
       <c r="I12">
-        <v>1.076730510463122</v>
+        <v>0.01556390547198117</v>
       </c>
       <c r="J12">
-        <v>0.07610880048934376</v>
+        <v>0.8694155629006133</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.8958468877465293</v>
       </c>
       <c r="L12">
-        <v>0.4447666025556885</v>
+        <v>0.05094672089767016</v>
       </c>
       <c r="M12">
-        <v>0.9041723027734037</v>
+        <v>1.710277697841804</v>
       </c>
       <c r="N12">
-        <v>0.7978258632918021</v>
+        <v>0.188533355400601</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.3318070368514512</v>
+      </c>
+      <c r="P12">
+        <v>1.381401814805457</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.769771021334464</v>
+        <v>1.627646899499382</v>
       </c>
       <c r="C13">
-        <v>0.9445331904584577</v>
+        <v>0.2114213718313778</v>
       </c>
       <c r="D13">
-        <v>0.2374663510390604</v>
+        <v>0.2220005805333187</v>
       </c>
       <c r="E13">
-        <v>0.03539094348944927</v>
+        <v>0.02792512492864319</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.152855738594951</v>
+        <v>1.201238413067387</v>
       </c>
       <c r="H13">
-        <v>1.208760816287423</v>
+        <v>0.1316770995744463</v>
       </c>
       <c r="I13">
-        <v>1.073999371802273</v>
+        <v>0.0165071459527848</v>
       </c>
       <c r="J13">
-        <v>0.07575585007133867</v>
+        <v>0.808959096595828</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.8220010550573988</v>
       </c>
       <c r="L13">
-        <v>0.4428857949761209</v>
+        <v>0.06695183887975276</v>
       </c>
       <c r="M13">
-        <v>0.8993953998251314</v>
+        <v>1.652050972053701</v>
       </c>
       <c r="N13">
-        <v>0.8011179352022495</v>
+        <v>0.1428790517020033</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.2944740245921693</v>
+      </c>
+      <c r="P13">
+        <v>1.324388205220362</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.683877608405737</v>
+        <v>1.552710671547914</v>
       </c>
       <c r="C14">
-        <v>0.9266566668173084</v>
+        <v>0.2098544822751762</v>
       </c>
       <c r="D14">
-        <v>0.2351839254738053</v>
+        <v>0.202290981834949</v>
       </c>
       <c r="E14">
-        <v>0.03548267244884284</v>
+        <v>0.02613338466337156</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.124636024637624</v>
+        <v>1.114454304330735</v>
       </c>
       <c r="H14">
-        <v>1.197318434298325</v>
+        <v>0.1821902475694515</v>
       </c>
       <c r="I14">
-        <v>1.065177485466634</v>
+        <v>0.01777367327971291</v>
       </c>
       <c r="J14">
-        <v>0.0746068150901209</v>
+        <v>0.7662102046062103</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.7707428316390477</v>
       </c>
       <c r="L14">
-        <v>0.4367733984220905</v>
+        <v>0.0793865330891137</v>
       </c>
       <c r="M14">
-        <v>0.88385399590085</v>
+        <v>1.58897042164233</v>
       </c>
       <c r="N14">
-        <v>0.8119086584647057</v>
+        <v>0.114220536314626</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.265759072163938</v>
+      </c>
+      <c r="P14">
+        <v>1.296340795887069</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.631401942443631</v>
+        <v>1.523679829155611</v>
       </c>
       <c r="C15">
-        <v>0.9157356510097827</v>
+        <v>0.2083184519754724</v>
       </c>
       <c r="D15">
-        <v>0.2337944866005728</v>
+        <v>0.196818157725076</v>
       </c>
       <c r="E15">
-        <v>0.03553930121012483</v>
+        <v>0.02582416779125873</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.107478589011606</v>
+        <v>1.090593503499548</v>
       </c>
       <c r="H15">
-        <v>1.190374479044777</v>
+        <v>0.1952500921263862</v>
       </c>
       <c r="I15">
-        <v>1.059838177390233</v>
+        <v>0.01848133509877581</v>
       </c>
       <c r="J15">
-        <v>0.07390450384450276</v>
+        <v>0.7548657321638217</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.7573056573401828</v>
       </c>
       <c r="L15">
-        <v>0.4330455098317998</v>
+        <v>0.08216699071537192</v>
       </c>
       <c r="M15">
-        <v>0.8743624383587587</v>
+        <v>1.562988681907683</v>
       </c>
       <c r="N15">
-        <v>0.818559831319817</v>
+        <v>0.1075150139675145</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.2572817737649054</v>
+      </c>
+      <c r="P15">
+        <v>1.292824971113436</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.332670424253024</v>
+        <v>1.431910696294977</v>
       </c>
       <c r="C16">
-        <v>0.8535683907252576</v>
+        <v>0.1945933729379732</v>
       </c>
       <c r="D16">
-        <v>0.2259595500799065</v>
+        <v>0.190437801423684</v>
       </c>
       <c r="E16">
-        <v>0.03587052663038648</v>
+        <v>0.02534671984947279</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.01103512999785</v>
+        <v>1.073610497512618</v>
       </c>
       <c r="H16">
-        <v>1.151537081361482</v>
+        <v>0.1853425553570531</v>
       </c>
       <c r="I16">
-        <v>1.03018998447304</v>
+        <v>0.02123466994702738</v>
       </c>
       <c r="J16">
-        <v>0.06990128117314498</v>
+        <v>0.7507659630809371</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.7539339951415442</v>
       </c>
       <c r="L16">
-        <v>0.4119194466161815</v>
+        <v>0.07614267739558045</v>
       </c>
       <c r="M16">
-        <v>0.8203785388948717</v>
+        <v>1.466499156994047</v>
       </c>
       <c r="N16">
-        <v>0.8572964161449335</v>
+        <v>0.1052959724434146</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.2437004617232326</v>
+      </c>
+      <c r="P16">
+        <v>1.322469995676656</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.151067558263492</v>
+        <v>1.401073095920168</v>
       </c>
       <c r="C17">
-        <v>0.8157755868842571</v>
+        <v>0.184995210806207</v>
       </c>
       <c r="D17">
-        <v>0.2212618754490308</v>
+        <v>0.195840270863215</v>
       </c>
       <c r="E17">
-        <v>0.03607963890854604</v>
+        <v>0.0256942902092554</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.953460635082138</v>
+        <v>1.106035279174151</v>
       </c>
       <c r="H17">
-        <v>1.128524419781002</v>
+        <v>0.149149940468547</v>
       </c>
       <c r="I17">
-        <v>1.012809950910501</v>
+        <v>0.02272578918113144</v>
       </c>
       <c r="J17">
-        <v>0.06746285078495973</v>
+        <v>0.7700765751734764</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.778087449099111</v>
       </c>
       <c r="L17">
-        <v>0.3991599735561522</v>
+        <v>0.06462893225187827</v>
       </c>
       <c r="M17">
-        <v>0.7876038043813836</v>
+        <v>1.426012567506149</v>
       </c>
       <c r="N17">
-        <v>0.8815984953146483</v>
+        <v>0.1180376115538522</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.2482657128607642</v>
+      </c>
+      <c r="P17">
+        <v>1.359498701650683</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.047181371034128</v>
+        <v>1.421127795977924</v>
       </c>
       <c r="C18">
-        <v>0.7941546040033245</v>
+        <v>0.1771644437386897</v>
       </c>
       <c r="D18">
-        <v>0.2185980298635002</v>
+        <v>0.2125519234121072</v>
       </c>
       <c r="E18">
-        <v>0.03620206240266688</v>
+        <v>0.02800304325509684</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.920896985125182</v>
+        <v>1.189398541523602</v>
       </c>
       <c r="H18">
-        <v>1.11557166387874</v>
+        <v>0.09662066900169464</v>
       </c>
       <c r="I18">
-        <v>1.003095614992418</v>
+        <v>0.02277576487464028</v>
       </c>
       <c r="J18">
-        <v>0.06606607940664233</v>
+        <v>0.8140111603291587</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.8322853921306788</v>
       </c>
       <c r="L18">
-        <v>0.3918907104043825</v>
+        <v>0.04909695781896062</v>
       </c>
       <c r="M18">
-        <v>0.7688702676793824</v>
+        <v>1.429323997102983</v>
       </c>
       <c r="N18">
-        <v>0.8957681683596661</v>
+        <v>0.1483124361559973</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.2697274335595381</v>
+      </c>
+      <c r="P18">
+        <v>1.413721062777039</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.012100766455717</v>
+        <v>1.475427609257451</v>
       </c>
       <c r="C19">
-        <v>0.7868531728269943</v>
+        <v>0.172778182589326</v>
       </c>
       <c r="D19">
-        <v>0.2177024774442486</v>
+        <v>0.2378446285049449</v>
       </c>
       <c r="E19">
-        <v>0.0362438793505051</v>
+        <v>0.03347937064181838</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.909963249847834</v>
+        <v>1.305666106474561</v>
       </c>
       <c r="H19">
-        <v>1.111233391573023</v>
+        <v>0.05022945499477061</v>
       </c>
       <c r="I19">
-        <v>0.9998536246860112</v>
+        <v>0.02225173027522054</v>
       </c>
       <c r="J19">
-        <v>0.06559408473933814</v>
+        <v>0.8733356793215563</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.9055490984691019</v>
       </c>
       <c r="L19">
-        <v>0.3894410504448444</v>
+        <v>0.03456962762476934</v>
       </c>
       <c r="M19">
-        <v>0.7625468588125344</v>
+        <v>1.465546315798321</v>
       </c>
       <c r="N19">
-        <v>0.9005981531185014</v>
+        <v>0.1961292738816169</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.3038070527419023</v>
+      </c>
+      <c r="P19">
+        <v>1.482563059855615</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.170339875539696</v>
+        <v>1.634639761277555</v>
       </c>
       <c r="C20">
-        <v>0.8197864195603302</v>
+        <v>0.1755867667906301</v>
       </c>
       <c r="D20">
-        <v>0.2217579636982379</v>
+        <v>0.2868713684944595</v>
       </c>
       <c r="E20">
-        <v>0.03605715569848345</v>
+        <v>0.04742900070406897</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.959531723035155</v>
+        <v>1.521084452581647</v>
       </c>
       <c r="H20">
-        <v>1.130944480949665</v>
+        <v>0.01923818250710552</v>
       </c>
       <c r="I20">
-        <v>1.014630554155779</v>
+        <v>0.01909255841227964</v>
       </c>
       <c r="J20">
-        <v>0.06772181658100251</v>
+        <v>0.9791833757691109</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.037122613504309</v>
       </c>
       <c r="L20">
-        <v>0.4005109429983378</v>
+        <v>0.02234085215109616</v>
       </c>
       <c r="M20">
-        <v>0.7910803754068425</v>
+        <v>1.597061476521731</v>
       </c>
       <c r="N20">
-        <v>0.8789915170974609</v>
+        <v>0.290539628402982</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.3733902631599904</v>
+      </c>
+      <c r="P20">
+        <v>1.592826177949135</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.709077870229976</v>
+        <v>1.84309619631108</v>
       </c>
       <c r="C21">
-        <v>0.9319013550247064</v>
+        <v>0.1990663541216264</v>
       </c>
       <c r="D21">
-        <v>0.2358525229684147</v>
+        <v>0.315580369038031</v>
       </c>
       <c r="E21">
-        <v>0.03545563712478295</v>
+        <v>0.05239523967598636</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.132897971417322</v>
+        <v>1.626604318655183</v>
       </c>
       <c r="H21">
-        <v>1.200665734427446</v>
+        <v>0.01395557446153467</v>
       </c>
       <c r="I21">
-        <v>1.067755185459774</v>
+        <v>0.01432234644105179</v>
       </c>
       <c r="J21">
-        <v>0.07494399666906304</v>
+        <v>1.023892294845467</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.089405226511353</v>
       </c>
       <c r="L21">
-        <v>0.4385653706212622</v>
+        <v>0.02516678375421755</v>
       </c>
       <c r="M21">
-        <v>0.8884129965825025</v>
+        <v>1.803151817025991</v>
       </c>
       <c r="N21">
-        <v>0.808730466282892</v>
+        <v>0.3275246620898429</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.4217470867759943</v>
+      </c>
+      <c r="P21">
+        <v>1.577060480154017</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.067167509210435</v>
+        <v>1.97844726842294</v>
       </c>
       <c r="C22">
-        <v>1.006438911386169</v>
+        <v>0.2140403553270431</v>
       </c>
       <c r="D22">
-        <v>0.2454445303157087</v>
+        <v>0.3325358408793164</v>
       </c>
       <c r="E22">
-        <v>0.03508222524447557</v>
+        <v>0.05494654845570857</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.251839646863033</v>
+        <v>1.69161074762971</v>
       </c>
       <c r="H22">
-        <v>1.249092695572671</v>
+        <v>0.01118358962740011</v>
       </c>
       <c r="I22">
-        <v>1.10531479925379</v>
+        <v>0.01137530740732373</v>
       </c>
       <c r="J22">
-        <v>0.07972971642841031</v>
+        <v>1.051182575250664</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.121296129561159</v>
       </c>
       <c r="L22">
-        <v>0.4641468503823205</v>
+        <v>0.02750804591719103</v>
       </c>
       <c r="M22">
-        <v>0.9532559721555387</v>
+        <v>1.936288488408195</v>
       </c>
       <c r="N22">
-        <v>0.7646533902247903</v>
+        <v>0.3468657233896977</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.4509965686129931</v>
+      </c>
+      <c r="P22">
+        <v>1.564174819675785</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.875451216043643</v>
+        <v>1.909694054835313</v>
       </c>
       <c r="C23">
-        <v>0.9665294113627567</v>
+        <v>0.2051711522938149</v>
       </c>
       <c r="D23">
-        <v>0.240288187064138</v>
+        <v>0.3236180438105976</v>
       </c>
       <c r="E23">
-        <v>0.03527968733769349</v>
+        <v>0.05364329782206312</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.187805078644658</v>
+        <v>1.661273491837846</v>
       </c>
       <c r="H23">
-        <v>1.2229672976882</v>
+        <v>0.01259923796259926</v>
       </c>
       <c r="I23">
-        <v>1.084991847020376</v>
+        <v>0.01253276212859156</v>
       </c>
       <c r="J23">
-        <v>0.07716873803892099</v>
+        <v>1.038806008905482</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.107461960975961</v>
       </c>
       <c r="L23">
-        <v>0.4504238347226988</v>
+        <v>0.02623829887786044</v>
       </c>
       <c r="M23">
-        <v>0.9185260211345962</v>
+        <v>1.866374598167369</v>
       </c>
       <c r="N23">
-        <v>0.7880025900498424</v>
+        <v>0.3361710327483962</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.4357410280564125</v>
+      </c>
+      <c r="P23">
+        <v>1.574145493754799</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.161625252165265</v>
+        <v>1.644259414256766</v>
       </c>
       <c r="C24">
-        <v>0.8179727924804752</v>
+        <v>0.1735966852426571</v>
       </c>
       <c r="D24">
-        <v>0.2215335676703631</v>
+        <v>0.2898927422702116</v>
       </c>
       <c r="E24">
-        <v>0.03606731350508063</v>
+        <v>0.04862655858815401</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.956785320216142</v>
+        <v>1.541083049746277</v>
       </c>
       <c r="H24">
-        <v>1.129849510430546</v>
+        <v>0.01889880052091464</v>
       </c>
       <c r="I24">
-        <v>1.013806598013602</v>
+        <v>0.01843611903759879</v>
       </c>
       <c r="J24">
-        <v>0.0676047223668057</v>
+        <v>0.9893611675101965</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.050667272922993</v>
       </c>
       <c r="L24">
-        <v>0.399899964083005</v>
+        <v>0.02162886564336652</v>
       </c>
       <c r="M24">
-        <v>0.7895082797938997</v>
+        <v>1.601054334302063</v>
       </c>
       <c r="N24">
-        <v>0.8801695164032743</v>
+        <v>0.2965171127278552</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.3775983417913196</v>
+      </c>
+      <c r="P24">
+        <v>1.607878290817453</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.412889558479037</v>
+        <v>1.359166737859056</v>
       </c>
       <c r="C25">
-        <v>0.6620786274120576</v>
+        <v>0.1406524196755754</v>
       </c>
       <c r="D25">
-        <v>0.2027425607001732</v>
+        <v>0.2540494545840488</v>
       </c>
       <c r="E25">
-        <v>0.03699875152975451</v>
+        <v>0.04323051812431622</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.728352359541191</v>
+        <v>1.415237613154275</v>
       </c>
       <c r="H25">
-        <v>1.040092565489687</v>
+        <v>0.02748245788380954</v>
       </c>
       <c r="I25">
-        <v>0.9476606913750416</v>
+        <v>0.02667375098827218</v>
       </c>
       <c r="J25">
-        <v>0.05750165906718152</v>
+        <v>0.9381593816162166</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.9911163456267502</v>
       </c>
       <c r="L25">
-        <v>0.3480228139479209</v>
+        <v>0.01697661028949149</v>
       </c>
       <c r="M25">
-        <v>0.6547543010729626</v>
+        <v>1.317410385052426</v>
       </c>
       <c r="N25">
-        <v>0.9868563756496584</v>
+        <v>0.2541968831069994</v>
       </c>
       <c r="O25">
+        <v>0.3152887894751757</v>
+      </c>
+      <c r="P25">
+        <v>1.646451404001404</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_3/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_3/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.158174178179877</v>
+        <v>1.043183985514531</v>
       </c>
       <c r="C2">
-        <v>0.1151335809423273</v>
+        <v>0.1375931503021519</v>
       </c>
       <c r="D2">
-        <v>0.2283853069872492</v>
+        <v>0.2255764565407503</v>
       </c>
       <c r="E2">
-        <v>0.03939343453078337</v>
+        <v>0.03855184146862989</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.336143683730086</v>
+        <v>1.155337443105992</v>
       </c>
       <c r="H2">
-        <v>0.03510936281270371</v>
+        <v>0.02911762767586579</v>
       </c>
       <c r="I2">
-        <v>0.03321396387042386</v>
+        <v>0.02482727874083368</v>
       </c>
       <c r="J2">
-        <v>0.9075389071103643</v>
+        <v>0.7912908098651741</v>
       </c>
       <c r="K2">
-        <v>0.9563917737529479</v>
+        <v>0.8029446348129667</v>
       </c>
       <c r="L2">
-        <v>0.01372976538122472</v>
+        <v>0.312478690755249</v>
       </c>
       <c r="M2">
-        <v>1.112971849188398</v>
+        <v>0.2888413736796025</v>
       </c>
       <c r="N2">
-        <v>0.2224768236218253</v>
+        <v>0.0149638106431027</v>
       </c>
       <c r="O2">
-        <v>0.270513541852484</v>
+        <v>1.079011308123796</v>
       </c>
       <c r="P2">
-        <v>1.684615923781017</v>
+        <v>0.245902197316056</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.2587482361753253</v>
+      </c>
+      <c r="R2">
+        <v>1.500918040484315</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.017267309094564</v>
+        <v>0.9173746128647906</v>
       </c>
       <c r="C3">
-        <v>0.09938629766651275</v>
+        <v>0.1178034033828226</v>
       </c>
       <c r="D3">
-        <v>0.2109868760746707</v>
+        <v>0.2089487730988679</v>
       </c>
       <c r="E3">
-        <v>0.03669658198991321</v>
+        <v>0.03620645803731293</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.277747645519213</v>
+        <v>1.117888694380682</v>
       </c>
       <c r="H3">
-        <v>0.04113195879026454</v>
+        <v>0.03412136594603066</v>
       </c>
       <c r="I3">
-        <v>0.03899009634205219</v>
+        <v>0.02916455320424216</v>
       </c>
       <c r="J3">
-        <v>0.8845153910837524</v>
+        <v>0.7695504398392501</v>
       </c>
       <c r="K3">
-        <v>0.9289775315187683</v>
+        <v>0.7866448007884017</v>
       </c>
       <c r="L3">
-        <v>0.01164942191961238</v>
+        <v>0.3117537752635862</v>
       </c>
       <c r="M3">
-        <v>0.97346690623786</v>
+        <v>0.2792661058470536</v>
       </c>
       <c r="N3">
-        <v>0.2016110244792557</v>
+        <v>0.01281691520767581</v>
       </c>
       <c r="O3">
-        <v>0.2397604037063026</v>
+        <v>0.9440703199222469</v>
       </c>
       <c r="P3">
-        <v>1.70689311223618</v>
+        <v>0.2236315103236848</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.2295276285880696</v>
+      </c>
+      <c r="R3">
+        <v>1.531024277351754</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9306212640452713</v>
+        <v>0.8397362960104715</v>
       </c>
       <c r="C4">
-        <v>0.08990998107451276</v>
+        <v>0.105918868998728</v>
       </c>
       <c r="D4">
-        <v>0.2003833608487611</v>
+        <v>0.198814813269081</v>
       </c>
       <c r="E4">
-        <v>0.03502849810427655</v>
+        <v>0.034752102569934</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.242341572736606</v>
+        <v>1.095339247035824</v>
       </c>
       <c r="H4">
-        <v>0.04521035537550833</v>
+        <v>0.03751292267807127</v>
       </c>
       <c r="I4">
-        <v>0.04294000868875347</v>
+        <v>0.03214969153681668</v>
       </c>
       <c r="J4">
-        <v>0.8706831206328332</v>
+        <v>0.7561432463607076</v>
       </c>
       <c r="K4">
-        <v>0.9122974568813476</v>
+        <v>0.7766469039076114</v>
       </c>
       <c r="L4">
-        <v>0.01041393615161645</v>
+        <v>0.3111119078162936</v>
       </c>
       <c r="M4">
-        <v>0.8880227693865095</v>
+        <v>0.2741203045816931</v>
       </c>
       <c r="N4">
-        <v>0.1888674270492601</v>
+        <v>0.01153353100650101</v>
       </c>
       <c r="O4">
-        <v>0.2208945775735778</v>
+        <v>0.8612567137039093</v>
       </c>
       <c r="P4">
-        <v>1.720879980342723</v>
+        <v>0.2100522232436717</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.2115708645225709</v>
+      </c>
+      <c r="R4">
+        <v>1.549820006998239</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8944216009512616</v>
+        <v>0.8072093069495452</v>
       </c>
       <c r="C5">
-        <v>0.08629918315330087</v>
+        <v>0.1013630656357094</v>
       </c>
       <c r="D5">
-        <v>0.196044238317441</v>
+        <v>0.1946682781951665</v>
       </c>
       <c r="E5">
-        <v>0.03433035069183532</v>
+        <v>0.03414178213059671</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.226884929353474</v>
+        <v>1.085256874257254</v>
       </c>
       <c r="H5">
-        <v>0.04697764287983697</v>
+        <v>0.03898348857067324</v>
       </c>
       <c r="I5">
-        <v>0.0447573418823124</v>
+        <v>0.03356293068005201</v>
       </c>
       <c r="J5">
-        <v>0.8645429290221784</v>
+        <v>0.7501319430316045</v>
       </c>
       <c r="K5">
-        <v>0.904708238201124</v>
+        <v>0.7718565999012412</v>
       </c>
       <c r="L5">
-        <v>0.009923283954618611</v>
+        <v>0.3104834118039079</v>
       </c>
       <c r="M5">
-        <v>0.8529587477514156</v>
+        <v>0.2719884963639956</v>
       </c>
       <c r="N5">
-        <v>0.1837762809258763</v>
+        <v>0.01102235523451256</v>
       </c>
       <c r="O5">
-        <v>0.2131202616312358</v>
+        <v>0.8272373916479978</v>
       </c>
       <c r="P5">
-        <v>1.725778895136195</v>
+        <v>0.2046267132297075</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.2041641863202521</v>
+      </c>
+      <c r="R5">
+        <v>1.556855093219546</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8873656287198344</v>
+        <v>0.800839319235763</v>
       </c>
       <c r="C6">
-        <v>0.08595585205358702</v>
+        <v>0.1008860698363776</v>
       </c>
       <c r="D6">
-        <v>0.1952801214624884</v>
+        <v>0.1939385025141149</v>
       </c>
       <c r="E6">
-        <v>0.03419592198333454</v>
+        <v>0.03402333768999455</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.222939180660561</v>
+        <v>1.082370215060564</v>
       </c>
       <c r="H6">
-        <v>0.04729188015915398</v>
+        <v>0.03924518207951033</v>
       </c>
       <c r="I6">
-        <v>0.04520569668781693</v>
+        <v>0.03395529807760855</v>
       </c>
       <c r="J6">
-        <v>0.862823043210895</v>
+        <v>0.7484825805169919</v>
       </c>
       <c r="K6">
-        <v>0.9024391145213713</v>
+        <v>0.7701855422532304</v>
       </c>
       <c r="L6">
-        <v>0.009846743925372436</v>
+        <v>0.3099891908010584</v>
       </c>
       <c r="M6">
-        <v>0.8467866004801294</v>
+        <v>0.2713785023245947</v>
       </c>
       <c r="N6">
-        <v>0.1830382455307245</v>
+        <v>0.01094304398501222</v>
       </c>
       <c r="O6">
-        <v>0.211720895198706</v>
+        <v>0.8212527124564133</v>
       </c>
       <c r="P6">
-        <v>1.725527984752006</v>
+        <v>0.2038327633695758</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.2028312280065805</v>
+      </c>
+      <c r="R6">
+        <v>1.557174587585997</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9272758769627956</v>
+        <v>0.8359321785797533</v>
       </c>
       <c r="C7">
-        <v>0.09055490482911921</v>
+        <v>0.1061790004712009</v>
       </c>
       <c r="D7">
-        <v>0.200202777248748</v>
+        <v>0.1987139877967081</v>
       </c>
       <c r="E7">
-        <v>0.03496917988610626</v>
+        <v>0.03472023719242401</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.238349680608138</v>
+        <v>1.095278694782365</v>
       </c>
       <c r="H7">
-        <v>0.04527386022200219</v>
+        <v>0.03758541620741274</v>
       </c>
       <c r="I7">
-        <v>0.04332915961752715</v>
+        <v>0.03258546995854328</v>
       </c>
       <c r="J7">
-        <v>0.8686775800748308</v>
+        <v>0.7473545954678826</v>
       </c>
       <c r="K7">
-        <v>0.9094349604597269</v>
+        <v>0.7730707509889925</v>
       </c>
       <c r="L7">
-        <v>0.01041919295535187</v>
+        <v>0.3095791544247426</v>
       </c>
       <c r="M7">
-        <v>0.8865838474654595</v>
+        <v>0.2729924764449017</v>
       </c>
       <c r="N7">
-        <v>0.1890903713227701</v>
+        <v>0.01151842092631661</v>
       </c>
       <c r="O7">
-        <v>0.2204923860305001</v>
+        <v>0.8585495096702971</v>
       </c>
       <c r="P7">
-        <v>1.718043854158566</v>
+        <v>0.2101321179197058</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.2110189067886097</v>
+      </c>
+      <c r="R7">
+        <v>1.546389228634247</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.105790450643354</v>
+        <v>0.9939244017671172</v>
       </c>
       <c r="C8">
-        <v>0.1105853116782782</v>
+        <v>0.1302609714813059</v>
       </c>
       <c r="D8">
-        <v>0.2222075757521083</v>
+        <v>0.2199125664553065</v>
       </c>
       <c r="E8">
-        <v>0.03839987665791433</v>
+        <v>0.03776130561193902</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.310910753299112</v>
+        <v>1.149343701769581</v>
       </c>
       <c r="H8">
-        <v>0.03715102687617589</v>
+        <v>0.03086768284198693</v>
       </c>
       <c r="I8">
-        <v>0.03555600578227214</v>
+        <v>0.02678864009117454</v>
       </c>
       <c r="J8">
-        <v>0.8970014681740821</v>
+        <v>0.7587371576598656</v>
       </c>
       <c r="K8">
-        <v>0.9432633069385261</v>
+        <v>0.7905047350383825</v>
       </c>
       <c r="L8">
-        <v>0.01301813451138045</v>
+        <v>0.3094726653011008</v>
       </c>
       <c r="M8">
-        <v>1.06352286034496</v>
+        <v>0.283089010721401</v>
       </c>
       <c r="N8">
-        <v>0.2156567222885073</v>
+        <v>0.01415920714471497</v>
       </c>
       <c r="O8">
-        <v>0.2595078099277721</v>
+        <v>1.026783536029114</v>
       </c>
       <c r="P8">
-        <v>1.688473764725316</v>
+        <v>0.2381352139849042</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.2477280177933956</v>
+      </c>
+      <c r="R8">
+        <v>1.504427878013267</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.460346022887308</v>
+        <v>1.308246123195971</v>
       </c>
       <c r="C9">
-        <v>0.150350021747073</v>
+        <v>0.1800199688465511</v>
       </c>
       <c r="D9">
-        <v>0.2662788091254242</v>
+        <v>0.2620942062266494</v>
       </c>
       <c r="E9">
-        <v>0.04513756696168869</v>
+        <v>0.04362506140196487</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.463934534128128</v>
+        <v>1.252761546969026</v>
       </c>
       <c r="H9">
-        <v>0.02431779891539221</v>
+        <v>0.0202165738996638</v>
       </c>
       <c r="I9">
-        <v>0.02310075821378721</v>
+        <v>0.01740076434605609</v>
       </c>
       <c r="J9">
-        <v>0.9585581879281904</v>
+        <v>0.8085359578126941</v>
       </c>
       <c r="K9">
-        <v>1.015884831017281</v>
+        <v>0.8331618534018475</v>
       </c>
       <c r="L9">
-        <v>0.01848775319576745</v>
+        <v>0.3111945920993335</v>
       </c>
       <c r="M9">
-        <v>1.414473361289822</v>
+        <v>0.31148847170941</v>
       </c>
       <c r="N9">
-        <v>0.2678636524661471</v>
+        <v>0.0197221357634163</v>
       </c>
       <c r="O9">
-        <v>0.3367817385315917</v>
+        <v>1.363904159542869</v>
       </c>
       <c r="P9">
-        <v>1.638102197280958</v>
+        <v>0.2938664414458287</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.3207919126101046</v>
+      </c>
+      <c r="R9">
+        <v>1.433044055928569</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.709724480893186</v>
+        <v>1.524339928663721</v>
       </c>
       <c r="C10">
-        <v>0.1816767969901036</v>
+        <v>0.2160618291530341</v>
       </c>
       <c r="D10">
-        <v>0.295000276581689</v>
+        <v>0.2899375413211231</v>
       </c>
       <c r="E10">
-        <v>0.04853790126020208</v>
+        <v>0.04660039139210248</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.558646890739453</v>
+        <v>1.33540580204513</v>
       </c>
       <c r="H10">
-        <v>0.01752851104484998</v>
+        <v>0.0146885518643094</v>
       </c>
       <c r="I10">
-        <v>0.01650539586185129</v>
+        <v>0.01263037899261832</v>
       </c>
       <c r="J10">
-        <v>0.995232463961969</v>
+        <v>0.7982227491455944</v>
       </c>
       <c r="K10">
-        <v>1.056961650849807</v>
+        <v>0.8482819487319233</v>
       </c>
       <c r="L10">
-        <v>0.02366219118708912</v>
+        <v>0.3056452625505131</v>
       </c>
       <c r="M10">
-        <v>1.666967927851857</v>
+        <v>0.3295927505634211</v>
       </c>
       <c r="N10">
-        <v>0.2979089195981288</v>
+        <v>0.02487433969125519</v>
       </c>
       <c r="O10">
-        <v>0.3880563177979965</v>
+        <v>1.597829114760628</v>
       </c>
       <c r="P10">
-        <v>1.588920351660207</v>
+        <v>0.3252773594621203</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.3680491522780542</v>
+      </c>
+      <c r="R10">
+        <v>1.36705229846676</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.733210869694204</v>
+        <v>1.543620966723665</v>
       </c>
       <c r="C11">
-        <v>0.2010067606756394</v>
+        <v>0.2296054165176002</v>
       </c>
       <c r="D11">
-        <v>0.2727136383131494</v>
+        <v>0.2688964383561085</v>
       </c>
       <c r="E11">
-        <v>0.03877013933487028</v>
+        <v>0.03755846418754771</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.435969476944365</v>
+        <v>1.27255890009053</v>
       </c>
       <c r="H11">
-        <v>0.0356777368731116</v>
+        <v>0.03308779961561825</v>
       </c>
       <c r="I11">
-        <v>0.01565711305610762</v>
+        <v>0.01234337081899817</v>
       </c>
       <c r="J11">
-        <v>0.9288177127971551</v>
+        <v>0.673426149408229</v>
       </c>
       <c r="K11">
-        <v>0.9703821291870298</v>
+        <v>0.7661833748171603</v>
       </c>
       <c r="L11">
-        <v>0.03661558857399783</v>
+        <v>0.2719202349888086</v>
       </c>
       <c r="M11">
-        <v>1.719241532279881</v>
+        <v>0.3029114896636855</v>
       </c>
       <c r="N11">
-        <v>0.2388042141538875</v>
+        <v>0.0381776780552201</v>
       </c>
       <c r="O11">
-        <v>0.3627563084370067</v>
+        <v>1.633774300483168</v>
       </c>
       <c r="P11">
-        <v>1.462864939721435</v>
+        <v>0.2611759979285182</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.3418478924996649</v>
+      </c>
+      <c r="R11">
+        <v>1.264194581019382</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.703818947314602</v>
+        <v>1.520365924114088</v>
       </c>
       <c r="C12">
-        <v>0.2096094312427113</v>
+        <v>0.2336271536268697</v>
       </c>
       <c r="D12">
-        <v>0.2487367185507452</v>
+        <v>0.2458025496540728</v>
       </c>
       <c r="E12">
-        <v>0.03230514400968332</v>
+        <v>0.03157093540110711</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.321623374884638</v>
+        <v>1.1949614829621</v>
       </c>
       <c r="H12">
-        <v>0.07475519162155564</v>
+        <v>0.07216524424334381</v>
       </c>
       <c r="I12">
-        <v>0.01556390547198117</v>
+        <v>0.01229733671253097</v>
       </c>
       <c r="J12">
-        <v>0.8694155629006133</v>
+        <v>0.6027300937232098</v>
       </c>
       <c r="K12">
-        <v>0.8958468877465293</v>
+        <v>0.7042996004147852</v>
       </c>
       <c r="L12">
-        <v>0.05094672089767016</v>
+        <v>0.2489645527136659</v>
       </c>
       <c r="M12">
-        <v>1.710277697841804</v>
+        <v>0.2799950631364716</v>
       </c>
       <c r="N12">
-        <v>0.188533355400601</v>
+        <v>0.05268035154447404</v>
       </c>
       <c r="O12">
-        <v>0.3318070368514512</v>
+        <v>1.620077354965957</v>
       </c>
       <c r="P12">
-        <v>1.381401814805457</v>
+        <v>0.2072636271587953</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.3116667914232423</v>
+      </c>
+      <c r="R12">
+        <v>1.208631704799469</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.627646899499382</v>
+        <v>1.460843394601028</v>
       </c>
       <c r="C13">
-        <v>0.2114213718313778</v>
+        <v>0.2329149733948555</v>
       </c>
       <c r="D13">
-        <v>0.2220005805333187</v>
+        <v>0.2195874687266297</v>
       </c>
       <c r="E13">
-        <v>0.02792512492864319</v>
+        <v>0.02756847199334933</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.201238413067387</v>
+        <v>1.089432645155668</v>
       </c>
       <c r="H13">
-        <v>0.1316770995744463</v>
+        <v>0.12886291499008</v>
       </c>
       <c r="I13">
-        <v>0.0165071459527848</v>
+        <v>0.0129488189078355</v>
       </c>
       <c r="J13">
-        <v>0.808959096595828</v>
+        <v>0.5705467891040712</v>
       </c>
       <c r="K13">
-        <v>0.8220010550573988</v>
+        <v>0.6519090628392803</v>
       </c>
       <c r="L13">
-        <v>0.06695183887975276</v>
+        <v>0.2313065036913606</v>
       </c>
       <c r="M13">
-        <v>1.652050972053701</v>
+        <v>0.2583050494780998</v>
       </c>
       <c r="N13">
-        <v>0.1428790517020033</v>
+        <v>0.06901071814110793</v>
       </c>
       <c r="O13">
-        <v>0.2944740245921693</v>
+        <v>1.56935925292521</v>
       </c>
       <c r="P13">
-        <v>1.324388205220362</v>
+        <v>0.1588656501688277</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.2767202949512146</v>
+      </c>
+      <c r="R13">
+        <v>1.180597357439622</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.552710671547914</v>
+        <v>1.402054360252521</v>
       </c>
       <c r="C14">
-        <v>0.2098544822751762</v>
+        <v>0.2304862966586967</v>
       </c>
       <c r="D14">
-        <v>0.202290981834949</v>
+        <v>0.2001101447700222</v>
       </c>
       <c r="E14">
-        <v>0.02613338466337156</v>
+        <v>0.02603939633343488</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.114454304330735</v>
+        <v>1.004979704819576</v>
       </c>
       <c r="H14">
-        <v>0.1821902475694515</v>
+        <v>0.1791111587395449</v>
       </c>
       <c r="I14">
-        <v>0.01777367327971291</v>
+        <v>0.01386016753067487</v>
       </c>
       <c r="J14">
-        <v>0.7662102046062103</v>
+        <v>0.5617363050616859</v>
       </c>
       <c r="K14">
-        <v>0.7707428316390477</v>
+        <v>0.6187797118248071</v>
       </c>
       <c r="L14">
-        <v>0.0793865330891137</v>
+        <v>0.2208266712311762</v>
       </c>
       <c r="M14">
-        <v>1.58897042164233</v>
+        <v>0.2436444411236351</v>
       </c>
       <c r="N14">
-        <v>0.114220536314626</v>
+        <v>0.08180500588794359</v>
       </c>
       <c r="O14">
-        <v>0.265759072163938</v>
+        <v>1.516735693650958</v>
       </c>
       <c r="P14">
-        <v>1.296340795887069</v>
+        <v>0.1286046159889267</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.250279883236928</v>
+      </c>
+      <c r="R14">
+        <v>1.172462390578797</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.523679829155611</v>
+        <v>1.37900675894403</v>
       </c>
       <c r="C15">
-        <v>0.2083184519754724</v>
+        <v>0.2291330479186371</v>
       </c>
       <c r="D15">
-        <v>0.196818157725076</v>
+        <v>0.1946527509690696</v>
       </c>
       <c r="E15">
-        <v>0.02582416779125873</v>
+        <v>0.02580889200878977</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.090593503499548</v>
+        <v>0.9787778473477857</v>
       </c>
       <c r="H15">
-        <v>0.1952500921263862</v>
+        <v>0.1920457562403328</v>
       </c>
       <c r="I15">
-        <v>0.01848133509877581</v>
+        <v>0.01441972982205098</v>
       </c>
       <c r="J15">
-        <v>0.7548657321638217</v>
+        <v>0.5648662387248891</v>
       </c>
       <c r="K15">
-        <v>0.7573056573401828</v>
+        <v>0.611322452150965</v>
       </c>
       <c r="L15">
-        <v>0.08216699071537192</v>
+        <v>0.218753478587228</v>
       </c>
       <c r="M15">
-        <v>1.562988681907683</v>
+        <v>0.2399413516105895</v>
       </c>
       <c r="N15">
-        <v>0.1075150139675145</v>
+        <v>0.08474758628927503</v>
       </c>
       <c r="O15">
-        <v>0.2572817737649054</v>
+        <v>1.495541379568124</v>
       </c>
       <c r="P15">
-        <v>1.292824971113436</v>
+        <v>0.1215979995321845</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.24263105263217</v>
+      </c>
+      <c r="R15">
+        <v>1.17404751689585</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.431910696294977</v>
+        <v>1.304453280454965</v>
       </c>
       <c r="C16">
-        <v>0.1945933729379732</v>
+        <v>0.2182885770347127</v>
       </c>
       <c r="D16">
-        <v>0.190437801423684</v>
+        <v>0.1879728844974693</v>
       </c>
       <c r="E16">
-        <v>0.02534671984947279</v>
+        <v>0.02545018979802938</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.073610497512618</v>
+        <v>0.9381064986612699</v>
       </c>
       <c r="H16">
-        <v>0.1853425553570531</v>
+        <v>0.1815412677527348</v>
       </c>
       <c r="I16">
-        <v>0.02123466994702738</v>
+        <v>0.01640941872761292</v>
       </c>
       <c r="J16">
-        <v>0.7507659630809371</v>
+        <v>0.6150709697994046</v>
       </c>
       <c r="K16">
-        <v>0.7539339951415442</v>
+        <v>0.6210209972602243</v>
       </c>
       <c r="L16">
-        <v>0.07614267739558045</v>
+        <v>0.2248570649557067</v>
       </c>
       <c r="M16">
-        <v>1.466499156994047</v>
+        <v>0.2401463888671671</v>
       </c>
       <c r="N16">
-        <v>0.1052959724434146</v>
+        <v>0.07928728682852437</v>
       </c>
       <c r="O16">
-        <v>0.2437004617232326</v>
+        <v>1.417638713971542</v>
       </c>
       <c r="P16">
-        <v>1.322469995676656</v>
+        <v>0.1200842279270873</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.2314402728602865</v>
+      </c>
+      <c r="R16">
+        <v>1.206070762342947</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.401073095920168</v>
+        <v>1.277219253388097</v>
       </c>
       <c r="C17">
-        <v>0.184995210806207</v>
+        <v>0.2105731448012165</v>
       </c>
       <c r="D17">
-        <v>0.195840270863215</v>
+        <v>0.1930965270884855</v>
       </c>
       <c r="E17">
-        <v>0.0256942902092554</v>
+        <v>0.02569771365191253</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.106035279174151</v>
+        <v>0.9544794714964269</v>
       </c>
       <c r="H17">
-        <v>0.149149940468547</v>
+        <v>0.1450377724401051</v>
       </c>
       <c r="I17">
-        <v>0.02272578918113144</v>
+        <v>0.01751318330794316</v>
       </c>
       <c r="J17">
-        <v>0.7700765751734764</v>
+        <v>0.6546524924486476</v>
       </c>
       <c r="K17">
-        <v>0.778087449099111</v>
+        <v>0.6451778609923977</v>
       </c>
       <c r="L17">
-        <v>0.06462893225187827</v>
+        <v>0.2352068434155967</v>
       </c>
       <c r="M17">
-        <v>1.426012567506149</v>
+        <v>0.2474292736331307</v>
       </c>
       <c r="N17">
-        <v>0.1180376115538522</v>
+        <v>0.06782352249987866</v>
       </c>
       <c r="O17">
-        <v>0.2482657128607642</v>
+        <v>1.383774529520537</v>
       </c>
       <c r="P17">
-        <v>1.359498701650683</v>
+        <v>0.1341950251291451</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.2365068244349509</v>
+      </c>
+      <c r="R17">
+        <v>1.235883441926608</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.421127795977924</v>
+        <v>1.291220116286297</v>
       </c>
       <c r="C18">
-        <v>0.1771644437386897</v>
+        <v>0.204946436782862</v>
       </c>
       <c r="D18">
-        <v>0.2125519234121072</v>
+        <v>0.2093435213587469</v>
       </c>
       <c r="E18">
-        <v>0.02800304325509684</v>
+        <v>0.02766975011496076</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.189398541523602</v>
+        <v>1.018145636495831</v>
       </c>
       <c r="H18">
-        <v>0.09662066900169464</v>
+        <v>0.09245375708871961</v>
       </c>
       <c r="I18">
-        <v>0.02277576487464028</v>
+        <v>0.01744069188525188</v>
       </c>
       <c r="J18">
-        <v>0.8140111603291587</v>
+        <v>0.7012568327007216</v>
       </c>
       <c r="K18">
-        <v>0.8322853921306788</v>
+        <v>0.6894417624324731</v>
       </c>
       <c r="L18">
-        <v>0.04909695781896062</v>
+        <v>0.2523496871283442</v>
       </c>
       <c r="M18">
-        <v>1.429323997102983</v>
+        <v>0.2632039920364022</v>
       </c>
       <c r="N18">
-        <v>0.1483124361559973</v>
+        <v>0.05200412314297864</v>
       </c>
       <c r="O18">
-        <v>0.2697274335595381</v>
+        <v>1.387397238300821</v>
       </c>
       <c r="P18">
-        <v>1.413721062777039</v>
+        <v>0.1668735914012629</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.2572259400903114</v>
+      </c>
+      <c r="R18">
+        <v>1.273319763113452</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.475427609257451</v>
+        <v>1.333145649347273</v>
       </c>
       <c r="C19">
-        <v>0.172778182589326</v>
+        <v>0.2033357796803301</v>
       </c>
       <c r="D19">
-        <v>0.2378446285049449</v>
+        <v>0.2339786227209828</v>
       </c>
       <c r="E19">
-        <v>0.03347937064181838</v>
+        <v>0.03261006046788939</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.305666106474561</v>
+        <v>1.110432007769617</v>
       </c>
       <c r="H19">
-        <v>0.05022945499477061</v>
+        <v>0.04624820338524671</v>
       </c>
       <c r="I19">
-        <v>0.02225173027522054</v>
+        <v>0.01712806658843569</v>
       </c>
       <c r="J19">
-        <v>0.8733356793215563</v>
+        <v>0.7530320455221471</v>
       </c>
       <c r="K19">
-        <v>0.9055490984691019</v>
+        <v>0.7461033779662998</v>
       </c>
       <c r="L19">
-        <v>0.03456962762476934</v>
+        <v>0.273509985598416</v>
       </c>
       <c r="M19">
-        <v>1.465546315798321</v>
+        <v>0.2843905535288016</v>
       </c>
       <c r="N19">
-        <v>0.1961292738816169</v>
+        <v>0.03694565164013497</v>
       </c>
       <c r="O19">
-        <v>0.3038070527419023</v>
+        <v>1.420194004007811</v>
       </c>
       <c r="P19">
-        <v>1.482563059855615</v>
+        <v>0.2180010138462407</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.2897070421474908</v>
+      </c>
+      <c r="R19">
+        <v>1.318384637699115</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.634639761277555</v>
+        <v>1.461722422581289</v>
       </c>
       <c r="C20">
-        <v>0.1755867667906301</v>
+        <v>0.2105637621954202</v>
       </c>
       <c r="D20">
-        <v>0.2868713684944595</v>
+        <v>0.2818019154684492</v>
       </c>
       <c r="E20">
-        <v>0.04742900070406897</v>
+        <v>0.04553828692677797</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.521084452581647</v>
+        <v>1.29008151322877</v>
       </c>
       <c r="H20">
-        <v>0.01923818250710552</v>
+        <v>0.01604304096273701</v>
       </c>
       <c r="I20">
-        <v>0.01909255841227964</v>
+        <v>0.01487070722465766</v>
       </c>
       <c r="J20">
-        <v>0.9791833757691109</v>
+        <v>0.8190540344903212</v>
       </c>
       <c r="K20">
-        <v>1.037122613504309</v>
+        <v>0.8406998106406149</v>
       </c>
       <c r="L20">
-        <v>0.02234085215109616</v>
+        <v>0.3058002909570021</v>
       </c>
       <c r="M20">
-        <v>1.597061476521731</v>
+        <v>0.3232645027115737</v>
       </c>
       <c r="N20">
-        <v>0.290539628402982</v>
+        <v>0.02366508617436658</v>
       </c>
       <c r="O20">
-        <v>0.3733902631599904</v>
+        <v>1.53803583831322</v>
       </c>
       <c r="P20">
-        <v>1.592826177949135</v>
+        <v>0.3180123358504687</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.3551540859741422</v>
+      </c>
+      <c r="R20">
+        <v>1.381499628879361</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.84309619631108</v>
+        <v>1.626258835819613</v>
       </c>
       <c r="C21">
-        <v>0.1990663541216264</v>
+        <v>0.2295948819191835</v>
       </c>
       <c r="D21">
-        <v>0.315580369038031</v>
+        <v>0.3110960867824559</v>
       </c>
       <c r="E21">
-        <v>0.05239523967598636</v>
+        <v>0.05050011883357186</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.626604318655183</v>
+        <v>1.449293330373877</v>
       </c>
       <c r="H21">
-        <v>0.01395557446153467</v>
+        <v>0.01182594638965268</v>
       </c>
       <c r="I21">
-        <v>0.01432234644105179</v>
+        <v>0.01153272223257051</v>
       </c>
       <c r="J21">
-        <v>1.023892294845467</v>
+        <v>0.7076012405103</v>
       </c>
       <c r="K21">
-        <v>1.089405226511353</v>
+        <v>0.8476135667917646</v>
       </c>
       <c r="L21">
-        <v>0.02516678375421755</v>
+        <v>0.2999691942366951</v>
       </c>
       <c r="M21">
-        <v>1.803151817025991</v>
+        <v>0.3360328897661944</v>
       </c>
       <c r="N21">
-        <v>0.3275246620898429</v>
+        <v>0.02586134457797407</v>
       </c>
       <c r="O21">
-        <v>0.4217470867759943</v>
+        <v>1.702056701915922</v>
       </c>
       <c r="P21">
-        <v>1.577060480154017</v>
+        <v>0.3542435718341466</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.3965021115395189</v>
+      </c>
+      <c r="R21">
+        <v>1.326697508441562</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.97844726842294</v>
+        <v>1.731755261646924</v>
       </c>
       <c r="C22">
-        <v>0.2140403553270431</v>
+        <v>0.2407061311406267</v>
       </c>
       <c r="D22">
-        <v>0.3325358408793164</v>
+        <v>0.3286450965329379</v>
       </c>
       <c r="E22">
-        <v>0.05494654845570857</v>
+        <v>0.05315736379342795</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.69161074762971</v>
+        <v>1.560318708749463</v>
       </c>
       <c r="H22">
-        <v>0.01118358962740011</v>
+        <v>0.009619827641613329</v>
       </c>
       <c r="I22">
-        <v>0.01137530740732373</v>
+        <v>0.009300197863241877</v>
       </c>
       <c r="J22">
-        <v>1.051182575250664</v>
+        <v>0.6339543440711282</v>
       </c>
       <c r="K22">
-        <v>1.121296129561159</v>
+        <v>0.848803266038999</v>
       </c>
       <c r="L22">
-        <v>0.02750804591719103</v>
+        <v>0.2950491541837792</v>
       </c>
       <c r="M22">
-        <v>1.936288488408195</v>
+        <v>0.3434600239240737</v>
       </c>
       <c r="N22">
-        <v>0.3468657233896977</v>
+        <v>0.02779822176315427</v>
       </c>
       <c r="O22">
-        <v>0.4509965686129931</v>
+        <v>1.805073017221559</v>
       </c>
       <c r="P22">
-        <v>1.564174819675785</v>
+        <v>0.3725773335699927</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.4208952636026098</v>
+      </c>
+      <c r="R22">
+        <v>1.288531155377363</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.909694054835313</v>
+        <v>1.68068763444893</v>
       </c>
       <c r="C23">
-        <v>0.2051711522938149</v>
+        <v>0.2350376731097157</v>
       </c>
       <c r="D23">
-        <v>0.3236180438105976</v>
+        <v>0.3191902156922879</v>
       </c>
       <c r="E23">
-        <v>0.05364329782206312</v>
+        <v>0.05171996586075345</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.661273491837846</v>
+        <v>1.494546077049762</v>
       </c>
       <c r="H23">
-        <v>0.01259923796259926</v>
+        <v>0.01072982667090089</v>
       </c>
       <c r="I23">
-        <v>0.01253276212859156</v>
+        <v>0.01001480769106688</v>
       </c>
       <c r="J23">
-        <v>1.038806008905482</v>
+        <v>0.6884021632205588</v>
       </c>
       <c r="K23">
-        <v>1.107461960975961</v>
+        <v>0.8535949903717253</v>
       </c>
       <c r="L23">
-        <v>0.02623829887786044</v>
+        <v>0.2995332501867338</v>
       </c>
       <c r="M23">
-        <v>1.866374598167369</v>
+        <v>0.3416601860758988</v>
       </c>
       <c r="N23">
-        <v>0.3361710327483962</v>
+        <v>0.02680057877442366</v>
       </c>
       <c r="O23">
-        <v>0.4357410280564125</v>
+        <v>1.75490961494279</v>
       </c>
       <c r="P23">
-        <v>1.574145493754799</v>
+        <v>0.3627988444402348</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.4086931376239846</v>
+      </c>
+      <c r="R23">
+        <v>1.313497521212106</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.644259414256766</v>
+        <v>1.46978394161809</v>
       </c>
       <c r="C24">
-        <v>0.1735966852426571</v>
+        <v>0.2087269033503674</v>
       </c>
       <c r="D24">
-        <v>0.2898927422702116</v>
+        <v>0.2847272227087529</v>
       </c>
       <c r="E24">
-        <v>0.04862655858815401</v>
+        <v>0.04665644510549427</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.541083049746277</v>
+        <v>1.306058325465045</v>
       </c>
       <c r="H24">
-        <v>0.01889880052091464</v>
+        <v>0.0157305686406301</v>
       </c>
       <c r="I24">
-        <v>0.01843611903759879</v>
+        <v>0.01413813827954247</v>
       </c>
       <c r="J24">
-        <v>0.9893611675101965</v>
+        <v>0.8287673996634624</v>
       </c>
       <c r="K24">
-        <v>1.050667272922993</v>
+        <v>0.8516653521596567</v>
       </c>
       <c r="L24">
-        <v>0.02162886564336652</v>
+        <v>0.3099270964607257</v>
       </c>
       <c r="M24">
-        <v>1.601054334302063</v>
+        <v>0.3273295356463706</v>
       </c>
       <c r="N24">
-        <v>0.2965171127278552</v>
+        <v>0.0228729519562787</v>
       </c>
       <c r="O24">
-        <v>0.3775983417913196</v>
+        <v>1.541804916435154</v>
       </c>
       <c r="P24">
-        <v>1.607878290817453</v>
+        <v>0.3244045191373459</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.3591767195052427</v>
+      </c>
+      <c r="R24">
+        <v>1.392322028479491</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.359166737859056</v>
+        <v>1.219724110343662</v>
       </c>
       <c r="C25">
-        <v>0.1406524196755754</v>
+        <v>0.1683204208373184</v>
       </c>
       <c r="D25">
-        <v>0.2540494545840488</v>
+        <v>0.2502903826416514</v>
       </c>
       <c r="E25">
-        <v>0.04323051812431622</v>
+        <v>0.04193193153316521</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.415237613154275</v>
+        <v>1.21343957716195</v>
       </c>
       <c r="H25">
-        <v>0.02748245788380954</v>
+        <v>0.02282266423771406</v>
       </c>
       <c r="I25">
-        <v>0.02667375098827218</v>
+        <v>0.02027027263263381</v>
       </c>
       <c r="J25">
-        <v>0.9381593816162166</v>
+        <v>0.8017127626566349</v>
       </c>
       <c r="K25">
-        <v>0.9911163456267502</v>
+        <v>0.8189765756391267</v>
       </c>
       <c r="L25">
-        <v>0.01697661028949149</v>
+        <v>0.3098901561036627</v>
       </c>
       <c r="M25">
-        <v>1.317410385052426</v>
+        <v>0.3022140850237314</v>
       </c>
       <c r="N25">
-        <v>0.2541968831069994</v>
+        <v>0.01823169087896126</v>
       </c>
       <c r="O25">
-        <v>0.3152887894751757</v>
+        <v>1.272792728757537</v>
       </c>
       <c r="P25">
-        <v>1.646451404001404</v>
+        <v>0.2794195925987424</v>
       </c>
       <c r="Q25">
+        <v>0.3007521026831554</v>
+      </c>
+      <c r="R25">
+        <v>1.449912117027949</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
